--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['88', '90+5']</t>
   </si>
   <si>
+    <t>['9', '30', '90+3']</t>
+  </si>
+  <si>
+    <t>['29', '36', '45+2']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -461,6 +467,12 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['24', '65']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1287,7 +1299,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1699,7 +1711,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1983,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2189,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ7">
         <v>0.6</v>
@@ -2317,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2398,7 +2410,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2601,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2729,7 +2741,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2935,7 +2947,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3013,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3347,7 +3359,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3553,7 +3565,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3634,7 +3646,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>1.15</v>
@@ -3759,7 +3771,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3837,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>0.82</v>
@@ -3965,7 +3977,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4171,7 +4183,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4377,7 +4389,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4583,7 +4595,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4664,7 +4676,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4789,7 +4801,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -4867,7 +4879,7 @@
         <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5201,7 +5213,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5279,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5485,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -5613,7 +5625,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5694,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6103,7 +6115,7 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6231,7 +6243,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6437,7 +6449,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6643,7 +6655,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6849,7 +6861,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6930,7 +6942,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7055,7 +7067,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7133,7 +7145,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7342,7 +7354,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.01</v>
@@ -7467,7 +7479,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7545,7 +7557,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -7673,7 +7685,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7879,7 +7891,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -7957,10 +7969,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8369,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8497,7 +8509,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8703,7 +8715,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8987,7 +8999,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9115,7 +9127,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9196,7 +9208,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9321,7 +9333,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9402,7 +9414,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>1.85</v>
@@ -9605,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9733,7 +9745,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9939,7 +9951,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10145,7 +10157,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10351,7 +10363,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10557,7 +10569,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10635,10 +10647,10 @@
         <v>0.67</v>
       </c>
       <c r="AP48">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ48">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.63</v>
@@ -10763,7 +10775,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10969,7 +10981,7 @@
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11125,6 +11137,830 @@
         <v>0</v>
       </c>
       <c r="BP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7813871</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45766.08333333334</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q51">
+        <v>2.25</v>
+      </c>
+      <c r="R51">
+        <v>2.2</v>
+      </c>
+      <c r="S51">
+        <v>5.5</v>
+      </c>
+      <c r="T51">
+        <v>1.44</v>
+      </c>
+      <c r="U51">
+        <v>2.63</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>1.36</v>
+      </c>
+      <c r="X51">
+        <v>9</v>
+      </c>
+      <c r="Y51">
+        <v>1.07</v>
+      </c>
+      <c r="Z51">
+        <v>1.62</v>
+      </c>
+      <c r="AA51">
+        <v>3.88</v>
+      </c>
+      <c r="AB51">
+        <v>5.1</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>8.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.33</v>
+      </c>
+      <c r="AF51">
+        <v>3.1</v>
+      </c>
+      <c r="AG51">
+        <v>1.98</v>
+      </c>
+      <c r="AH51">
+        <v>1.77</v>
+      </c>
+      <c r="AI51">
+        <v>2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.73</v>
+      </c>
+      <c r="AK51">
+        <v>1.12</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>2.2</v>
+      </c>
+      <c r="AN51">
+        <v>2.6</v>
+      </c>
+      <c r="AO51">
+        <v>0.57</v>
+      </c>
+      <c r="AP51">
+        <v>2.17</v>
+      </c>
+      <c r="AQ51">
+        <v>0.88</v>
+      </c>
+      <c r="AR51">
+        <v>1.2</v>
+      </c>
+      <c r="AS51">
+        <v>1.24</v>
+      </c>
+      <c r="AT51">
+        <v>2.44</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>7</v>
+      </c>
+      <c r="AW51">
+        <v>14</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>18</v>
+      </c>
+      <c r="AZ51">
+        <v>10</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>3</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7813870</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45766.08333333334</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P52" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q52">
+        <v>1.95</v>
+      </c>
+      <c r="R52">
+        <v>2.4</v>
+      </c>
+      <c r="S52">
+        <v>6.5</v>
+      </c>
+      <c r="T52">
+        <v>1.33</v>
+      </c>
+      <c r="U52">
+        <v>3.25</v>
+      </c>
+      <c r="V52">
+        <v>2.63</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>6.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.11</v>
+      </c>
+      <c r="Z52">
+        <v>1.44</v>
+      </c>
+      <c r="AA52">
+        <v>4.6</v>
+      </c>
+      <c r="AB52">
+        <v>6.4</v>
+      </c>
+      <c r="AC52">
+        <v>1.04</v>
+      </c>
+      <c r="AD52">
+        <v>9</v>
+      </c>
+      <c r="AE52">
+        <v>1.22</v>
+      </c>
+      <c r="AF52">
+        <v>3.85</v>
+      </c>
+      <c r="AG52">
+        <v>1.73</v>
+      </c>
+      <c r="AH52">
+        <v>1.91</v>
+      </c>
+      <c r="AI52">
+        <v>1.91</v>
+      </c>
+      <c r="AJ52">
+        <v>1.8</v>
+      </c>
+      <c r="AK52">
+        <v>1.06</v>
+      </c>
+      <c r="AL52">
+        <v>1.15</v>
+      </c>
+      <c r="AM52">
+        <v>2.7</v>
+      </c>
+      <c r="AN52">
+        <v>2.6</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2.67</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>1.66</v>
+      </c>
+      <c r="AS52">
+        <v>0.8</v>
+      </c>
+      <c r="AT52">
+        <v>2.46</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>4</v>
+      </c>
+      <c r="AX52">
+        <v>9</v>
+      </c>
+      <c r="AY52">
+        <v>10</v>
+      </c>
+      <c r="AZ52">
+        <v>16</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>7</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7813872</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45766.1875</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P53" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q53">
+        <v>2.2</v>
+      </c>
+      <c r="R53">
+        <v>2.25</v>
+      </c>
+      <c r="S53">
+        <v>5.5</v>
+      </c>
+      <c r="T53">
+        <v>1.4</v>
+      </c>
+      <c r="U53">
+        <v>2.75</v>
+      </c>
+      <c r="V53">
+        <v>2.75</v>
+      </c>
+      <c r="W53">
+        <v>1.4</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>1.59</v>
+      </c>
+      <c r="AA53">
+        <v>4</v>
+      </c>
+      <c r="AB53">
+        <v>5.3</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>9</v>
+      </c>
+      <c r="AE53">
+        <v>1.24</v>
+      </c>
+      <c r="AF53">
+        <v>3.34</v>
+      </c>
+      <c r="AG53">
+        <v>1.91</v>
+      </c>
+      <c r="AH53">
+        <v>1.83</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.14</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>2.3</v>
+      </c>
+      <c r="AN53">
+        <v>2.33</v>
+      </c>
+      <c r="AO53">
+        <v>0.5</v>
+      </c>
+      <c r="AP53">
+        <v>2.5</v>
+      </c>
+      <c r="AQ53">
+        <v>0.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.75</v>
+      </c>
+      <c r="AS53">
+        <v>1.02</v>
+      </c>
+      <c r="AT53">
+        <v>2.77</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>9</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>19</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53">
+        <v>12</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7813873</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45766.1875</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>85</v>
+      </c>
+      <c r="P54" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54">
+        <v>3.75</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>1.44</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3.25</v>
+      </c>
+      <c r="W54">
+        <v>1.33</v>
+      </c>
+      <c r="X54">
+        <v>9</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>3.36</v>
+      </c>
+      <c r="AA54">
+        <v>3.5</v>
+      </c>
+      <c r="AB54">
+        <v>2.06</v>
+      </c>
+      <c r="AC54">
+        <v>1.05</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <v>1.27</v>
+      </c>
+      <c r="AF54">
+        <v>3.14</v>
+      </c>
+      <c r="AG54">
+        <v>1.98</v>
+      </c>
+      <c r="AH54">
+        <v>1.77</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.91</v>
+      </c>
+      <c r="AK54">
+        <v>1.67</v>
+      </c>
+      <c r="AL54">
+        <v>1.35</v>
+      </c>
+      <c r="AM54">
+        <v>1.3</v>
+      </c>
+      <c r="AN54">
+        <v>2.5</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>2.2</v>
+      </c>
+      <c r="AQ54">
+        <v>1.75</v>
+      </c>
+      <c r="AR54">
+        <v>1.1</v>
+      </c>
+      <c r="AS54">
+        <v>1.5</v>
+      </c>
+      <c r="AT54">
+        <v>2.6</v>
+      </c>
+      <c r="AU54">
+        <v>2</v>
+      </c>
+      <c r="AV54">
+        <v>6</v>
+      </c>
+      <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>6</v>
+      </c>
+      <c r="AZ54">
+        <v>11</v>
+      </c>
+      <c r="BA54">
+        <v>8</v>
+      </c>
+      <c r="BB54">
+        <v>9</v>
+      </c>
+      <c r="BC54">
+        <v>17</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['29', '36', '45+2']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['57', '59']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -473,6 +479,12 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['1', '30', '35']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,7 +1311,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1380,7 +1392,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1586,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1711,7 +1723,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1789,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2329,7 +2341,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2741,7 +2753,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2819,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ10">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0.82</v>
@@ -2947,7 +2959,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3028,7 +3040,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR11">
         <v>1.04</v>
@@ -3359,7 +3371,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3565,7 +3577,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3771,7 +3783,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3977,7 +3989,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4058,7 +4070,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>1.61</v>
@@ -4183,7 +4195,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4389,7 +4401,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4467,10 +4479,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4595,7 +4607,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4801,7 +4813,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5213,7 +5225,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5625,7 +5637,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6243,7 +6255,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6449,7 +6461,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6527,10 +6539,10 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6655,7 +6667,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6861,7 +6873,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6939,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ30">
         <v>0.33</v>
@@ -7067,7 +7079,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7148,7 +7160,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7351,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -7479,7 +7491,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7560,7 +7572,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -7685,7 +7697,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7766,7 +7778,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>0.98</v>
@@ -7891,7 +7903,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8175,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -8509,7 +8521,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8715,7 +8727,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8796,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR39">
         <v>1.6</v>
@@ -9127,7 +9139,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9333,7 +9345,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9411,7 +9423,7 @@
         <v>0.8</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
         <v>0.88</v>
@@ -9745,7 +9757,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9951,7 +9963,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10032,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.49</v>
@@ -10157,7 +10169,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10363,7 +10375,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10441,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -10569,7 +10581,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10775,7 +10787,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10981,7 +10993,7 @@
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11187,7 +11199,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11599,7 +11611,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -11961,6 +11973,624 @@
         <v>0</v>
       </c>
       <c r="BP54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7813874</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>119</v>
+      </c>
+      <c r="P55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>2.5</v>
+      </c>
+      <c r="T55">
+        <v>1.5</v>
+      </c>
+      <c r="U55">
+        <v>2.5</v>
+      </c>
+      <c r="V55">
+        <v>3.4</v>
+      </c>
+      <c r="W55">
+        <v>1.3</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55">
+        <v>1.06</v>
+      </c>
+      <c r="Z55">
+        <v>4.1</v>
+      </c>
+      <c r="AA55">
+        <v>3.58</v>
+      </c>
+      <c r="AB55">
+        <v>1.83</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>7.8</v>
+      </c>
+      <c r="AE55">
+        <v>1.35</v>
+      </c>
+      <c r="AF55">
+        <v>2.74</v>
+      </c>
+      <c r="AG55">
+        <v>2.1</v>
+      </c>
+      <c r="AH55">
+        <v>1.6</v>
+      </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.73</v>
+      </c>
+      <c r="AK55">
+        <v>1.85</v>
+      </c>
+      <c r="AL55">
+        <v>1.33</v>
+      </c>
+      <c r="AM55">
+        <v>1.22</v>
+      </c>
+      <c r="AN55">
+        <v>0.25</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>0.2</v>
+      </c>
+      <c r="AQ55">
+        <v>2.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.32</v>
+      </c>
+      <c r="AS55">
+        <v>1.04</v>
+      </c>
+      <c r="AT55">
+        <v>2.36</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>9</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>14</v>
+      </c>
+      <c r="AZ55">
+        <v>8</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>3</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7813875</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45767.1875</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q56">
+        <v>3.2</v>
+      </c>
+      <c r="R56">
+        <v>2.1</v>
+      </c>
+      <c r="S56">
+        <v>3.5</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56">
+        <v>2.75</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>1.36</v>
+      </c>
+      <c r="X56">
+        <v>9</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>2.48</v>
+      </c>
+      <c r="AA56">
+        <v>3.32</v>
+      </c>
+      <c r="AB56">
+        <v>2.73</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>8.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.27</v>
+      </c>
+      <c r="AF56">
+        <v>3.14</v>
+      </c>
+      <c r="AG56">
+        <v>1.95</v>
+      </c>
+      <c r="AH56">
+        <v>1.79</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.91</v>
+      </c>
+      <c r="AK56">
+        <v>1.4</v>
+      </c>
+      <c r="AL56">
+        <v>1.35</v>
+      </c>
+      <c r="AM56">
+        <v>1.53</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>2</v>
+      </c>
+      <c r="AP56">
+        <v>1.67</v>
+      </c>
+      <c r="AQ56">
+        <v>1.88</v>
+      </c>
+      <c r="AR56">
+        <v>1.83</v>
+      </c>
+      <c r="AS56">
+        <v>1.29</v>
+      </c>
+      <c r="AT56">
+        <v>3.12</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>12</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>19</v>
+      </c>
+      <c r="AZ56">
+        <v>9</v>
+      </c>
+      <c r="BA56">
+        <v>13</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>16</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7813876</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45767.1875</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q57">
+        <v>3.75</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>3.1</v>
+      </c>
+      <c r="T57">
+        <v>1.44</v>
+      </c>
+      <c r="U57">
+        <v>2.63</v>
+      </c>
+      <c r="V57">
+        <v>3.4</v>
+      </c>
+      <c r="W57">
+        <v>1.3</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>1.06</v>
+      </c>
+      <c r="Z57">
+        <v>2.99</v>
+      </c>
+      <c r="AA57">
+        <v>3.23</v>
+      </c>
+      <c r="AB57">
+        <v>2.34</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE57">
+        <v>1.32</v>
+      </c>
+      <c r="AF57">
+        <v>2.88</v>
+      </c>
+      <c r="AG57">
+        <v>2.05</v>
+      </c>
+      <c r="AH57">
+        <v>1.61</v>
+      </c>
+      <c r="AI57">
+        <v>1.83</v>
+      </c>
+      <c r="AJ57">
+        <v>1.83</v>
+      </c>
+      <c r="AK57">
+        <v>1.55</v>
+      </c>
+      <c r="AL57">
+        <v>1.36</v>
+      </c>
+      <c r="AM57">
+        <v>1.36</v>
+      </c>
+      <c r="AN57">
+        <v>1.33</v>
+      </c>
+      <c r="AO57">
+        <v>2.33</v>
+      </c>
+      <c r="AP57">
+        <v>1.75</v>
+      </c>
+      <c r="AQ57">
+        <v>1.75</v>
+      </c>
+      <c r="AR57">
+        <v>1.79</v>
+      </c>
+      <c r="AS57">
+        <v>1.45</v>
+      </c>
+      <c r="AT57">
+        <v>3.24</v>
+      </c>
+      <c r="AU57">
+        <v>9</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>3</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>12</v>
+      </c>
+      <c r="AZ57">
+        <v>7</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,15 @@
     <t>['57', '59']</t>
   </si>
   <si>
+    <t>['3', '90+3']</t>
+  </si>
+  <si>
+    <t>['17', '53', '90+4']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -485,6 +494,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1198,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1311,7 +1323,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1389,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -1723,7 +1735,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2213,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ7">
         <v>0.6</v>
@@ -2341,7 +2353,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2419,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2753,7 +2765,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2959,7 +2971,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3037,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11">
         <v>1.88</v>
@@ -3371,7 +3383,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3452,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>1.4</v>
@@ -3577,7 +3589,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3655,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>1.75</v>
@@ -3783,7 +3795,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3864,7 +3876,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>0.82</v>
@@ -3989,7 +4001,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4067,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
         <v>2.33</v>
@@ -4195,7 +4207,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4276,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>1.52</v>
@@ -4401,7 +4413,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4607,7 +4619,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4688,7 +4700,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4813,7 +4825,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -4891,7 +4903,7 @@
         <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5097,7 +5109,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5225,7 +5237,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5306,7 +5318,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.92</v>
@@ -5637,7 +5649,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5718,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6255,7 +6267,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6461,7 +6473,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6667,7 +6679,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6745,10 +6757,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6873,7 +6885,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7079,7 +7091,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7366,7 +7378,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>1.01</v>
@@ -7491,7 +7503,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7697,7 +7709,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7775,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -7903,7 +7915,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -7981,7 +7993,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8187,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -8393,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8521,7 +8533,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8602,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.61</v>
@@ -8727,7 +8739,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9014,7 +9026,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -9139,7 +9151,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9345,7 +9357,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9423,10 +9435,10 @@
         <v>0.8</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR42">
         <v>1.85</v>
@@ -9632,7 +9644,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.02</v>
@@ -9757,7 +9769,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9963,7 +9975,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10169,7 +10181,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10247,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10375,7 +10387,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10581,7 +10593,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10662,7 +10674,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
         <v>1.63</v>
@@ -10787,7 +10799,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10993,7 +11005,7 @@
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11071,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.01</v>
@@ -11199,7 +11211,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11277,10 +11289,10 @@
         <v>0.57</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -11611,7 +11623,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12023,7 +12035,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12307,7 +12319,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.88</v>
@@ -12435,7 +12447,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12591,6 +12603,830 @@
         <v>0</v>
       </c>
       <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7813877</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45773.08333333334</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P58" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q58">
+        <v>2.3</v>
+      </c>
+      <c r="R58">
+        <v>2.25</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
+      </c>
+      <c r="T58">
+        <v>1.36</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>1.1</v>
+      </c>
+      <c r="Z58">
+        <v>1.69</v>
+      </c>
+      <c r="AA58">
+        <v>3.92</v>
+      </c>
+      <c r="AB58">
+        <v>4.5</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>9</v>
+      </c>
+      <c r="AE58">
+        <v>1.25</v>
+      </c>
+      <c r="AF58">
+        <v>3.7</v>
+      </c>
+      <c r="AG58">
+        <v>1.8</v>
+      </c>
+      <c r="AH58">
+        <v>1.94</v>
+      </c>
+      <c r="AI58">
+        <v>1.83</v>
+      </c>
+      <c r="AJ58">
+        <v>1.83</v>
+      </c>
+      <c r="AK58">
+        <v>1.15</v>
+      </c>
+      <c r="AL58">
+        <v>1.2</v>
+      </c>
+      <c r="AM58">
+        <v>2.1</v>
+      </c>
+      <c r="AN58">
+        <v>2.17</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>2.29</v>
+      </c>
+      <c r="AQ58">
+        <v>0.8</v>
+      </c>
+      <c r="AR58">
+        <v>1.31</v>
+      </c>
+      <c r="AS58">
+        <v>1.13</v>
+      </c>
+      <c r="AT58">
+        <v>2.44</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>6</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>10</v>
+      </c>
+      <c r="AZ58">
+        <v>9</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>6</v>
+      </c>
+      <c r="BC58">
+        <v>10</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7813878</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45773.08333333334</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q59">
+        <v>3.2</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>3.4</v>
+      </c>
+      <c r="T59">
+        <v>1.4</v>
+      </c>
+      <c r="U59">
+        <v>2.75</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>2.44</v>
+      </c>
+      <c r="AA59">
+        <v>3.45</v>
+      </c>
+      <c r="AB59">
+        <v>2.71</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>8.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.33</v>
+      </c>
+      <c r="AF59">
+        <v>3.2</v>
+      </c>
+      <c r="AG59">
+        <v>1.98</v>
+      </c>
+      <c r="AH59">
+        <v>1.77</v>
+      </c>
+      <c r="AI59">
+        <v>1.8</v>
+      </c>
+      <c r="AJ59">
+        <v>1.91</v>
+      </c>
+      <c r="AK59">
+        <v>1.42</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.53</v>
+      </c>
+      <c r="AN59">
+        <v>0.6</v>
+      </c>
+      <c r="AO59">
+        <v>0.88</v>
+      </c>
+      <c r="AP59">
+        <v>0.5</v>
+      </c>
+      <c r="AQ59">
+        <v>1.11</v>
+      </c>
+      <c r="AR59">
+        <v>1.1</v>
+      </c>
+      <c r="AS59">
+        <v>1.26</v>
+      </c>
+      <c r="AT59">
+        <v>2.36</v>
+      </c>
+      <c r="AU59">
+        <v>2</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>11</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>8</v>
+      </c>
+      <c r="BA59">
+        <v>8</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7813879</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45773.1875</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60">
+        <v>2.2</v>
+      </c>
+      <c r="R60">
+        <v>2.2</v>
+      </c>
+      <c r="S60">
+        <v>6</v>
+      </c>
+      <c r="T60">
+        <v>1.44</v>
+      </c>
+      <c r="U60">
+        <v>2.63</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>1.36</v>
+      </c>
+      <c r="X60">
+        <v>9</v>
+      </c>
+      <c r="Y60">
+        <v>1.07</v>
+      </c>
+      <c r="Z60">
+        <v>1.66</v>
+      </c>
+      <c r="AA60">
+        <v>3.78</v>
+      </c>
+      <c r="AB60">
+        <v>4.9</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.33</v>
+      </c>
+      <c r="AF60">
+        <v>3.1</v>
+      </c>
+      <c r="AG60">
+        <v>1.95</v>
+      </c>
+      <c r="AH60">
+        <v>1.79</v>
+      </c>
+      <c r="AI60">
+        <v>2.1</v>
+      </c>
+      <c r="AJ60">
+        <v>1.67</v>
+      </c>
+      <c r="AK60">
+        <v>1.13</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>2.15</v>
+      </c>
+      <c r="AN60">
+        <v>1.67</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>0.75</v>
+      </c>
+      <c r="AR60">
+        <v>2.02</v>
+      </c>
+      <c r="AS60">
+        <v>0.99</v>
+      </c>
+      <c r="AT60">
+        <v>3.01</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>12</v>
+      </c>
+      <c r="AY60">
+        <v>14</v>
+      </c>
+      <c r="AZ60">
+        <v>14</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7813880</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45773.1875</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P61" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="R61">
+        <v>2.05</v>
+      </c>
+      <c r="S61">
+        <v>2.88</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>2.63</v>
+      </c>
+      <c r="V61">
+        <v>3.25</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>3.25</v>
+      </c>
+      <c r="AA61">
+        <v>3.32</v>
+      </c>
+      <c r="AB61">
+        <v>2.17</v>
+      </c>
+      <c r="AC61">
+        <v>1.06</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.36</v>
+      </c>
+      <c r="AF61">
+        <v>2.95</v>
+      </c>
+      <c r="AG61">
+        <v>2</v>
+      </c>
+      <c r="AH61">
+        <v>1.67</v>
+      </c>
+      <c r="AI61">
+        <v>1.83</v>
+      </c>
+      <c r="AJ61">
+        <v>1.83</v>
+      </c>
+      <c r="AK61">
+        <v>1.67</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.3</v>
+      </c>
+      <c r="AN61">
+        <v>1.75</v>
+      </c>
+      <c r="AO61">
+        <v>1.5</v>
+      </c>
+      <c r="AP61">
+        <v>1.4</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>1.39</v>
+      </c>
+      <c r="AS61">
+        <v>1.35</v>
+      </c>
+      <c r="AT61">
+        <v>2.74</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>9</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>15</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>8</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,12 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['46', '81', '90+1']</t>
+  </si>
+  <si>
+    <t>['20', '44', '50']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -497,6 +503,15 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['54', '56']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['4', '9']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,7 +1338,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1404,7 +1419,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1607,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1735,7 +1750,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2022,7 +2037,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2353,7 +2368,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2765,7 +2780,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2971,7 +2986,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3052,7 +3067,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ11">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>1.04</v>
@@ -3383,7 +3398,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3461,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3589,7 +3604,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3795,7 +3810,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4001,7 +4016,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4207,7 +4222,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4413,7 +4428,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4494,7 +4509,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ18">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4619,7 +4634,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4697,7 +4712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ19">
         <v>1.11</v>
@@ -4825,7 +4840,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5237,7 +5252,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5649,7 +5664,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5933,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>2.07</v>
@@ -6139,7 +6154,7 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6267,7 +6282,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6345,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6473,7 +6488,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6554,7 +6569,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6679,7 +6694,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6885,7 +6900,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6966,7 +6981,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7091,7 +7106,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7169,10 +7184,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ31">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7503,7 +7518,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7709,7 +7724,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7915,7 +7930,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8202,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8533,7 +8548,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8739,7 +8754,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8817,10 +8832,10 @@
         <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.6</v>
@@ -9023,7 +9038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9151,7 +9166,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9229,7 +9244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9357,7 +9372,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9769,7 +9784,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9847,7 +9862,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ44">
         <v>0.6</v>
@@ -9975,7 +9990,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10056,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.49</v>
@@ -10181,7 +10196,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10387,7 +10402,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10468,7 +10483,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.74</v>
@@ -10593,7 +10608,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10799,7 +10814,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10877,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>0.5</v>
@@ -11005,7 +11020,7 @@
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11211,7 +11226,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11623,7 +11638,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -11701,10 +11716,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ53">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR53">
         <v>1.75</v>
@@ -12035,7 +12050,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12322,7 +12337,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.83</v>
@@ -12447,7 +12462,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12653,7 +12668,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12859,7 +12874,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13271,7 +13286,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13427,6 +13442,624 @@
         <v>0</v>
       </c>
       <c r="BP61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7813881</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45774.08333333334</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>124</v>
+      </c>
+      <c r="P62" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q62">
+        <v>2.3</v>
+      </c>
+      <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>5.5</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3.25</v>
+      </c>
+      <c r="W62">
+        <v>1.33</v>
+      </c>
+      <c r="X62">
+        <v>9</v>
+      </c>
+      <c r="Y62">
+        <v>1.07</v>
+      </c>
+      <c r="Z62">
+        <v>1.63</v>
+      </c>
+      <c r="AA62">
+        <v>3.84</v>
+      </c>
+      <c r="AB62">
+        <v>5.1</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>8.1</v>
+      </c>
+      <c r="AE62">
+        <v>1.28</v>
+      </c>
+      <c r="AF62">
+        <v>3.08</v>
+      </c>
+      <c r="AG62">
+        <v>1.95</v>
+      </c>
+      <c r="AH62">
+        <v>1.7</v>
+      </c>
+      <c r="AI62">
+        <v>2</v>
+      </c>
+      <c r="AJ62">
+        <v>1.73</v>
+      </c>
+      <c r="AK62">
+        <v>1.15</v>
+      </c>
+      <c r="AL62">
+        <v>1.29</v>
+      </c>
+      <c r="AM62">
+        <v>2.2</v>
+      </c>
+      <c r="AN62">
+        <v>2.5</v>
+      </c>
+      <c r="AO62">
+        <v>1.67</v>
+      </c>
+      <c r="AP62">
+        <v>2.6</v>
+      </c>
+      <c r="AQ62">
+        <v>1.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.79</v>
+      </c>
+      <c r="AS62">
+        <v>0.92</v>
+      </c>
+      <c r="AT62">
+        <v>2.71</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>10</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>8</v>
+      </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7813882</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45774.08333333334</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s">
+        <v>82</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>85</v>
+      </c>
+      <c r="P63" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q63">
+        <v>3.2</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>3.5</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.63</v>
+      </c>
+      <c r="V63">
+        <v>3.25</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>10</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>2.51</v>
+      </c>
+      <c r="AA63">
+        <v>3.23</v>
+      </c>
+      <c r="AB63">
+        <v>2.76</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>7.8</v>
+      </c>
+      <c r="AE63">
+        <v>1.3</v>
+      </c>
+      <c r="AF63">
+        <v>2.97</v>
+      </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63">
+        <v>1.67</v>
+      </c>
+      <c r="AI63">
+        <v>1.83</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.4</v>
+      </c>
+      <c r="AL63">
+        <v>1.35</v>
+      </c>
+      <c r="AM63">
+        <v>1.5</v>
+      </c>
+      <c r="AN63">
+        <v>0.5</v>
+      </c>
+      <c r="AO63">
+        <v>1.88</v>
+      </c>
+      <c r="AP63">
+        <v>0.4</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.54</v>
+      </c>
+      <c r="AS63">
+        <v>1.28</v>
+      </c>
+      <c r="AT63">
+        <v>2.82</v>
+      </c>
+      <c r="AU63">
+        <v>8</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>11</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+      <c r="AY63">
+        <v>19</v>
+      </c>
+      <c r="AZ63">
+        <v>6</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>1</v>
+      </c>
+      <c r="BC63">
+        <v>7</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7813883</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45774.1875</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64" t="s">
+        <v>125</v>
+      </c>
+      <c r="P64" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q64">
+        <v>2.5</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3.25</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>9</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>1.81</v>
+      </c>
+      <c r="AA64">
+        <v>3.57</v>
+      </c>
+      <c r="AB64">
+        <v>4.2</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE64">
+        <v>1.29</v>
+      </c>
+      <c r="AF64">
+        <v>3.04</v>
+      </c>
+      <c r="AG64">
+        <v>1.95</v>
+      </c>
+      <c r="AH64">
+        <v>1.7</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.8</v>
+      </c>
+      <c r="AK64">
+        <v>1.2</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.95</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0.33</v>
+      </c>
+      <c r="AP64">
+        <v>1.33</v>
+      </c>
+      <c r="AQ64">
+        <v>0.25</v>
+      </c>
+      <c r="AR64">
+        <v>1.63</v>
+      </c>
+      <c r="AS64">
+        <v>1.09</v>
+      </c>
+      <c r="AT64">
+        <v>2.72</v>
+      </c>
+      <c r="AU64">
+        <v>12</v>
+      </c>
+      <c r="AV64">
+        <v>9</v>
+      </c>
+      <c r="AW64">
+        <v>3</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>15</v>
+      </c>
+      <c r="AZ64">
+        <v>11</v>
+      </c>
+      <c r="BA64">
+        <v>2</v>
+      </c>
+      <c r="BB64">
+        <v>5</v>
+      </c>
+      <c r="BC64">
+        <v>7</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,12 +262,12 @@
     <t>Asan Mugunghwa</t>
   </si>
   <si>
+    <t>Cheongju</t>
+  </si>
+  <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
-    <t>Cheongju</t>
-  </si>
-  <si>
     <t>['80', '90+3']</t>
   </si>
   <si>
@@ -394,6 +394,21 @@
     <t>['20', '44', '50']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['45+1', '53']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['19', '26', '39']</t>
+  </si>
+  <si>
+    <t>['45+1', '83', '85']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -487,9 +502,6 @@
     <t>['6', '41']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['24', '65']</t>
   </si>
   <si>
@@ -512,6 +524,15 @@
   </si>
   <si>
     <t>['4', '9']</t>
+  </si>
+  <si>
+    <t>['26', '90+5']</t>
+  </si>
+  <si>
+    <t>['83', '90+6']</t>
+  </si>
+  <si>
+    <t>['37', '49', '61']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1314,7 +1335,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1338,7 +1359,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1419,7 +1440,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1625,7 +1646,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1750,7 +1771,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1828,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2034,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>0.25</v>
@@ -2344,7 +2365,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2368,7 +2389,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2446,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.11</v>
@@ -2652,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2780,7 +2801,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2858,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0.82</v>
@@ -2962,7 +2983,7 @@
         <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2986,7 +3007,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3067,7 +3088,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR11">
         <v>1.04</v>
@@ -3398,7 +3419,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3479,7 +3500,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>1.4</v>
@@ -3604,7 +3625,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3786,7 +3807,7 @@
         <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3810,7 +3831,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -3888,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>1.11</v>
@@ -4016,7 +4037,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4094,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>2.33</v>
@@ -4222,7 +4243,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4303,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>1.52</v>
@@ -4404,7 +4425,7 @@
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4428,7 +4449,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4506,10 +4527,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4610,7 +4631,7 @@
         <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4634,7 +4655,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4840,7 +4861,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5252,7 +5273,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5330,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5536,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5640,7 +5661,7 @@
         <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5664,7 +5685,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6282,7 +6303,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6464,7 +6485,7 @@
         <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -6488,7 +6509,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6569,7 +6590,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6694,7 +6715,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6772,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -6900,7 +6921,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6978,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -7082,7 +7103,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7106,7 +7127,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7187,7 +7208,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7288,7 +7309,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7518,7 +7539,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7596,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ33">
         <v>2.33</v>
@@ -7724,7 +7745,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7805,7 +7826,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>0.98</v>
@@ -7930,7 +7951,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8548,7 +8569,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8730,7 +8751,7 @@
         <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8754,7 +8775,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8835,7 +8856,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR39">
         <v>1.6</v>
@@ -9041,7 +9062,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -9166,7 +9187,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9348,7 +9369,7 @@
         <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -9372,7 +9393,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9656,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -9784,7 +9805,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9966,7 +9987,7 @@
         <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -9990,7 +10011,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10071,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR45">
         <v>1.49</v>
@@ -10196,7 +10217,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10274,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10402,7 +10423,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10584,7 +10605,7 @@
         <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -10608,7 +10629,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10686,7 +10707,7 @@
         <v>0.67</v>
       </c>
       <c r="AP48">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ48">
         <v>1.11</v>
@@ -10814,7 +10835,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10895,7 +10916,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11020,7 +11041,7 @@
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11202,7 +11223,7 @@
         <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11226,7 +11247,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11510,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11638,7 +11659,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -11922,7 +11943,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12050,7 +12071,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12128,7 +12149,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ55">
         <v>2.33</v>
@@ -12232,7 +12253,7 @@
         <v>81</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -12337,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR56">
         <v>1.83</v>
@@ -12462,7 +12483,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12543,7 +12564,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.79</v>
@@ -12668,7 +12689,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12749,7 +12770,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.31</v>
@@ -12850,7 +12871,7 @@
         <v>71</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -12874,7 +12895,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13286,7 +13307,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13364,7 +13385,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -13492,7 +13513,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13674,7 +13695,7 @@
         <v>78</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -13698,7 +13719,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13779,7 +13800,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR63">
         <v>1.54</v>
@@ -13904,7 +13925,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14060,6 +14081,1036 @@
         <v>0</v>
       </c>
       <c r="BP64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7813884</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45781.08333333334</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>126</v>
+      </c>
+      <c r="P65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>2.75</v>
+      </c>
+      <c r="T65">
+        <v>1.4</v>
+      </c>
+      <c r="U65">
+        <v>2.75</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>8</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>3.53</v>
+      </c>
+      <c r="AA65">
+        <v>3.45</v>
+      </c>
+      <c r="AB65">
+        <v>2.02</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>1.98</v>
+      </c>
+      <c r="AH65">
+        <v>1.77</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>2.2</v>
+      </c>
+      <c r="AO65">
+        <v>0.5</v>
+      </c>
+      <c r="AP65">
+        <v>1.83</v>
+      </c>
+      <c r="AQ65">
+        <v>1.33</v>
+      </c>
+      <c r="AR65">
+        <v>1.07</v>
+      </c>
+      <c r="AS65">
+        <v>1.18</v>
+      </c>
+      <c r="AT65">
+        <v>2.25</v>
+      </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>2</v>
+      </c>
+      <c r="AX65">
+        <v>9</v>
+      </c>
+      <c r="AY65">
+        <v>5</v>
+      </c>
+      <c r="AZ65">
+        <v>13</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>8</v>
+      </c>
+      <c r="BC65">
+        <v>14</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7813885</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45781.08333333334</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>127</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66">
+        <v>3</v>
+      </c>
+      <c r="R66">
+        <v>2.2</v>
+      </c>
+      <c r="S66">
+        <v>3.6</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.75</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>2.34</v>
+      </c>
+      <c r="AA66">
+        <v>3.35</v>
+      </c>
+      <c r="AB66">
+        <v>2.91</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>1.94</v>
+      </c>
+      <c r="AH66">
+        <v>1.8</v>
+      </c>
+      <c r="AI66">
+        <v>1.73</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1.4</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>1.33</v>
+      </c>
+      <c r="AQ66">
+        <v>1.9</v>
+      </c>
+      <c r="AR66">
+        <v>1.49</v>
+      </c>
+      <c r="AS66">
+        <v>1.25</v>
+      </c>
+      <c r="AT66">
+        <v>2.74</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>6</v>
+      </c>
+      <c r="AX66">
+        <v>12</v>
+      </c>
+      <c r="AY66">
+        <v>10</v>
+      </c>
+      <c r="AZ66">
+        <v>15</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>8</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7813888</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45781.1875</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>128</v>
+      </c>
+      <c r="P67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67">
+        <v>3.75</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67">
+        <v>2.88</v>
+      </c>
+      <c r="T67">
+        <v>1.4</v>
+      </c>
+      <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>1.36</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>3.12</v>
+      </c>
+      <c r="AA67">
+        <v>3.3</v>
+      </c>
+      <c r="AB67">
+        <v>2.24</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>2.91</v>
+      </c>
+      <c r="AF67">
+        <v>1.41</v>
+      </c>
+      <c r="AG67">
+        <v>1.95</v>
+      </c>
+      <c r="AH67">
+        <v>1.7</v>
+      </c>
+      <c r="AI67">
+        <v>1.83</v>
+      </c>
+      <c r="AJ67">
+        <v>1.83</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0.2</v>
+      </c>
+      <c r="AO67">
+        <v>0.8</v>
+      </c>
+      <c r="AP67">
+        <v>0.67</v>
+      </c>
+      <c r="AQ67">
+        <v>0.67</v>
+      </c>
+      <c r="AR67">
+        <v>1.4</v>
+      </c>
+      <c r="AS67">
+        <v>1.16</v>
+      </c>
+      <c r="AT67">
+        <v>2.56</v>
+      </c>
+      <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>7</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>9</v>
+      </c>
+      <c r="BC67">
+        <v>11</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7813887</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45781.1875</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>6</v>
+      </c>
+      <c r="O68" t="s">
+        <v>129</v>
+      </c>
+      <c r="P68" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>2.25</v>
+      </c>
+      <c r="S68">
+        <v>2.25</v>
+      </c>
+      <c r="T68">
+        <v>1.36</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2.75</v>
+      </c>
+      <c r="W68">
+        <v>1.4</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>4.7</v>
+      </c>
+      <c r="AA68">
+        <v>3.89</v>
+      </c>
+      <c r="AB68">
+        <v>1.67</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>1.89</v>
+      </c>
+      <c r="AH68">
+        <v>1.85</v>
+      </c>
+      <c r="AI68">
+        <v>1.83</v>
+      </c>
+      <c r="AJ68">
+        <v>1.83</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>1.66</v>
+      </c>
+      <c r="AT68">
+        <v>1.66</v>
+      </c>
+      <c r="AU68">
+        <v>6</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>7</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>12</v>
+      </c>
+      <c r="BA68">
+        <v>4</v>
+      </c>
+      <c r="BB68">
+        <v>7</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7813886</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45781.1875</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>130</v>
+      </c>
+      <c r="P69" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q69">
+        <v>2.5</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>1.71</v>
+      </c>
+      <c r="AA69">
+        <v>3.65</v>
+      </c>
+      <c r="AB69">
+        <v>4.7</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>2.62</v>
+      </c>
+      <c r="AF69">
+        <v>1.48</v>
+      </c>
+      <c r="AG69">
+        <v>2.05</v>
+      </c>
+      <c r="AH69">
+        <v>1.65</v>
+      </c>
+      <c r="AI69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.73</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>2.67</v>
+      </c>
+      <c r="AO69">
+        <v>1.75</v>
+      </c>
+      <c r="AP69">
+        <v>2.71</v>
+      </c>
+      <c r="AQ69">
+        <v>1.4</v>
+      </c>
+      <c r="AR69">
+        <v>1.6</v>
+      </c>
+      <c r="AS69">
+        <v>1.31</v>
+      </c>
+      <c r="AT69">
+        <v>2.91</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>10</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>5</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,12 @@
     <t>['45+1', '83', '85']</t>
   </si>
   <si>
+    <t>['38', '76']</t>
+  </si>
+  <si>
+    <t>['34', '49']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -533,6 +539,9 @@
   </si>
   <si>
     <t>['37', '49', '61']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1359,7 +1368,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1643,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -1771,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2264,7 +2273,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2389,7 +2398,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2801,7 +2810,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3007,7 +3016,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3291,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3419,7 +3428,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3497,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3625,7 +3634,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3831,7 +3840,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4037,7 +4046,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4243,7 +4252,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4321,7 +4330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4449,7 +4458,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4655,7 +4664,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4861,7 +4870,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5148,7 +5157,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.02</v>
@@ -5273,7 +5282,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5685,7 +5694,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5763,7 +5772,7 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.11</v>
@@ -6178,7 +6187,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6303,7 +6312,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6381,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6509,7 +6518,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6715,7 +6724,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6921,7 +6930,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7127,7 +7136,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7539,7 +7548,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7745,7 +7754,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7951,7 +7960,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8569,7 +8578,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8647,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8775,7 +8784,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8853,7 +8862,7 @@
         <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ39">
         <v>1.9</v>
@@ -9187,7 +9196,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9393,7 +9402,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9805,7 +9814,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9886,7 +9895,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10011,7 +10020,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10089,7 +10098,7 @@
         <v>1.83</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>1.9</v>
@@ -10217,7 +10226,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10423,7 +10432,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10629,7 +10638,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10835,7 +10844,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10913,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11247,7 +11256,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11659,7 +11668,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12071,7 +12080,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12483,7 +12492,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12689,7 +12698,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12895,7 +12904,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13307,7 +13316,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13513,7 +13522,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13719,7 +13728,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13925,7 +13934,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14003,7 +14012,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64">
         <v>0.25</v>
@@ -14131,7 +14140,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14337,7 +14346,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14749,7 +14758,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15111,6 +15120,418 @@
         <v>0</v>
       </c>
       <c r="BP69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7813889</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45781.29166666666</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>131</v>
+      </c>
+      <c r="P70" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q70">
+        <v>3</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>3.75</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>9</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>2.32</v>
+      </c>
+      <c r="AA70">
+        <v>3.28</v>
+      </c>
+      <c r="AB70">
+        <v>2.99</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>2.05</v>
+      </c>
+      <c r="AH70">
+        <v>1.65</v>
+      </c>
+      <c r="AI70">
+        <v>1.83</v>
+      </c>
+      <c r="AJ70">
+        <v>1.83</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1.33</v>
+      </c>
+      <c r="AO70">
+        <v>0.6</v>
+      </c>
+      <c r="AP70">
+        <v>1.57</v>
+      </c>
+      <c r="AQ70">
+        <v>0.5</v>
+      </c>
+      <c r="AR70">
+        <v>1.72</v>
+      </c>
+      <c r="AS70">
+        <v>1.32</v>
+      </c>
+      <c r="AT70">
+        <v>3.04</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>11</v>
+      </c>
+      <c r="AZ70">
+        <v>13</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>7</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7813890</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45781.29166666666</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>132</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71">
+        <v>2.63</v>
+      </c>
+      <c r="R71">
+        <v>2.2</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.36</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>2.75</v>
+      </c>
+      <c r="W71">
+        <v>1.4</v>
+      </c>
+      <c r="X71">
+        <v>8</v>
+      </c>
+      <c r="Y71">
+        <v>1.08</v>
+      </c>
+      <c r="Z71">
+        <v>2.03</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>3.41</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>1.91</v>
+      </c>
+      <c r="AH71">
+        <v>1.83</v>
+      </c>
+      <c r="AI71">
+        <v>1.8</v>
+      </c>
+      <c r="AJ71">
+        <v>1.91</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>1.33</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>1.45</v>
+      </c>
+      <c r="AS71">
+        <v>1.02</v>
+      </c>
+      <c r="AT71">
+        <v>2.47</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>9</v>
+      </c>
+      <c r="BA71">
+        <v>5</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,9 @@
     <t>['34', '49']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -436,9 +439,6 @@
     <t>['85', '88']</t>
   </si>
   <si>
-    <t>['7']</t>
-  </si>
-  <si>
     <t>['12', '23']</t>
   </si>
   <si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['37', '45+2', '48']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1368,7 +1371,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1780,7 +1783,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2067,7 +2070,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2398,7 +2401,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2810,7 +2813,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3016,7 +3019,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3428,7 +3431,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3634,7 +3637,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3715,7 +3718,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>1.15</v>
@@ -3840,7 +3843,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>3.4</v>
@@ -4458,7 +4461,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4742,7 +4745,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
         <v>1.11</v>
@@ -5978,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6596,7 +6599,7 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28">
         <v>1.9</v>
@@ -7011,7 +7014,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7420,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
         <v>1.11</v>
@@ -8041,7 +8044,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -9274,10 +9277,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9892,7 +9895,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10510,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -11749,7 +11752,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ53">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR53">
         <v>1.75</v>
@@ -11955,7 +11958,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.1</v>
@@ -12570,7 +12573,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -13806,7 +13809,7 @@
         <v>1.88</v>
       </c>
       <c r="AP63">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ63">
         <v>1.9</v>
@@ -14015,7 +14018,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -15532,6 +15535,418 @@
         <v>0</v>
       </c>
       <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7813891</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45787.1875</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>133</v>
+      </c>
+      <c r="P72" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q72">
+        <v>2.6</v>
+      </c>
+      <c r="R72">
+        <v>2.1</v>
+      </c>
+      <c r="S72">
+        <v>4.5</v>
+      </c>
+      <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.63</v>
+      </c>
+      <c r="V72">
+        <v>3.25</v>
+      </c>
+      <c r="W72">
+        <v>1.33</v>
+      </c>
+      <c r="X72">
+        <v>9</v>
+      </c>
+      <c r="Y72">
+        <v>1.07</v>
+      </c>
+      <c r="Z72">
+        <v>1.77</v>
+      </c>
+      <c r="AA72">
+        <v>3.32</v>
+      </c>
+      <c r="AB72">
+        <v>3.93</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.94</v>
+      </c>
+      <c r="AH72">
+        <v>1.76</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.73</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0.4</v>
+      </c>
+      <c r="AO72">
+        <v>0.25</v>
+      </c>
+      <c r="AP72">
+        <v>0.83</v>
+      </c>
+      <c r="AQ72">
+        <v>0.2</v>
+      </c>
+      <c r="AR72">
+        <v>1.67</v>
+      </c>
+      <c r="AS72">
+        <v>1.25</v>
+      </c>
+      <c r="AT72">
+        <v>2.92</v>
+      </c>
+      <c r="AU72">
+        <v>-1</v>
+      </c>
+      <c r="AV72">
+        <v>-1</v>
+      </c>
+      <c r="AW72">
+        <v>-1</v>
+      </c>
+      <c r="AX72">
+        <v>-1</v>
+      </c>
+      <c r="AY72">
+        <v>-1</v>
+      </c>
+      <c r="AZ72">
+        <v>-1</v>
+      </c>
+      <c r="BA72">
+        <v>-1</v>
+      </c>
+      <c r="BB72">
+        <v>-1</v>
+      </c>
+      <c r="BC72">
+        <v>-1</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7813892</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45787.1875</v>
+      </c>
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>85</v>
+      </c>
+      <c r="P73" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q73">
+        <v>3.6</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>2.88</v>
+      </c>
+      <c r="T73">
+        <v>1.4</v>
+      </c>
+      <c r="U73">
+        <v>2.75</v>
+      </c>
+      <c r="V73">
+        <v>2.75</v>
+      </c>
+      <c r="W73">
+        <v>1.4</v>
+      </c>
+      <c r="X73">
+        <v>8</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>3.04</v>
+      </c>
+      <c r="AA73">
+        <v>3.18</v>
+      </c>
+      <c r="AB73">
+        <v>2.1</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>2.02</v>
+      </c>
+      <c r="AF73">
+        <v>1.79</v>
+      </c>
+      <c r="AG73">
+        <v>1.94</v>
+      </c>
+      <c r="AH73">
+        <v>1.76</v>
+      </c>
+      <c r="AI73">
+        <v>1.73</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1.75</v>
+      </c>
+      <c r="AO73">
+        <v>1.75</v>
+      </c>
+      <c r="AP73">
+        <v>1.4</v>
+      </c>
+      <c r="AQ73">
+        <v>2</v>
+      </c>
+      <c r="AR73">
+        <v>1.77</v>
+      </c>
+      <c r="AS73">
+        <v>1.52</v>
+      </c>
+      <c r="AT73">
+        <v>3.29</v>
+      </c>
+      <c r="AU73">
+        <v>-1</v>
+      </c>
+      <c r="AV73">
+        <v>-1</v>
+      </c>
+      <c r="AW73">
+        <v>-1</v>
+      </c>
+      <c r="AX73">
+        <v>-1</v>
+      </c>
+      <c r="AY73">
+        <v>-1</v>
+      </c>
+      <c r="AZ73">
+        <v>-1</v>
+      </c>
+      <c r="BA73">
+        <v>-1</v>
+      </c>
+      <c r="BB73">
+        <v>-1</v>
+      </c>
+      <c r="BC73">
+        <v>-1</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -15678,31 +15678,31 @@
         <v>2.92</v>
       </c>
       <c r="AU72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW72">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX72">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY72">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ72">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA72">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC72">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD72">
         <v>0</v>
@@ -15884,31 +15884,31 @@
         <v>3.29</v>
       </c>
       <c r="AU73">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV73">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW73">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX73">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY73">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ73">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC73">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD73">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -545,6 +548,9 @@
   </si>
   <si>
     <t>['37', '45+2', '48']</t>
+  </si>
+  <si>
+    <t>['7', '53', '61']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1371,7 +1377,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1783,7 +1789,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2401,7 +2407,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2813,7 +2819,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3019,7 +3025,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3097,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>1.9</v>
@@ -3431,7 +3437,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3637,7 +3643,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -4049,7 +4055,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4255,7 +4261,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4461,7 +4467,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4667,7 +4673,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4873,7 +4879,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -4951,7 +4957,7 @@
         <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5285,7 +5291,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5366,7 +5372,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>0.92</v>
@@ -5697,7 +5703,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6315,7 +6321,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6521,7 +6527,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6727,7 +6733,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6808,7 +6814,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6933,7 +6939,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7139,7 +7145,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7551,7 +7557,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7757,7 +7763,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7963,7 +7969,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8041,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8247,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8453,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8581,7 +8587,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8662,7 +8668,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>1.61</v>
@@ -8787,7 +8793,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9199,7 +9205,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9405,7 +9411,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9483,7 +9489,7 @@
         <v>0.8</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
         <v>1.11</v>
@@ -9692,7 +9698,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>1.02</v>
@@ -9817,7 +9823,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10023,7 +10029,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10229,7 +10235,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10435,7 +10441,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10641,7 +10647,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10847,7 +10853,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11134,7 +11140,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>1.01</v>
@@ -11259,7 +11265,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11337,7 +11343,7 @@
         <v>0.57</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>1.11</v>
@@ -11671,7 +11677,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12083,7 +12089,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12367,7 +12373,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
         <v>1.9</v>
@@ -12495,7 +12501,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12701,7 +12707,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12779,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -12907,7 +12913,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13191,10 +13197,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>2.02</v>
@@ -13319,7 +13325,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13400,7 +13406,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR61">
         <v>1.39</v>
@@ -13525,7 +13531,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13731,7 +13737,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13937,7 +13943,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14143,7 +14149,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14349,7 +14355,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14761,7 +14767,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15379,7 +15385,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15791,7 +15797,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -15947,6 +15953,418 @@
         <v>0</v>
       </c>
       <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7813893</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45787.29166666666</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q74">
+        <v>4.33</v>
+      </c>
+      <c r="R74">
+        <v>2.1</v>
+      </c>
+      <c r="S74">
+        <v>2.75</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1.36</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>3.5</v>
+      </c>
+      <c r="AA74">
+        <v>3.1</v>
+      </c>
+      <c r="AB74">
+        <v>2</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>2.05</v>
+      </c>
+      <c r="AH74">
+        <v>1.75</v>
+      </c>
+      <c r="AI74">
+        <v>1.83</v>
+      </c>
+      <c r="AJ74">
+        <v>1.83</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>1.6</v>
+      </c>
+      <c r="AQ74">
+        <v>2.25</v>
+      </c>
+      <c r="AR74">
+        <v>1.98</v>
+      </c>
+      <c r="AS74">
+        <v>1.27</v>
+      </c>
+      <c r="AT74">
+        <v>3.25</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>3</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>6</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>2</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>5</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7813894</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45787.29166666666</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q75">
+        <v>1.91</v>
+      </c>
+      <c r="R75">
+        <v>2.4</v>
+      </c>
+      <c r="S75">
+        <v>7</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.25</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>1.44</v>
+      </c>
+      <c r="AA75">
+        <v>4.1</v>
+      </c>
+      <c r="AB75">
+        <v>5.6</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>1.83</v>
+      </c>
+      <c r="AH75">
+        <v>1.87</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.73</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>2.29</v>
+      </c>
+      <c r="AO75">
+        <v>0.75</v>
+      </c>
+      <c r="AP75">
+        <v>2.13</v>
+      </c>
+      <c r="AQ75">
+        <v>0.8</v>
+      </c>
+      <c r="AR75">
+        <v>1.33</v>
+      </c>
+      <c r="AS75">
+        <v>1.11</v>
+      </c>
+      <c r="AT75">
+        <v>2.44</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>7</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>11</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>6</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,12 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['36', '54']</t>
+  </si>
+  <si>
+    <t>['6', '25']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -551,6 +557,12 @@
   </si>
   <si>
     <t>['7', '53', '61']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['75', '81']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,7 +1389,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1789,7 +1801,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2407,7 +2419,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2819,7 +2831,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3025,7 +3037,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3437,7 +3449,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3643,7 +3655,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -4055,7 +4067,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4136,7 +4148,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR16">
         <v>1.61</v>
@@ -4261,7 +4273,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4467,7 +4479,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4673,7 +4685,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4879,7 +4891,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5291,7 +5303,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5703,7 +5715,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5990,7 +6002,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>2.07</v>
@@ -6193,7 +6205,7 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6321,7 +6333,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6527,7 +6539,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6733,7 +6745,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6939,7 +6951,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7145,7 +7157,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7223,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ31">
         <v>1.9</v>
@@ -7557,7 +7569,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7638,7 +7650,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -7763,7 +7775,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7969,7 +7981,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8256,7 +8268,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8587,7 +8599,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8793,7 +8805,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9077,7 +9089,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9205,7 +9217,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9411,7 +9423,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9823,7 +9835,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10029,7 +10041,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10235,7 +10247,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10441,7 +10453,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10522,7 +10534,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.74</v>
@@ -10647,7 +10659,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10853,7 +10865,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11265,7 +11277,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11677,7 +11689,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -11755,7 +11767,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ53">
         <v>0.2</v>
@@ -12089,7 +12101,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12170,7 +12182,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ55">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12501,7 +12513,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12707,7 +12719,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12913,7 +12925,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13325,7 +13337,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13531,7 +13543,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13609,10 +13621,10 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13737,7 +13749,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13943,7 +13955,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14149,7 +14161,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14355,7 +14367,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14767,7 +14779,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14845,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15385,7 +15397,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15797,7 +15809,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -16003,7 +16015,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16209,7 +16221,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16365,6 +16377,624 @@
         <v>0</v>
       </c>
       <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7813895</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45788.1875</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>135</v>
+      </c>
+      <c r="P76" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q76">
+        <v>2.63</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>4.33</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>1.95</v>
+      </c>
+      <c r="AA76">
+        <v>3.32</v>
+      </c>
+      <c r="AB76">
+        <v>3.28</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>1.96</v>
+      </c>
+      <c r="AH76">
+        <v>1.74</v>
+      </c>
+      <c r="AI76">
+        <v>1.83</v>
+      </c>
+      <c r="AJ76">
+        <v>1.83</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>1.25</v>
+      </c>
+      <c r="AP76">
+        <v>3</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>1.02</v>
+      </c>
+      <c r="AT76">
+        <v>1.02</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>1</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>5</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>3</v>
+      </c>
+      <c r="BB76">
+        <v>7</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7813896</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45788.1875</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>85</v>
+      </c>
+      <c r="P77" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q77">
+        <v>4.5</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>2.63</v>
+      </c>
+      <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.25</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>9</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>3.45</v>
+      </c>
+      <c r="AA77">
+        <v>3.15</v>
+      </c>
+      <c r="AB77">
+        <v>1.95</v>
+      </c>
+      <c r="AC77">
+        <v>1.73</v>
+      </c>
+      <c r="AD77">
+        <v>2.09</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>2.15</v>
+      </c>
+      <c r="AH77">
+        <v>1.57</v>
+      </c>
+      <c r="AI77">
+        <v>1.91</v>
+      </c>
+      <c r="AJ77">
+        <v>1.8</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>2.33</v>
+      </c>
+      <c r="AP77">
+        <v>0.5</v>
+      </c>
+      <c r="AQ77">
+        <v>2.5</v>
+      </c>
+      <c r="AR77">
+        <v>1.89</v>
+      </c>
+      <c r="AS77">
+        <v>1.05</v>
+      </c>
+      <c r="AT77">
+        <v>2.94</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>4</v>
+      </c>
+      <c r="AX77">
+        <v>7</v>
+      </c>
+      <c r="AY77">
+        <v>9</v>
+      </c>
+      <c r="AZ77">
+        <v>11</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>6</v>
+      </c>
+      <c r="BC77">
+        <v>8</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7813897</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45788.29166666666</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>136</v>
+      </c>
+      <c r="P78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q78">
+        <v>1.91</v>
+      </c>
+      <c r="R78">
+        <v>2.5</v>
+      </c>
+      <c r="S78">
+        <v>7</v>
+      </c>
+      <c r="T78">
+        <v>1.3</v>
+      </c>
+      <c r="U78">
+        <v>3.4</v>
+      </c>
+      <c r="V78">
+        <v>2.38</v>
+      </c>
+      <c r="W78">
+        <v>1.53</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1.13</v>
+      </c>
+      <c r="Z78">
+        <v>1.31</v>
+      </c>
+      <c r="AA78">
+        <v>4.7</v>
+      </c>
+      <c r="AB78">
+        <v>7</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>1.6</v>
+      </c>
+      <c r="AH78">
+        <v>2.1</v>
+      </c>
+      <c r="AI78">
+        <v>1.83</v>
+      </c>
+      <c r="AJ78">
+        <v>1.83</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>2.6</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>2.67</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>1.79</v>
+      </c>
+      <c r="AS78">
+        <v>1.06</v>
+      </c>
+      <c r="AT78">
+        <v>2.85</v>
+      </c>
+      <c r="AU78">
+        <v>-1</v>
+      </c>
+      <c r="AV78">
+        <v>-1</v>
+      </c>
+      <c r="AW78">
+        <v>-1</v>
+      </c>
+      <c r="AX78">
+        <v>-1</v>
+      </c>
+      <c r="AY78">
+        <v>-1</v>
+      </c>
+      <c r="AZ78">
+        <v>-1</v>
+      </c>
+      <c r="BA78">
+        <v>-1</v>
+      </c>
+      <c r="BB78">
+        <v>-1</v>
+      </c>
+      <c r="BC78">
+        <v>-1</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -16932,31 +16932,31 @@
         <v>2.85</v>
       </c>
       <c r="AU78">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW78">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX78">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY78">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ78">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC78">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD78">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,12 @@
     <t>['6', '25']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -520,9 +526,6 @@
     <t>['24', '65']</t>
   </si>
   <si>
-    <t>['59']</t>
-  </si>
-  <si>
     <t>['1', '30', '35']</t>
   </si>
   <si>
@@ -563,6 +566,9 @@
   </si>
   <si>
     <t>['75', '81']</t>
+  </si>
+  <si>
+    <t>['23', '43', '77']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1389,7 +1395,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1801,7 +1807,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2088,7 +2094,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2294,7 +2300,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2419,7 +2425,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ8">
         <v>1.11</v>
@@ -2831,7 +2837,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3037,7 +3043,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3324,7 +3330,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3449,7 +3455,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3655,7 +3661,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -4067,7 +4073,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4145,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
         <v>2.5</v>
@@ -4273,7 +4279,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4479,7 +4485,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4685,7 +4691,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4891,7 +4897,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5178,7 +5184,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR21">
         <v>1.02</v>
@@ -5303,7 +5309,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5715,7 +5721,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6208,7 +6214,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6333,7 +6339,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6539,7 +6545,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6617,7 +6623,7 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28">
         <v>1.9</v>
@@ -6745,7 +6751,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6823,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -6951,7 +6957,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7032,7 +7038,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ30">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7157,7 +7163,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7441,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32">
         <v>1.11</v>
@@ -7569,7 +7575,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7775,7 +7781,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7981,7 +7987,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8599,7 +8605,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8805,7 +8811,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9217,7 +9223,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9423,7 +9429,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9835,7 +9841,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9916,7 +9922,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10041,7 +10047,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10247,7 +10253,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10325,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10453,7 +10459,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10531,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10659,7 +10665,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10865,7 +10871,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11277,7 +11283,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11689,7 +11695,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -11770,7 +11776,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ53">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR53">
         <v>1.75</v>
@@ -12101,7 +12107,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12513,7 +12519,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12591,7 +12597,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12719,7 +12725,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12925,7 +12931,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13337,7 +13343,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13415,7 +13421,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ61">
         <v>2.25</v>
@@ -13543,7 +13549,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13749,7 +13755,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13955,7 +13961,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14036,7 +14042,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14161,7 +14167,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14367,7 +14373,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14445,7 +14451,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>1.9</v>
@@ -14779,7 +14785,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15272,7 +15278,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR70">
         <v>1.72</v>
@@ -15397,7 +15403,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15684,7 +15690,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ72">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR72">
         <v>1.67</v>
@@ -15809,7 +15815,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -15887,7 +15893,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
         <v>2</v>
@@ -16015,7 +16021,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16221,7 +16227,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16427,7 +16433,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16633,7 +16639,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16995,6 +17001,418 @@
         <v>0</v>
       </c>
       <c r="BP78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7813898</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45794.1875</v>
+      </c>
+      <c r="F79">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>137</v>
+      </c>
+      <c r="P79" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q79">
+        <v>3.6</v>
+      </c>
+      <c r="R79">
+        <v>2.2</v>
+      </c>
+      <c r="S79">
+        <v>2.88</v>
+      </c>
+      <c r="T79">
+        <v>1.36</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>7</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>2.75</v>
+      </c>
+      <c r="AA79">
+        <v>3.36</v>
+      </c>
+      <c r="AB79">
+        <v>2.18</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>8.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.28</v>
+      </c>
+      <c r="AF79">
+        <v>3.45</v>
+      </c>
+      <c r="AG79">
+        <v>1.93</v>
+      </c>
+      <c r="AH79">
+        <v>1.77</v>
+      </c>
+      <c r="AI79">
+        <v>1.73</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AK79">
+        <v>1.6</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.38</v>
+      </c>
+      <c r="AN79">
+        <v>1.4</v>
+      </c>
+      <c r="AO79">
+        <v>0.5</v>
+      </c>
+      <c r="AP79">
+        <v>1.17</v>
+      </c>
+      <c r="AQ79">
+        <v>0.86</v>
+      </c>
+      <c r="AR79">
+        <v>1.7</v>
+      </c>
+      <c r="AS79">
+        <v>1.29</v>
+      </c>
+      <c r="AT79">
+        <v>2.99</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>13</v>
+      </c>
+      <c r="AW79">
+        <v>15</v>
+      </c>
+      <c r="AX79">
+        <v>1</v>
+      </c>
+      <c r="AY79">
+        <v>27</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
+        <v>11</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
+        <v>17</v>
+      </c>
+      <c r="BD79">
+        <v>2.09</v>
+      </c>
+      <c r="BE79">
+        <v>6.05</v>
+      </c>
+      <c r="BF79">
+        <v>2.11</v>
+      </c>
+      <c r="BG79">
+        <v>1.4</v>
+      </c>
+      <c r="BH79">
+        <v>2.56</v>
+      </c>
+      <c r="BI79">
+        <v>1.92</v>
+      </c>
+      <c r="BJ79">
+        <v>1.88</v>
+      </c>
+      <c r="BK79">
+        <v>2.26</v>
+      </c>
+      <c r="BL79">
+        <v>1.51</v>
+      </c>
+      <c r="BM79">
+        <v>3.08</v>
+      </c>
+      <c r="BN79">
+        <v>1.28</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7813899</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45794.1875</v>
+      </c>
+      <c r="F80">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>138</v>
+      </c>
+      <c r="P80" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q80">
+        <v>2.5</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>4.5</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>1.36</v>
+      </c>
+      <c r="X80">
+        <v>8</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>1.85</v>
+      </c>
+      <c r="AA80">
+        <v>3.52</v>
+      </c>
+      <c r="AB80">
+        <v>3.4</v>
+      </c>
+      <c r="AC80">
+        <v>1.05</v>
+      </c>
+      <c r="AD80">
+        <v>8.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.35</v>
+      </c>
+      <c r="AF80">
+        <v>3</v>
+      </c>
+      <c r="AG80">
+        <v>1.94</v>
+      </c>
+      <c r="AH80">
+        <v>1.76</v>
+      </c>
+      <c r="AI80">
+        <v>1.91</v>
+      </c>
+      <c r="AJ80">
+        <v>1.8</v>
+      </c>
+      <c r="AK80">
+        <v>1.25</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.83</v>
+      </c>
+      <c r="AN80">
+        <v>1.33</v>
+      </c>
+      <c r="AO80">
+        <v>0.2</v>
+      </c>
+      <c r="AP80">
+        <v>1.57</v>
+      </c>
+      <c r="AQ80">
+        <v>0.17</v>
+      </c>
+      <c r="AR80">
+        <v>1.42</v>
+      </c>
+      <c r="AS80">
+        <v>1.16</v>
+      </c>
+      <c r="AT80">
+        <v>2.58</v>
+      </c>
+      <c r="AU80">
+        <v>3</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <v>10</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
+        <v>13</v>
+      </c>
+      <c r="AZ80">
+        <v>6</v>
+      </c>
+      <c r="BA80">
+        <v>9</v>
+      </c>
+      <c r="BB80">
+        <v>4</v>
+      </c>
+      <c r="BC80">
+        <v>13</v>
+      </c>
+      <c r="BD80">
+        <v>1.67</v>
+      </c>
+      <c r="BE80">
+        <v>7.9</v>
+      </c>
+      <c r="BF80">
+        <v>2.56</v>
+      </c>
+      <c r="BG80">
+        <v>1.38</v>
+      </c>
+      <c r="BH80">
+        <v>2.62</v>
+      </c>
+      <c r="BI80">
+        <v>1.88</v>
+      </c>
+      <c r="BJ80">
+        <v>1.92</v>
+      </c>
+      <c r="BK80">
+        <v>2.17</v>
+      </c>
+      <c r="BL80">
+        <v>1.55</v>
+      </c>
+      <c r="BM80">
+        <v>2.97</v>
+      </c>
+      <c r="BN80">
+        <v>1.3</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,12 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -569,6 +575,9 @@
   </si>
   <si>
     <t>['23', '43', '77']</t>
+  </si>
+  <si>
+    <t>['12', '33', '45+6', '83']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1395,7 +1404,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1473,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ3">
         <v>1.9</v>
@@ -1679,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -1807,7 +1816,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1888,7 +1897,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2425,7 +2434,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2712,7 +2721,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>2.58</v>
@@ -2837,7 +2846,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3043,7 +3052,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3455,7 +3464,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3533,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3661,7 +3670,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3739,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4073,7 +4082,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4279,7 +4288,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4485,7 +4494,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4691,7 +4700,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4897,7 +4906,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -4978,7 +4987,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.06</v>
@@ -5181,7 +5190,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21">
         <v>0.86</v>
@@ -5309,7 +5318,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5721,7 +5730,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6339,7 +6348,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6417,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6545,7 +6554,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6751,7 +6760,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6957,7 +6966,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7163,7 +7172,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7575,7 +7584,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7781,7 +7790,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7859,7 +7868,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ34">
         <v>1.4</v>
@@ -7987,7 +7996,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8605,7 +8614,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8811,7 +8820,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8889,7 +8898,7 @@
         <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>1.9</v>
@@ -9223,7 +9232,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9429,7 +9438,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9841,7 +9850,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10047,7 +10056,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10253,7 +10262,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10334,7 +10343,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.33</v>
@@ -10459,7 +10468,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10665,7 +10674,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10871,7 +10880,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10949,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11155,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ50">
         <v>0.8</v>
@@ -11283,7 +11292,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12107,7 +12116,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12519,7 +12528,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12725,7 +12734,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12931,7 +12940,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13009,7 +13018,7 @@
         <v>0.88</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ59">
         <v>1.11</v>
@@ -13343,7 +13352,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13549,7 +13558,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13755,7 +13764,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13961,7 +13970,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14039,7 +14048,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
         <v>0.17</v>
@@ -14167,7 +14176,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14373,7 +14382,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14785,7 +14794,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14866,7 +14875,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>0</v>
@@ -15275,7 +15284,7 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>0.86</v>
@@ -15403,7 +15412,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15815,7 +15824,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -16021,7 +16030,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16227,7 +16236,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16433,7 +16442,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16639,7 +16648,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17051,7 +17060,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17413,6 +17422,418 @@
         <v>0</v>
       </c>
       <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7813900</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45794.29166666666</v>
+      </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>139</v>
+      </c>
+      <c r="P81" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q81">
+        <v>3.5</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>3</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>2.58</v>
+      </c>
+      <c r="AA81">
+        <v>3.04</v>
+      </c>
+      <c r="AB81">
+        <v>2.48</v>
+      </c>
+      <c r="AC81">
+        <v>1.06</v>
+      </c>
+      <c r="AD81">
+        <v>8</v>
+      </c>
+      <c r="AE81">
+        <v>1.33</v>
+      </c>
+      <c r="AF81">
+        <v>3.2</v>
+      </c>
+      <c r="AG81">
+        <v>1.95</v>
+      </c>
+      <c r="AH81">
+        <v>1.75</v>
+      </c>
+      <c r="AI81">
+        <v>1.73</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AK81">
+        <v>1.53</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.4</v>
+      </c>
+      <c r="AN81">
+        <v>0.5</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>0.57</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1.17</v>
+      </c>
+      <c r="AS81">
+        <v>1.14</v>
+      </c>
+      <c r="AT81">
+        <v>2.31</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>10</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>14</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>10</v>
+      </c>
+      <c r="BD81">
+        <v>1.9</v>
+      </c>
+      <c r="BE81">
+        <v>6.1</v>
+      </c>
+      <c r="BF81">
+        <v>2.34</v>
+      </c>
+      <c r="BG81">
+        <v>1.36</v>
+      </c>
+      <c r="BH81">
+        <v>2.69</v>
+      </c>
+      <c r="BI81">
+        <v>1.92</v>
+      </c>
+      <c r="BJ81">
+        <v>1.88</v>
+      </c>
+      <c r="BK81">
+        <v>2.17</v>
+      </c>
+      <c r="BL81">
+        <v>1.58</v>
+      </c>
+      <c r="BM81">
+        <v>2.88</v>
+      </c>
+      <c r="BN81">
+        <v>1.32</v>
+      </c>
+      <c r="BO81">
+        <v>4.1</v>
+      </c>
+      <c r="BP81">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7813901</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45794.29166666666</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s">
+        <v>79</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q82">
+        <v>3.75</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>1.44</v>
+      </c>
+      <c r="U82">
+        <v>2.63</v>
+      </c>
+      <c r="V82">
+        <v>3.25</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>2.78</v>
+      </c>
+      <c r="AA82">
+        <v>3.04</v>
+      </c>
+      <c r="AB82">
+        <v>2.32</v>
+      </c>
+      <c r="AC82">
+        <v>1.07</v>
+      </c>
+      <c r="AD82">
+        <v>7.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.36</v>
+      </c>
+      <c r="AF82">
+        <v>2.95</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AH82">
+        <v>1.67</v>
+      </c>
+      <c r="AI82">
+        <v>1.83</v>
+      </c>
+      <c r="AJ82">
+        <v>1.83</v>
+      </c>
+      <c r="AK82">
+        <v>1.55</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.36</v>
+      </c>
+      <c r="AN82">
+        <v>1.57</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1.38</v>
+      </c>
+      <c r="AQ82">
+        <v>1.33</v>
+      </c>
+      <c r="AR82">
+        <v>1.65</v>
+      </c>
+      <c r="AS82">
+        <v>1.68</v>
+      </c>
+      <c r="AT82">
+        <v>3.33</v>
+      </c>
+      <c r="AU82">
+        <v>9</v>
+      </c>
+      <c r="AV82">
+        <v>11</v>
+      </c>
+      <c r="AW82">
+        <v>2</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>13</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>2.13</v>
+      </c>
+      <c r="BE82">
+        <v>5.95</v>
+      </c>
+      <c r="BF82">
+        <v>2.08</v>
+      </c>
+      <c r="BG82">
+        <v>1.4</v>
+      </c>
+      <c r="BH82">
+        <v>2.56</v>
+      </c>
+      <c r="BI82">
+        <v>1.88</v>
+      </c>
+      <c r="BJ82">
+        <v>1.92</v>
+      </c>
+      <c r="BK82">
+        <v>2.26</v>
+      </c>
+      <c r="BL82">
+        <v>1.51</v>
+      </c>
+      <c r="BM82">
+        <v>3.08</v>
+      </c>
+      <c r="BN82">
+        <v>1.28</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['30', '70', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -578,6 +584,12 @@
   </si>
   <si>
     <t>['12', '33', '45+6', '83']</t>
+  </si>
+  <si>
+    <t>['30', '53']</t>
+  </si>
+  <si>
+    <t>['35', '63']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,7 +1416,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1816,7 +1828,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1894,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2434,7 +2446,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2515,7 +2527,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ8">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2846,7 +2858,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2924,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ10">
         <v>1.4</v>
@@ -3052,7 +3064,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3464,7 +3476,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3670,7 +3682,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3957,7 +3969,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0.82</v>
@@ -4082,7 +4094,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4288,7 +4300,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4494,7 +4506,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4572,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ18">
         <v>1.9</v>
@@ -4700,7 +4712,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4778,10 +4790,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ19">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4906,7 +4918,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5318,7 +5330,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5399,7 +5411,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR22">
         <v>0.92</v>
@@ -5605,7 +5617,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5730,7 +5742,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5811,7 +5823,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6014,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6348,7 +6360,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6554,7 +6566,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6760,7 +6772,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6966,7 +6978,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7044,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30">
         <v>0.17</v>
@@ -7172,7 +7184,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7459,7 +7471,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.01</v>
@@ -7584,7 +7596,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7790,7 +7802,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7996,7 +8008,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8614,7 +8626,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8695,7 +8707,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR38">
         <v>1.61</v>
@@ -8820,7 +8832,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9232,7 +9244,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9310,7 +9322,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9438,7 +9450,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9519,7 +9531,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.85</v>
@@ -9850,7 +9862,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9928,7 +9940,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44">
         <v>0.86</v>
@@ -10056,7 +10068,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10262,7 +10274,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10468,7 +10480,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10674,7 +10686,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10755,7 +10767,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.63</v>
@@ -10880,7 +10892,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10961,7 +10973,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11292,7 +11304,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11373,7 +11385,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.2</v>
@@ -12116,7 +12128,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12194,7 +12206,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ55">
         <v>2.5</v>
@@ -12528,7 +12540,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12734,7 +12746,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12940,7 +12952,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13021,7 +13033,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ59">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13352,7 +13364,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13433,7 +13445,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR61">
         <v>1.39</v>
@@ -13558,7 +13570,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13764,7 +13776,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13842,7 +13854,7 @@
         <v>1.88</v>
       </c>
       <c r="AP63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ63">
         <v>1.9</v>
@@ -13970,7 +13982,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14176,7 +14188,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14257,7 +14269,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR65">
         <v>1.07</v>
@@ -14382,7 +14394,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14666,7 +14678,7 @@
         <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -14794,7 +14806,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15412,7 +15424,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15696,7 +15708,7 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ72">
         <v>0.17</v>
@@ -15824,7 +15836,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -16030,7 +16042,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16111,7 +16123,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
@@ -16236,7 +16248,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16442,7 +16454,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16648,7 +16660,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17060,7 +17072,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17678,7 +17690,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17835,6 +17847,624 @@
       </c>
       <c r="BP82">
         <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7813902</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45795.1875</v>
+      </c>
+      <c r="F83">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>85</v>
+      </c>
+      <c r="P83" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q83">
+        <v>7.5</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>1.91</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <v>2.63</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
+        <v>6.2</v>
+      </c>
+      <c r="AA83">
+        <v>4</v>
+      </c>
+      <c r="AB83">
+        <v>1.41</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE83">
+        <v>1.25</v>
+      </c>
+      <c r="AF83">
+        <v>3.28</v>
+      </c>
+      <c r="AG83">
+        <v>1.96</v>
+      </c>
+      <c r="AH83">
+        <v>1.74</v>
+      </c>
+      <c r="AI83">
+        <v>2.2</v>
+      </c>
+      <c r="AJ83">
+        <v>1.62</v>
+      </c>
+      <c r="AK83">
+        <v>2.7</v>
+      </c>
+      <c r="AL83">
+        <v>1.22</v>
+      </c>
+      <c r="AM83">
+        <v>1.1</v>
+      </c>
+      <c r="AN83">
+        <v>0.67</v>
+      </c>
+      <c r="AO83">
+        <v>2.25</v>
+      </c>
+      <c r="AP83">
+        <v>0.57</v>
+      </c>
+      <c r="AQ83">
+        <v>2.4</v>
+      </c>
+      <c r="AR83">
+        <v>1.35</v>
+      </c>
+      <c r="AS83">
+        <v>1.23</v>
+      </c>
+      <c r="AT83">
+        <v>2.58</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>9</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>9</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>6</v>
+      </c>
+      <c r="BD83">
+        <v>3.58</v>
+      </c>
+      <c r="BE83">
+        <v>8.4</v>
+      </c>
+      <c r="BF83">
+        <v>1.39</v>
+      </c>
+      <c r="BG83">
+        <v>1.45</v>
+      </c>
+      <c r="BH83">
+        <v>2.41</v>
+      </c>
+      <c r="BI83">
+        <v>1.98</v>
+      </c>
+      <c r="BJ83">
+        <v>1.82</v>
+      </c>
+      <c r="BK83">
+        <v>2.38</v>
+      </c>
+      <c r="BL83">
+        <v>1.46</v>
+      </c>
+      <c r="BM83">
+        <v>3.28</v>
+      </c>
+      <c r="BN83">
+        <v>1.25</v>
+      </c>
+      <c r="BO83">
+        <v>4.3</v>
+      </c>
+      <c r="BP83">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7813903</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45795.1875</v>
+      </c>
+      <c r="F84">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>141</v>
+      </c>
+      <c r="P84" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q84">
+        <v>2.38</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>5</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
+        <v>2.75</v>
+      </c>
+      <c r="V84">
+        <v>2.75</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>1.73</v>
+      </c>
+      <c r="AA84">
+        <v>3.45</v>
+      </c>
+      <c r="AB84">
+        <v>4</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>9</v>
+      </c>
+      <c r="AE84">
+        <v>1.26</v>
+      </c>
+      <c r="AF84">
+        <v>3.22</v>
+      </c>
+      <c r="AG84">
+        <v>1.96</v>
+      </c>
+      <c r="AH84">
+        <v>1.74</v>
+      </c>
+      <c r="AI84">
+        <v>1.83</v>
+      </c>
+      <c r="AJ84">
+        <v>1.83</v>
+      </c>
+      <c r="AK84">
+        <v>1.2</v>
+      </c>
+      <c r="AL84">
+        <v>1.3</v>
+      </c>
+      <c r="AM84">
+        <v>2</v>
+      </c>
+      <c r="AN84">
+        <v>3</v>
+      </c>
+      <c r="AO84">
+        <v>1.11</v>
+      </c>
+      <c r="AP84">
+        <v>3</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>1.02</v>
+      </c>
+      <c r="AS84">
+        <v>1.25</v>
+      </c>
+      <c r="AT84">
+        <v>2.27</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>7</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>15</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>5</v>
+      </c>
+      <c r="BD84">
+        <v>1.61</v>
+      </c>
+      <c r="BE84">
+        <v>7.8</v>
+      </c>
+      <c r="BF84">
+        <v>2.71</v>
+      </c>
+      <c r="BG84">
+        <v>1.42</v>
+      </c>
+      <c r="BH84">
+        <v>2.49</v>
+      </c>
+      <c r="BI84">
+        <v>2</v>
+      </c>
+      <c r="BJ84">
+        <v>1.8</v>
+      </c>
+      <c r="BK84">
+        <v>2.3</v>
+      </c>
+      <c r="BL84">
+        <v>1.49</v>
+      </c>
+      <c r="BM84">
+        <v>3.14</v>
+      </c>
+      <c r="BN84">
+        <v>1.27</v>
+      </c>
+      <c r="BO84">
+        <v>4.2</v>
+      </c>
+      <c r="BP84">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7813904</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45795.29166666666</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>142</v>
+      </c>
+      <c r="P85" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q85">
+        <v>3.75</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>1.44</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>3.25</v>
+      </c>
+      <c r="W85">
+        <v>1.33</v>
+      </c>
+      <c r="X85">
+        <v>9</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>2.93</v>
+      </c>
+      <c r="AA85">
+        <v>3.13</v>
+      </c>
+      <c r="AB85">
+        <v>2.18</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>9.4</v>
+      </c>
+      <c r="AE85">
+        <v>1.31</v>
+      </c>
+      <c r="AF85">
+        <v>2.92</v>
+      </c>
+      <c r="AG85">
+        <v>2.05</v>
+      </c>
+      <c r="AH85">
+        <v>1.65</v>
+      </c>
+      <c r="AI85">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85">
+        <v>1.83</v>
+      </c>
+      <c r="AK85">
+        <v>1.57</v>
+      </c>
+      <c r="AL85">
+        <v>1.35</v>
+      </c>
+      <c r="AM85">
+        <v>1.36</v>
+      </c>
+      <c r="AN85">
+        <v>0.83</v>
+      </c>
+      <c r="AO85">
+        <v>1.33</v>
+      </c>
+      <c r="AP85">
+        <v>0.71</v>
+      </c>
+      <c r="AQ85">
+        <v>1.75</v>
+      </c>
+      <c r="AR85">
+        <v>1.63</v>
+      </c>
+      <c r="AS85">
+        <v>1.36</v>
+      </c>
+      <c r="AT85">
+        <v>2.99</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>7</v>
+      </c>
+      <c r="AZ85">
+        <v>7</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>2.15</v>
+      </c>
+      <c r="BE85">
+        <v>5.8</v>
+      </c>
+      <c r="BF85">
+        <v>2.08</v>
+      </c>
+      <c r="BG85">
+        <v>1.53</v>
+      </c>
+      <c r="BH85">
+        <v>2.21</v>
+      </c>
+      <c r="BI85">
+        <v>1.97</v>
+      </c>
+      <c r="BJ85">
+        <v>1.71</v>
+      </c>
+      <c r="BK85">
+        <v>2.62</v>
+      </c>
+      <c r="BL85">
+        <v>1.38</v>
+      </c>
+      <c r="BM85">
+        <v>3.72</v>
+      </c>
+      <c r="BN85">
+        <v>1.2</v>
+      </c>
+      <c r="BO85">
+        <v>4.75</v>
+      </c>
+      <c r="BP85">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,18 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['6', '29', '32']</t>
+  </si>
+  <si>
+    <t>['38', '45+2']</t>
+  </si>
+  <si>
+    <t>['13', '65']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -590,6 +602,12 @@
   </si>
   <si>
     <t>['35', '63']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['8', '79']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1416,7 +1434,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1497,7 +1515,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ3">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1703,7 +1721,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1828,7 +1846,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2112,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
         <v>0.17</v>
@@ -2446,7 +2464,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2730,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2858,7 +2876,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2939,7 +2957,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0.82</v>
@@ -3064,7 +3082,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3145,7 +3163,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ11">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR11">
         <v>1.04</v>
@@ -3348,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ12">
         <v>0.86</v>
@@ -3476,7 +3494,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3682,7 +3700,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3763,7 +3781,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR14">
         <v>1.15</v>
@@ -3966,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4094,7 +4112,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4175,7 +4193,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR16">
         <v>1.61</v>
@@ -4300,7 +4318,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4378,7 +4396,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4506,7 +4524,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4587,7 +4605,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ18">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4712,7 +4730,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4918,7 +4936,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5330,7 +5348,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5408,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>2.4</v>
@@ -5614,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5742,7 +5760,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5820,7 +5838,7 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6232,7 +6250,7 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6360,7 +6378,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6566,7 +6584,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6644,10 +6662,10 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6772,7 +6790,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6853,7 +6871,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6978,7 +6996,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7184,7 +7202,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7262,10 +7280,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ31">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7468,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7596,7 +7614,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7674,10 +7692,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ33">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -7802,7 +7820,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7883,7 +7901,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>0.98</v>
@@ -8008,7 +8026,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8089,7 +8107,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8292,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8626,7 +8644,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8704,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ38">
         <v>2.4</v>
@@ -8832,7 +8850,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8913,7 +8931,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR39">
         <v>1.6</v>
@@ -9116,7 +9134,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9244,7 +9262,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9325,7 +9343,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9450,7 +9468,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9528,7 +9546,7 @@
         <v>0.8</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9734,10 +9752,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR43">
         <v>1.02</v>
@@ -9862,7 +9880,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10068,7 +10086,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10146,10 +10164,10 @@
         <v>1.83</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR45">
         <v>1.49</v>
@@ -10274,7 +10292,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10480,7 +10498,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10558,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10686,7 +10704,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10764,7 +10782,7 @@
         <v>0.67</v>
       </c>
       <c r="AP48">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10892,7 +10910,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10973,7 +10991,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11179,7 +11197,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.01</v>
@@ -11304,7 +11322,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11588,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11794,7 +11812,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ53">
         <v>0.17</v>
@@ -12000,10 +12018,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
+        <v>1.71</v>
+      </c>
+      <c r="AQ54">
         <v>1.83</v>
-      </c>
-      <c r="AQ54">
-        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.1</v>
@@ -12128,7 +12146,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12209,7 +12227,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ55">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12412,10 +12430,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR56">
         <v>1.83</v>
@@ -12540,7 +12558,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12618,10 +12636,10 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.79</v>
@@ -12746,7 +12764,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12952,7 +12970,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13236,10 +13254,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
         <v>2.02</v>
@@ -13364,7 +13382,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13570,7 +13588,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13648,7 +13666,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13776,7 +13794,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13857,7 +13875,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ63">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR63">
         <v>1.54</v>
@@ -13982,7 +14000,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14188,7 +14206,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14266,10 +14284,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.07</v>
@@ -14394,7 +14412,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14475,7 +14493,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR66">
         <v>1.49</v>
@@ -14806,7 +14824,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14884,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15090,10 +15108,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15424,7 +15442,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15502,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71">
         <v>0</v>
@@ -15836,7 +15854,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -15914,10 +15932,10 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16042,7 +16060,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16120,7 +16138,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>2.4</v>
@@ -16248,7 +16266,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16329,7 +16347,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR75">
         <v>1.33</v>
@@ -16454,7 +16472,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16660,7 +16678,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16738,10 +16756,10 @@
         <v>2.33</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ77">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -16944,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ78">
         <v>0</v>
@@ -17072,7 +17090,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17150,7 +17168,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ79">
         <v>0.86</v>
@@ -17690,7 +17708,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17896,7 +17914,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>7.5</v>
@@ -18102,7 +18120,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q84">
         <v>2.38</v>
@@ -18308,7 +18326,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18389,7 +18407,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -18465,6 +18483,1448 @@
       </c>
       <c r="BP85">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7813905</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45801.1875</v>
+      </c>
+      <c r="F86">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s">
+        <v>75</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>85</v>
+      </c>
+      <c r="P86" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q86">
+        <v>4.2</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>2.45</v>
+      </c>
+      <c r="T86">
+        <v>1.36</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>3.47</v>
+      </c>
+      <c r="AA86">
+        <v>3.53</v>
+      </c>
+      <c r="AB86">
+        <v>1.83</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>9</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>3.5</v>
+      </c>
+      <c r="AG86">
+        <v>1.87</v>
+      </c>
+      <c r="AH86">
+        <v>1.83</v>
+      </c>
+      <c r="AI86">
+        <v>1.75</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>1.85</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
+        <v>1.25</v>
+      </c>
+      <c r="AN86">
+        <v>1.33</v>
+      </c>
+      <c r="AO86">
+        <v>1.75</v>
+      </c>
+      <c r="AP86">
+        <v>1.14</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>1.42</v>
+      </c>
+      <c r="AS86">
+        <v>1.26</v>
+      </c>
+      <c r="AT86">
+        <v>2.68</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>11</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>18</v>
+      </c>
+      <c r="AZ86">
+        <v>6</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>13</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7813906</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45801.1875</v>
+      </c>
+      <c r="F87">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>85</v>
+      </c>
+      <c r="P87" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87">
+        <v>2.62</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>8.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.07</v>
+      </c>
+      <c r="Z87">
+        <v>1.95</v>
+      </c>
+      <c r="AA87">
+        <v>3.19</v>
+      </c>
+      <c r="AB87">
+        <v>3.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>7.6</v>
+      </c>
+      <c r="AE87">
+        <v>1.3</v>
+      </c>
+      <c r="AF87">
+        <v>2.97</v>
+      </c>
+      <c r="AG87">
+        <v>2.05</v>
+      </c>
+      <c r="AH87">
+        <v>1.65</v>
+      </c>
+      <c r="AI87">
+        <v>1.85</v>
+      </c>
+      <c r="AJ87">
+        <v>1.85</v>
+      </c>
+      <c r="AK87">
+        <v>1.29</v>
+      </c>
+      <c r="AL87">
+        <v>1.33</v>
+      </c>
+      <c r="AM87">
+        <v>1.75</v>
+      </c>
+      <c r="AN87">
+        <v>0.5</v>
+      </c>
+      <c r="AO87">
+        <v>0.8</v>
+      </c>
+      <c r="AP87">
+        <v>0.67</v>
+      </c>
+      <c r="AQ87">
+        <v>0.83</v>
+      </c>
+      <c r="AR87">
+        <v>1.66</v>
+      </c>
+      <c r="AS87">
+        <v>1.14</v>
+      </c>
+      <c r="AT87">
+        <v>2.8</v>
+      </c>
+      <c r="AU87">
+        <v>2</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>7</v>
+      </c>
+      <c r="AY87">
+        <v>7</v>
+      </c>
+      <c r="AZ87">
+        <v>9</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7813907</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45801.29166666666</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>85</v>
+      </c>
+      <c r="P88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q88">
+        <v>4</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>2.7</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.8</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>1.35</v>
+      </c>
+      <c r="X88">
+        <v>8</v>
+      </c>
+      <c r="Y88">
+        <v>1.07</v>
+      </c>
+      <c r="Z88">
+        <v>3.15</v>
+      </c>
+      <c r="AA88">
+        <v>3.13</v>
+      </c>
+      <c r="AB88">
+        <v>2.07</v>
+      </c>
+      <c r="AC88">
+        <v>1</v>
+      </c>
+      <c r="AD88">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE88">
+        <v>1.29</v>
+      </c>
+      <c r="AF88">
+        <v>3.04</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>1.65</v>
+      </c>
+      <c r="AI88">
+        <v>1.85</v>
+      </c>
+      <c r="AJ88">
+        <v>1.85</v>
+      </c>
+      <c r="AK88">
+        <v>1.67</v>
+      </c>
+      <c r="AL88">
+        <v>1.35</v>
+      </c>
+      <c r="AM88">
+        <v>1.3</v>
+      </c>
+      <c r="AN88">
+        <v>1.83</v>
+      </c>
+      <c r="AO88">
+        <v>2.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.71</v>
+      </c>
+      <c r="AQ88">
+        <v>2.2</v>
+      </c>
+      <c r="AR88">
+        <v>1.04</v>
+      </c>
+      <c r="AS88">
+        <v>1.16</v>
+      </c>
+      <c r="AT88">
+        <v>2.2</v>
+      </c>
+      <c r="AU88">
+        <v>2</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>6</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>8</v>
+      </c>
+      <c r="AZ88">
+        <v>5</v>
+      </c>
+      <c r="BA88">
+        <v>5</v>
+      </c>
+      <c r="BB88">
+        <v>7</v>
+      </c>
+      <c r="BC88">
+        <v>12</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7813908</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45801.29166666666</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s">
+        <v>71</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>143</v>
+      </c>
+      <c r="P89" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q89">
+        <v>2.62</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>3.8</v>
+      </c>
+      <c r="T89">
+        <v>1.35</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>2.7</v>
+      </c>
+      <c r="W89">
+        <v>1.44</v>
+      </c>
+      <c r="X89">
+        <v>7</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>1.96</v>
+      </c>
+      <c r="AA89">
+        <v>3.34</v>
+      </c>
+      <c r="AB89">
+        <v>3.23</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>9</v>
+      </c>
+      <c r="AE89">
+        <v>1.21</v>
+      </c>
+      <c r="AF89">
+        <v>3.58</v>
+      </c>
+      <c r="AG89">
+        <v>1.84</v>
+      </c>
+      <c r="AH89">
+        <v>1.86</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2.05</v>
+      </c>
+      <c r="AK89">
+        <v>1.3</v>
+      </c>
+      <c r="AL89">
+        <v>1.3</v>
+      </c>
+      <c r="AM89">
+        <v>1.73</v>
+      </c>
+      <c r="AN89">
+        <v>1.17</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>1.43</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>1.79</v>
+      </c>
+      <c r="AS89">
+        <v>1.14</v>
+      </c>
+      <c r="AT89">
+        <v>2.93</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>8</v>
+      </c>
+      <c r="AW89">
+        <v>10</v>
+      </c>
+      <c r="AX89">
+        <v>9</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>17</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>11</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>1.8</v>
+      </c>
+      <c r="BJ89">
+        <v>2</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7813909</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45802.1875</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>144</v>
+      </c>
+      <c r="P90" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q90">
+        <v>3.1</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>3.6</v>
+      </c>
+      <c r="T90">
+        <v>1.44</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>3.25</v>
+      </c>
+      <c r="W90">
+        <v>1.33</v>
+      </c>
+      <c r="X90">
+        <v>9</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>2.4</v>
+      </c>
+      <c r="AA90">
+        <v>2.9</v>
+      </c>
+      <c r="AB90">
+        <v>2.9</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>8.6</v>
+      </c>
+      <c r="AE90">
+        <v>1.29</v>
+      </c>
+      <c r="AF90">
+        <v>3.04</v>
+      </c>
+      <c r="AG90">
+        <v>2.1</v>
+      </c>
+      <c r="AH90">
+        <v>1.7</v>
+      </c>
+      <c r="AI90">
+        <v>1.83</v>
+      </c>
+      <c r="AJ90">
+        <v>1.83</v>
+      </c>
+      <c r="AK90">
+        <v>1.36</v>
+      </c>
+      <c r="AL90">
+        <v>1.36</v>
+      </c>
+      <c r="AM90">
+        <v>1.53</v>
+      </c>
+      <c r="AN90">
+        <v>1.6</v>
+      </c>
+      <c r="AO90">
+        <v>2</v>
+      </c>
+      <c r="AP90">
+        <v>1.5</v>
+      </c>
+      <c r="AQ90">
+        <v>1.83</v>
+      </c>
+      <c r="AR90">
+        <v>1.82</v>
+      </c>
+      <c r="AS90">
+        <v>1.51</v>
+      </c>
+      <c r="AT90">
+        <v>3.33</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>10</v>
+      </c>
+      <c r="AW90">
+        <v>12</v>
+      </c>
+      <c r="AX90">
+        <v>8</v>
+      </c>
+      <c r="AY90">
+        <v>16</v>
+      </c>
+      <c r="AZ90">
+        <v>18</v>
+      </c>
+      <c r="BA90">
+        <v>4</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>9</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7813910</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45802.1875</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>83</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>145</v>
+      </c>
+      <c r="P91" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q91">
+        <v>2.38</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>5</v>
+      </c>
+      <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.75</v>
+      </c>
+      <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>1.72</v>
+      </c>
+      <c r="AA91">
+        <v>3.18</v>
+      </c>
+      <c r="AB91">
+        <v>4.4</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE91">
+        <v>1.29</v>
+      </c>
+      <c r="AF91">
+        <v>3.04</v>
+      </c>
+      <c r="AG91">
+        <v>1.96</v>
+      </c>
+      <c r="AH91">
+        <v>1.74</v>
+      </c>
+      <c r="AI91">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91">
+        <v>1.8</v>
+      </c>
+      <c r="AK91">
+        <v>1.2</v>
+      </c>
+      <c r="AL91">
+        <v>1.3</v>
+      </c>
+      <c r="AM91">
+        <v>2</v>
+      </c>
+      <c r="AN91">
+        <v>2.71</v>
+      </c>
+      <c r="AO91">
+        <v>1.9</v>
+      </c>
+      <c r="AP91">
+        <v>2.75</v>
+      </c>
+      <c r="AQ91">
+        <v>1.73</v>
+      </c>
+      <c r="AR91">
+        <v>1.64</v>
+      </c>
+      <c r="AS91">
+        <v>1.29</v>
+      </c>
+      <c r="AT91">
+        <v>2.93</v>
+      </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>2</v>
+      </c>
+      <c r="AW91">
+        <v>16</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>24</v>
+      </c>
+      <c r="AZ91">
+        <v>4</v>
+      </c>
+      <c r="BA91">
+        <v>5</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>9</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>1.9</v>
+      </c>
+      <c r="BJ91">
+        <v>1.9</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7813911</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45802.29166666666</v>
+      </c>
+      <c r="F92">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>146</v>
+      </c>
+      <c r="P92" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q92">
+        <v>2.38</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>5</v>
+      </c>
+      <c r="T92">
+        <v>1.44</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>9</v>
+      </c>
+      <c r="Y92">
+        <v>1.07</v>
+      </c>
+      <c r="Z92">
+        <v>1.62</v>
+      </c>
+      <c r="AA92">
+        <v>3.53</v>
+      </c>
+      <c r="AB92">
+        <v>4.6</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>8.1</v>
+      </c>
+      <c r="AE92">
+        <v>1.33</v>
+      </c>
+      <c r="AF92">
+        <v>2.83</v>
+      </c>
+      <c r="AG92">
+        <v>1.95</v>
+      </c>
+      <c r="AH92">
+        <v>1.7</v>
+      </c>
+      <c r="AI92">
+        <v>2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.73</v>
+      </c>
+      <c r="AK92">
+        <v>1.2</v>
+      </c>
+      <c r="AL92">
+        <v>1.3</v>
+      </c>
+      <c r="AM92">
+        <v>1.95</v>
+      </c>
+      <c r="AN92">
+        <v>2.67</v>
+      </c>
+      <c r="AO92">
+        <v>1.4</v>
+      </c>
+      <c r="AP92">
+        <v>2.43</v>
+      </c>
+      <c r="AQ92">
+        <v>1.33</v>
+      </c>
+      <c r="AR92">
+        <v>1.86</v>
+      </c>
+      <c r="AS92">
+        <v>1.22</v>
+      </c>
+      <c r="AT92">
+        <v>3.08</v>
+      </c>
+      <c r="AU92">
+        <v>6</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>9</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>13</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>1.88</v>
+      </c>
+      <c r="BJ92">
+        <v>1.92</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['5', '35', '78']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -541,9 +550,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['6', '41']</t>
   </si>
   <si>
@@ -608,6 +614,15 @@
   </si>
   <si>
     <t>['8', '79']</t>
+  </si>
+  <si>
+    <t>['43', '65', '71', '76']</t>
+  </si>
+  <si>
+    <t>['11', '71']</t>
+  </si>
+  <si>
+    <t>['65', '75']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1324,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1434,7 +1449,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1846,7 +1861,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1924,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2133,7 +2148,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2336,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2464,7 +2479,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2876,7 +2891,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2954,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3082,7 +3097,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3160,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>1.73</v>
@@ -3494,7 +3509,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3575,7 +3590,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.4</v>
@@ -3700,7 +3715,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -4112,7 +4127,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4193,7 +4208,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>1.61</v>
@@ -4318,7 +4333,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4399,7 +4414,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.52</v>
@@ -4524,7 +4539,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4602,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
         <v>1.73</v>
@@ -4730,7 +4745,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4936,7 +4951,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5014,7 +5029,7 @@
         <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5348,7 +5363,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5760,7 +5775,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6047,7 +6062,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>2.07</v>
@@ -6378,7 +6393,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6584,7 +6599,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6790,7 +6805,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6996,7 +7011,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7074,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7202,7 +7217,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7614,7 +7629,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7695,7 +7710,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ33">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -7820,7 +7835,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -8026,7 +8041,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8104,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35">
         <v>1.83</v>
@@ -8313,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8516,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8644,7 +8659,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8850,7 +8865,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9137,7 +9152,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -9262,7 +9277,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9468,7 +9483,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9880,7 +9895,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10086,7 +10101,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10292,7 +10307,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10498,7 +10513,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10579,7 +10594,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR47">
         <v>1.74</v>
@@ -10704,7 +10719,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10910,7 +10925,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11322,7 +11337,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11400,7 +11415,7 @@
         <v>0.57</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11815,7 +11830,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ53">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR53">
         <v>1.75</v>
@@ -12146,7 +12161,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12224,10 +12239,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ55">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12558,7 +12573,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12764,7 +12779,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12842,10 +12857,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.31</v>
@@ -12970,7 +12985,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13382,7 +13397,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13588,7 +13603,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13669,7 +13684,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13794,7 +13809,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14000,7 +14015,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14081,7 +14096,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14206,7 +14221,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14412,7 +14427,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14696,10 +14711,10 @@
         <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.4</v>
@@ -14824,7 +14839,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14902,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15442,7 +15457,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15729,7 +15744,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR72">
         <v>1.67</v>
@@ -15854,7 +15869,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -16060,7 +16075,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16266,7 +16281,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16344,7 +16359,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ75">
         <v>0.83</v>
@@ -16472,7 +16487,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16553,7 +16568,7 @@
         <v>3</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -16678,7 +16693,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16756,10 +16771,10 @@
         <v>2.33</v>
       </c>
       <c r="AP77">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17090,7 +17105,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17377,7 +17392,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR80">
         <v>1.42</v>
@@ -17583,7 +17598,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.17</v>
@@ -17708,7 +17723,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17914,7 +17929,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>7.5</v>
@@ -17992,7 +18007,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83">
         <v>2.4</v>
@@ -18120,7 +18135,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q84">
         <v>2.38</v>
@@ -18326,7 +18341,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18532,7 +18547,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>4.2</v>
@@ -18816,7 +18831,7 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ87">
         <v>0.83</v>
@@ -19025,7 +19040,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ88">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR88">
         <v>1.04</v>
@@ -19150,7 +19165,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q89">
         <v>2.62</v>
@@ -19356,7 +19371,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19768,7 +19783,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19925,6 +19940,830 @@
       </c>
       <c r="BP92">
         <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7813913</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45808.1875</v>
+      </c>
+      <c r="F93">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93" t="s">
+        <v>98</v>
+      </c>
+      <c r="P93" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q93">
+        <v>2.62</v>
+      </c>
+      <c r="R93">
+        <v>2.15</v>
+      </c>
+      <c r="S93">
+        <v>3.9</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.88</v>
+      </c>
+      <c r="V93">
+        <v>2.9</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>7.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>1.99</v>
+      </c>
+      <c r="AA93">
+        <v>3.33</v>
+      </c>
+      <c r="AB93">
+        <v>3.16</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>8.4</v>
+      </c>
+      <c r="AE93">
+        <v>1.26</v>
+      </c>
+      <c r="AF93">
+        <v>3.22</v>
+      </c>
+      <c r="AG93">
+        <v>1.92</v>
+      </c>
+      <c r="AH93">
+        <v>1.78</v>
+      </c>
+      <c r="AI93">
+        <v>1.75</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
+        <v>1.35</v>
+      </c>
+      <c r="AL93">
+        <v>1.33</v>
+      </c>
+      <c r="AM93">
+        <v>1.62</v>
+      </c>
+      <c r="AN93">
+        <v>2.13</v>
+      </c>
+      <c r="AO93">
+        <v>2.2</v>
+      </c>
+      <c r="AP93">
+        <v>1.89</v>
+      </c>
+      <c r="AQ93">
+        <v>2.33</v>
+      </c>
+      <c r="AR93">
+        <v>1.35</v>
+      </c>
+      <c r="AS93">
+        <v>1.12</v>
+      </c>
+      <c r="AT93">
+        <v>2.47</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>1.89</v>
+      </c>
+      <c r="BE93">
+        <v>6.05</v>
+      </c>
+      <c r="BF93">
+        <v>2.36</v>
+      </c>
+      <c r="BG93">
+        <v>1.38</v>
+      </c>
+      <c r="BH93">
+        <v>2.8</v>
+      </c>
+      <c r="BI93">
+        <v>1.9</v>
+      </c>
+      <c r="BJ93">
+        <v>1.9</v>
+      </c>
+      <c r="BK93">
+        <v>2.2</v>
+      </c>
+      <c r="BL93">
+        <v>1.6</v>
+      </c>
+      <c r="BM93">
+        <v>3</v>
+      </c>
+      <c r="BN93">
+        <v>1.34</v>
+      </c>
+      <c r="BO93">
+        <v>3.7</v>
+      </c>
+      <c r="BP93">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7813912</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45808.1875</v>
+      </c>
+      <c r="F94">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>83</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94" t="s">
+        <v>147</v>
+      </c>
+      <c r="P94" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q94">
+        <v>2.4</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>4.33</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>1.75</v>
+      </c>
+      <c r="AA94">
+        <v>3.51</v>
+      </c>
+      <c r="AB94">
+        <v>3.82</v>
+      </c>
+      <c r="AC94">
+        <v>1</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.23</v>
+      </c>
+      <c r="AF94">
+        <v>3.42</v>
+      </c>
+      <c r="AG94">
+        <v>1.84</v>
+      </c>
+      <c r="AH94">
+        <v>1.86</v>
+      </c>
+      <c r="AI94">
+        <v>1.75</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.22</v>
+      </c>
+      <c r="AL94">
+        <v>1.3</v>
+      </c>
+      <c r="AM94">
+        <v>1.95</v>
+      </c>
+      <c r="AN94">
+        <v>3</v>
+      </c>
+      <c r="AO94">
+        <v>0.17</v>
+      </c>
+      <c r="AP94">
+        <v>3</v>
+      </c>
+      <c r="AQ94">
+        <v>0.14</v>
+      </c>
+      <c r="AR94">
+        <v>1.56</v>
+      </c>
+      <c r="AS94">
+        <v>1.09</v>
+      </c>
+      <c r="AT94">
+        <v>2.65</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>10</v>
+      </c>
+      <c r="AX94">
+        <v>7</v>
+      </c>
+      <c r="AY94">
+        <v>17</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7813914</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>148</v>
+      </c>
+      <c r="P95" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q95">
+        <v>3.1</v>
+      </c>
+      <c r="R95">
+        <v>2.15</v>
+      </c>
+      <c r="S95">
+        <v>3.2</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>2.9</v>
+      </c>
+      <c r="V95">
+        <v>2.8</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>7.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.41</v>
+      </c>
+      <c r="AA95">
+        <v>3.17</v>
+      </c>
+      <c r="AB95">
+        <v>2.56</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>9</v>
+      </c>
+      <c r="AE95">
+        <v>1.25</v>
+      </c>
+      <c r="AF95">
+        <v>3.28</v>
+      </c>
+      <c r="AG95">
+        <v>1.92</v>
+      </c>
+      <c r="AH95">
+        <v>1.78</v>
+      </c>
+      <c r="AI95">
+        <v>1.73</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>1.44</v>
+      </c>
+      <c r="AL95">
+        <v>1.33</v>
+      </c>
+      <c r="AM95">
+        <v>1.5</v>
+      </c>
+      <c r="AN95">
+        <v>0.67</v>
+      </c>
+      <c r="AO95">
+        <v>0.67</v>
+      </c>
+      <c r="AP95">
+        <v>0.5</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1.52</v>
+      </c>
+      <c r="AS95">
+        <v>1.16</v>
+      </c>
+      <c r="AT95">
+        <v>2.68</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>9</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>1</v>
+      </c>
+      <c r="BC95">
+        <v>1</v>
+      </c>
+      <c r="BD95">
+        <v>2.13</v>
+      </c>
+      <c r="BE95">
+        <v>5.95</v>
+      </c>
+      <c r="BF95">
+        <v>2.08</v>
+      </c>
+      <c r="BG95">
+        <v>1.46</v>
+      </c>
+      <c r="BH95">
+        <v>2.65</v>
+      </c>
+      <c r="BI95">
+        <v>2</v>
+      </c>
+      <c r="BJ95">
+        <v>1.8</v>
+      </c>
+      <c r="BK95">
+        <v>2.26</v>
+      </c>
+      <c r="BL95">
+        <v>1.61</v>
+      </c>
+      <c r="BM95">
+        <v>3.14</v>
+      </c>
+      <c r="BN95">
+        <v>1.27</v>
+      </c>
+      <c r="BO95">
+        <v>4.05</v>
+      </c>
+      <c r="BP95">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7813915</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>149</v>
+      </c>
+      <c r="P96" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q96">
+        <v>3.7</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>2.8</v>
+      </c>
+      <c r="T96">
+        <v>1.4</v>
+      </c>
+      <c r="U96">
+        <v>2.8</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>8.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.97</v>
+      </c>
+      <c r="AA96">
+        <v>3.11</v>
+      </c>
+      <c r="AB96">
+        <v>2.17</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE96">
+        <v>1.31</v>
+      </c>
+      <c r="AF96">
+        <v>2.92</v>
+      </c>
+      <c r="AG96">
+        <v>1.95</v>
+      </c>
+      <c r="AH96">
+        <v>1.75</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.62</v>
+      </c>
+      <c r="AL96">
+        <v>1.35</v>
+      </c>
+      <c r="AM96">
+        <v>1.35</v>
+      </c>
+      <c r="AN96">
+        <v>0.57</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>0.88</v>
+      </c>
+      <c r="AQ96">
+        <v>0.86</v>
+      </c>
+      <c r="AR96">
+        <v>1.3</v>
+      </c>
+      <c r="AS96">
+        <v>1.21</v>
+      </c>
+      <c r="AT96">
+        <v>2.51</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>3</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>5</v>
+      </c>
+      <c r="AY96">
+        <v>9</v>
+      </c>
+      <c r="AZ96">
+        <v>8</v>
+      </c>
+      <c r="BA96">
+        <v>2</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>4</v>
+      </c>
+      <c r="BD96">
+        <v>2.13</v>
+      </c>
+      <c r="BE96">
+        <v>5.9</v>
+      </c>
+      <c r="BF96">
+        <v>2.09</v>
+      </c>
+      <c r="BG96">
+        <v>1.51</v>
+      </c>
+      <c r="BH96">
+        <v>2.47</v>
+      </c>
+      <c r="BI96">
+        <v>1.89</v>
+      </c>
+      <c r="BJ96">
+        <v>1.91</v>
+      </c>
+      <c r="BK96">
+        <v>2.4</v>
+      </c>
+      <c r="BL96">
+        <v>1.54</v>
+      </c>
+      <c r="BM96">
+        <v>3.5</v>
+      </c>
+      <c r="BN96">
+        <v>1.22</v>
+      </c>
+      <c r="BO96">
+        <v>4.5</v>
+      </c>
+      <c r="BP96">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['31', '89']</t>
   </si>
   <si>
     <t>['1', '6']</t>
@@ -984,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1449,7 +1452,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1736,7 +1739,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1861,7 +1864,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2479,7 +2482,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2891,7 +2894,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2972,7 +2975,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0.82</v>
@@ -3097,7 +3100,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3509,7 +3512,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3715,7 +3718,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -4127,7 +4130,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4333,7 +4336,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4539,7 +4542,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4745,7 +4748,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4951,7 +4954,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5363,7 +5366,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5775,7 +5778,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6393,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6599,7 +6602,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6805,7 +6808,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7011,7 +7014,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7217,7 +7220,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7629,7 +7632,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7835,7 +7838,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7916,7 +7919,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>0.98</v>
@@ -8041,7 +8044,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8325,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8659,7 +8662,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8865,7 +8868,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9277,7 +9280,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9483,7 +9486,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9561,7 +9564,7 @@
         <v>0.8</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9895,7 +9898,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10101,7 +10104,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10307,7 +10310,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10513,7 +10516,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10925,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11337,7 +11340,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12161,7 +12164,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12445,7 +12448,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
         <v>1.73</v>
@@ -12573,7 +12576,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12654,7 +12657,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57">
         <v>1.79</v>
@@ -12779,7 +12782,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12985,7 +12988,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13269,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
         <v>0.83</v>
@@ -13397,7 +13400,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13603,7 +13606,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13809,7 +13812,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14015,7 +14018,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14221,7 +14224,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14427,7 +14430,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14839,7 +14842,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15126,7 +15129,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15457,7 +15460,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15869,7 +15872,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -16075,7 +16078,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16153,7 +16156,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>2.4</v>
@@ -16281,7 +16284,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16487,7 +16490,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16693,7 +16696,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17105,7 +17108,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17723,7 +17726,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17929,7 +17932,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>7.5</v>
@@ -18135,7 +18138,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q84">
         <v>2.38</v>
@@ -18341,7 +18344,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18547,7 +18550,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>4.2</v>
@@ -19165,7 +19168,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q89">
         <v>2.62</v>
@@ -19371,7 +19374,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19449,7 +19452,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>1.83</v>
@@ -19783,7 +19786,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19864,7 +19867,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR92">
         <v>1.86</v>
@@ -19989,7 +19992,7 @@
         <v>98</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>2.62</v>
@@ -20195,7 +20198,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q94">
         <v>2.4</v>
@@ -20401,7 +20404,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20764,6 +20767,212 @@
       </c>
       <c r="BP96">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7813916</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>150</v>
+      </c>
+      <c r="P97" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q97">
+        <v>2.7</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>2.11</v>
+      </c>
+      <c r="AA97">
+        <v>3.24</v>
+      </c>
+      <c r="AB97">
+        <v>3.25</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>8.4</v>
+      </c>
+      <c r="AE97">
+        <v>1.33</v>
+      </c>
+      <c r="AF97">
+        <v>2.83</v>
+      </c>
+      <c r="AG97">
+        <v>2.17</v>
+      </c>
+      <c r="AH97">
+        <v>1.62</v>
+      </c>
+      <c r="AI97">
+        <v>1.85</v>
+      </c>
+      <c r="AJ97">
+        <v>1.85</v>
+      </c>
+      <c r="AK97">
+        <v>1.3</v>
+      </c>
+      <c r="AL97">
+        <v>1.36</v>
+      </c>
+      <c r="AM97">
+        <v>1.65</v>
+      </c>
+      <c r="AN97">
+        <v>1.5</v>
+      </c>
+      <c r="AO97">
+        <v>1.33</v>
+      </c>
+      <c r="AP97">
+        <v>1.71</v>
+      </c>
+      <c r="AQ97">
+        <v>1.14</v>
+      </c>
+      <c r="AR97">
+        <v>1.82</v>
+      </c>
+      <c r="AS97">
+        <v>1.31</v>
+      </c>
+      <c r="AT97">
+        <v>3.13</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>9</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
+        <v>5</v>
+      </c>
+      <c r="BD97">
+        <v>1.69</v>
+      </c>
+      <c r="BE97">
+        <v>7.6</v>
+      </c>
+      <c r="BF97">
+        <v>2.53</v>
+      </c>
+      <c r="BG97">
+        <v>1.52</v>
+      </c>
+      <c r="BH97">
+        <v>2.44</v>
+      </c>
+      <c r="BI97">
+        <v>1.92</v>
+      </c>
+      <c r="BJ97">
+        <v>1.88</v>
+      </c>
+      <c r="BK97">
+        <v>2.42</v>
+      </c>
+      <c r="BL97">
+        <v>1.53</v>
+      </c>
+      <c r="BM97">
+        <v>3.34</v>
+      </c>
+      <c r="BN97">
+        <v>1.24</v>
+      </c>
+      <c r="BO97">
+        <v>4.25</v>
+      </c>
+      <c r="BP97">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,12 @@
     <t>['31', '89']</t>
   </si>
   <si>
+    <t>['52', '60', '69', '88']</t>
+  </si>
+  <si>
+    <t>['20', '69', '90+5']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -626,6 +632,12 @@
   </si>
   <si>
     <t>['65', '75']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['23', '44', '57']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,7 +1464,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1530,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ3">
         <v>1.73</v>
@@ -1864,7 +1876,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -2482,7 +2494,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2894,7 +2906,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3100,7 +3112,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3512,7 +3524,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3718,7 +3730,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3796,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ14">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR14">
         <v>1.15</v>
@@ -4130,7 +4142,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4336,7 +4348,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4542,7 +4554,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4748,7 +4760,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4954,7 +4966,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5238,7 +5250,7 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ21">
         <v>0.86</v>
@@ -5366,7 +5378,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5447,7 +5459,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR22">
         <v>0.92</v>
@@ -5778,7 +5790,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6268,7 +6280,7 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6396,7 +6408,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6602,7 +6614,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6808,7 +6820,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -7014,7 +7026,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7220,7 +7232,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7298,7 +7310,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7632,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7838,7 +7850,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7916,7 +7928,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ34">
         <v>1.14</v>
@@ -8044,7 +8056,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8125,7 +8137,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ35">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8662,7 +8674,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8743,7 +8755,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR38">
         <v>1.61</v>
@@ -8868,7 +8880,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9152,7 +9164,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9280,7 +9292,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9361,7 +9373,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9486,7 +9498,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9898,7 +9910,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10104,7 +10116,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10310,7 +10322,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10516,7 +10528,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10928,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11212,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -11340,7 +11352,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11830,7 +11842,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
         <v>0.14</v>
@@ -12039,7 +12051,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR54">
         <v>1.1</v>
@@ -12164,7 +12176,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12576,7 +12588,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12782,7 +12794,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12988,7 +13000,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13066,7 +13078,7 @@
         <v>0.88</v>
       </c>
       <c r="AP59">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13400,7 +13412,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13481,7 +13493,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR61">
         <v>1.39</v>
@@ -13606,7 +13618,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13684,7 +13696,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62">
         <v>0.86</v>
@@ -13812,7 +13824,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14018,7 +14030,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14224,7 +14236,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14430,7 +14442,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14842,7 +14854,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15460,7 +15472,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15872,7 +15884,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -15953,7 +15965,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16078,7 +16090,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16159,7 +16171,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
@@ -16284,7 +16296,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16490,7 +16502,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16696,7 +16708,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16980,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ78">
         <v>0</v>
@@ -17108,7 +17120,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17598,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -17726,7 +17738,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17932,7 +17944,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>7.5</v>
@@ -18013,7 +18025,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ83">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18138,7 +18150,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q84">
         <v>2.38</v>
@@ -18344,7 +18356,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18550,7 +18562,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>4.2</v>
@@ -19168,7 +19180,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q89">
         <v>2.62</v>
@@ -19374,7 +19386,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19455,7 +19467,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR90">
         <v>1.82</v>
@@ -19786,7 +19798,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19864,7 +19876,7 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ92">
         <v>1.14</v>
@@ -19992,7 +20004,7 @@
         <v>98</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>2.62</v>
@@ -20198,7 +20210,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>2.4</v>
@@ -20404,7 +20416,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20973,6 +20985,418 @@
       </c>
       <c r="BP97">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7813917</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98" t="s">
+        <v>151</v>
+      </c>
+      <c r="P98" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q98">
+        <v>2.3</v>
+      </c>
+      <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>4.4</v>
+      </c>
+      <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.1</v>
+      </c>
+      <c r="V98">
+        <v>2.6</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.11</v>
+      </c>
+      <c r="Z98">
+        <v>1.69</v>
+      </c>
+      <c r="AA98">
+        <v>3.62</v>
+      </c>
+      <c r="AB98">
+        <v>3.95</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.24</v>
+      </c>
+      <c r="AF98">
+        <v>3.34</v>
+      </c>
+      <c r="AG98">
+        <v>1.86</v>
+      </c>
+      <c r="AH98">
+        <v>1.84</v>
+      </c>
+      <c r="AI98">
+        <v>1.73</v>
+      </c>
+      <c r="AJ98">
+        <v>2.05</v>
+      </c>
+      <c r="AK98">
+        <v>1.2</v>
+      </c>
+      <c r="AL98">
+        <v>1.29</v>
+      </c>
+      <c r="AM98">
+        <v>2</v>
+      </c>
+      <c r="AN98">
+        <v>2.43</v>
+      </c>
+      <c r="AO98">
+        <v>1.83</v>
+      </c>
+      <c r="AP98">
+        <v>2.5</v>
+      </c>
+      <c r="AQ98">
+        <v>1.57</v>
+      </c>
+      <c r="AR98">
+        <v>1.85</v>
+      </c>
+      <c r="AS98">
+        <v>1.64</v>
+      </c>
+      <c r="AT98">
+        <v>3.49</v>
+      </c>
+      <c r="AU98">
+        <v>7</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>2</v>
+      </c>
+      <c r="AX98">
+        <v>6</v>
+      </c>
+      <c r="AY98">
+        <v>9</v>
+      </c>
+      <c r="AZ98">
+        <v>10</v>
+      </c>
+      <c r="BA98">
+        <v>3</v>
+      </c>
+      <c r="BB98">
+        <v>10</v>
+      </c>
+      <c r="BC98">
+        <v>13</v>
+      </c>
+      <c r="BD98">
+        <v>1.63</v>
+      </c>
+      <c r="BE98">
+        <v>8.1</v>
+      </c>
+      <c r="BF98">
+        <v>2.62</v>
+      </c>
+      <c r="BG98">
+        <v>1.32</v>
+      </c>
+      <c r="BH98">
+        <v>2.88</v>
+      </c>
+      <c r="BI98">
+        <v>1.66</v>
+      </c>
+      <c r="BJ98">
+        <v>2.18</v>
+      </c>
+      <c r="BK98">
+        <v>2.1</v>
+      </c>
+      <c r="BL98">
+        <v>1.71</v>
+      </c>
+      <c r="BM98">
+        <v>2.69</v>
+      </c>
+      <c r="BN98">
+        <v>1.36</v>
+      </c>
+      <c r="BO98">
+        <v>3.75</v>
+      </c>
+      <c r="BP98">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7813918</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>6</v>
+      </c>
+      <c r="O99" t="s">
+        <v>152</v>
+      </c>
+      <c r="P99" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q99">
+        <v>6.5</v>
+      </c>
+      <c r="R99">
+        <v>2.4</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.3</v>
+      </c>
+      <c r="U99">
+        <v>3.25</v>
+      </c>
+      <c r="V99">
+        <v>2.5</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>6</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>6.9</v>
+      </c>
+      <c r="AA99">
+        <v>4.4</v>
+      </c>
+      <c r="AB99">
+        <v>1.34</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>11</v>
+      </c>
+      <c r="AE99">
+        <v>1.16</v>
+      </c>
+      <c r="AF99">
+        <v>4.15</v>
+      </c>
+      <c r="AG99">
+        <v>1.78</v>
+      </c>
+      <c r="AH99">
+        <v>1.92</v>
+      </c>
+      <c r="AI99">
+        <v>1.91</v>
+      </c>
+      <c r="AJ99">
+        <v>1.83</v>
+      </c>
+      <c r="AK99">
+        <v>3</v>
+      </c>
+      <c r="AL99">
+        <v>1.2</v>
+      </c>
+      <c r="AM99">
+        <v>1.08</v>
+      </c>
+      <c r="AN99">
+        <v>0.57</v>
+      </c>
+      <c r="AO99">
+        <v>2.4</v>
+      </c>
+      <c r="AP99">
+        <v>0.63</v>
+      </c>
+      <c r="AQ99">
+        <v>2.17</v>
+      </c>
+      <c r="AR99">
+        <v>1.19</v>
+      </c>
+      <c r="AS99">
+        <v>1.29</v>
+      </c>
+      <c r="AT99">
+        <v>2.48</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>6</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>11</v>
+      </c>
+      <c r="AZ99">
+        <v>11</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>5</v>
+      </c>
+      <c r="BD99">
+        <v>2.83</v>
+      </c>
+      <c r="BE99">
+        <v>8.1</v>
+      </c>
+      <c r="BF99">
+        <v>1.56</v>
+      </c>
+      <c r="BG99">
+        <v>1.34</v>
+      </c>
+      <c r="BH99">
+        <v>2.78</v>
+      </c>
+      <c r="BI99">
+        <v>1.71</v>
+      </c>
+      <c r="BJ99">
+        <v>2.09</v>
+      </c>
+      <c r="BK99">
+        <v>2.15</v>
+      </c>
+      <c r="BL99">
+        <v>1.68</v>
+      </c>
+      <c r="BM99">
+        <v>2.78</v>
+      </c>
+      <c r="BN99">
+        <v>1.34</v>
+      </c>
+      <c r="BO99">
+        <v>3.62</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="AY3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA3">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ8">
         <v>7</v>
@@ -4453,10 +4453,10 @@
         <v>8</v>
       </c>
       <c r="AY17">
+        <v>10</v>
+      </c>
+      <c r="AZ17">
         <v>11</v>
-      </c>
-      <c r="AZ17">
-        <v>15</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -5895,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="AY24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ24">
         <v>16</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
         <v>2</v>
@@ -7543,7 +7543,7 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ32">
         <v>8</v>
@@ -8779,10 +8779,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -8985,10 +8985,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9191,10 +9191,10 @@
         <v>8</v>
       </c>
       <c r="AY40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ40">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9397,10 +9397,10 @@
         <v>7</v>
       </c>
       <c r="AY41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA41">
         <v>2</v>
@@ -10015,10 +10015,10 @@
         <v>7</v>
       </c>
       <c r="AY44">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ44">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -10224,7 +10224,7 @@
         <v>9</v>
       </c>
       <c r="AZ45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -11045,10 +11045,10 @@
         <v>5</v>
       </c>
       <c r="AY49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ49">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA49">
         <v>3</v>
@@ -11666,7 +11666,7 @@
         <v>10</v>
       </c>
       <c r="AZ52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -11869,10 +11869,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA53">
         <v>5</v>
@@ -15371,10 +15371,10 @@
         <v>6</v>
       </c>
       <c r="AY70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ70">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA70">
         <v>0</v>
@@ -15989,10 +15989,10 @@
         <v>4</v>
       </c>
       <c r="AY73">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA73">
         <v>3</v>
@@ -17019,10 +17019,10 @@
         <v>8</v>
       </c>
       <c r="AY78">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ78">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA78">
         <v>4</v>
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="AY79">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AZ79">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['20', '69', '90+5']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -638,6 +641,18 @@
   </si>
   <si>
     <t>['23', '44', '57']</t>
+  </si>
+  <si>
+    <t>['9', '9006']</t>
+  </si>
+  <si>
+    <t>['15', '26']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['62', '9005']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,7 +1479,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1748,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
         <v>1.14</v>
@@ -1876,7 +1891,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1957,7 +1972,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2160,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2369,7 +2384,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2494,7 +2509,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2781,7 +2796,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR9">
         <v>2.58</v>
@@ -2906,7 +2921,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -3112,7 +3127,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3399,7 +3414,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3524,7 +3539,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3602,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3730,7 +3745,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -4014,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4142,7 +4157,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4348,7 +4363,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4554,7 +4569,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4760,7 +4775,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4966,7 +4981,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5047,7 +5062,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR20">
         <v>1.06</v>
@@ -5253,7 +5268,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ21">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR21">
         <v>1.02</v>
@@ -5378,7 +5393,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5456,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>2.17</v>
@@ -5665,7 +5680,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5790,7 +5805,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6283,7 +6298,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6408,7 +6423,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6486,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6614,7 +6629,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6692,7 +6707,7 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.73</v>
@@ -6820,7 +6835,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6901,7 +6916,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7026,7 +7041,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7107,7 +7122,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7232,7 +7247,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7516,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7644,7 +7659,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7850,7 +7865,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -8056,7 +8071,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8674,7 +8689,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8880,7 +8895,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8958,7 +8973,7 @@
         <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39">
         <v>1.73</v>
@@ -9292,7 +9307,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9498,7 +9513,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9782,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.02</v>
@@ -9910,7 +9925,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9991,7 +10006,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10116,7 +10131,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10322,7 +10337,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10403,7 +10418,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR46">
         <v>1.33</v>
@@ -10528,7 +10543,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10606,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
         <v>0.86</v>
@@ -10940,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11018,10 +11033,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11227,7 +11242,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.01</v>
@@ -11352,7 +11367,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11845,7 +11860,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.75</v>
@@ -12048,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1.57</v>
@@ -12176,7 +12191,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12588,7 +12603,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12666,7 +12681,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.14</v>
@@ -12794,7 +12809,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -13000,7 +13015,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13287,7 +13302,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR60">
         <v>2.02</v>
@@ -13412,7 +13427,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13618,7 +13633,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13824,7 +13839,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14030,7 +14045,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14108,10 +14123,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14236,7 +14251,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14314,10 +14329,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR65">
         <v>1.07</v>
@@ -14442,7 +14457,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14854,7 +14869,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14932,10 +14947,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>0</v>
@@ -15344,10 +15359,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.72</v>
@@ -15472,7 +15487,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15759,7 +15774,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
         <v>1.67</v>
@@ -15884,7 +15899,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -15962,7 +15977,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>1.57</v>
@@ -16090,7 +16105,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16296,7 +16311,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16377,7 +16392,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ75">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR75">
         <v>1.33</v>
@@ -16502,7 +16517,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16580,7 +16595,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
         <v>0.86</v>
@@ -16708,7 +16723,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16786,7 +16801,7 @@
         <v>2.33</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ77">
         <v>2.33</v>
@@ -17120,7 +17135,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17198,10 +17213,10 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.7</v>
@@ -17407,7 +17422,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR80">
         <v>1.42</v>
@@ -17738,7 +17753,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17816,10 +17831,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -17944,7 +17959,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>7.5</v>
@@ -18150,7 +18165,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q84">
         <v>2.38</v>
@@ -18228,7 +18243,7 @@
         <v>1.11</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18356,7 +18371,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18437,7 +18452,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -18562,7 +18577,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>4.2</v>
@@ -18643,7 +18658,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18846,10 +18861,10 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19052,7 +19067,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>2.33</v>
@@ -19180,7 +19195,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q89">
         <v>2.62</v>
@@ -19258,7 +19273,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
         <v>0</v>
@@ -19386,7 +19401,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19798,7 +19813,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20004,7 +20019,7 @@
         <v>98</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q93">
         <v>2.62</v>
@@ -20210,7 +20225,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>2.4</v>
@@ -20288,10 +20303,10 @@
         <v>0.17</v>
       </c>
       <c r="AP94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ94">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20416,7 +20431,7 @@
         <v>148</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>3.1</v>
@@ -20494,7 +20509,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21034,7 +21049,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -21240,7 +21255,7 @@
         <v>152</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -21397,6 +21412,1036 @@
       </c>
       <c r="BP99">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7813920</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45814.29166666666</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>153</v>
+      </c>
+      <c r="P100" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q100">
+        <v>4.33</v>
+      </c>
+      <c r="R100">
+        <v>2.15</v>
+      </c>
+      <c r="S100">
+        <v>2.35</v>
+      </c>
+      <c r="T100">
+        <v>1.38</v>
+      </c>
+      <c r="U100">
+        <v>2.8</v>
+      </c>
+      <c r="V100">
+        <v>2.8</v>
+      </c>
+      <c r="W100">
+        <v>1.38</v>
+      </c>
+      <c r="X100">
+        <v>6.4</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>4</v>
+      </c>
+      <c r="AA100">
+        <v>3.52</v>
+      </c>
+      <c r="AB100">
+        <v>1.7</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.3</v>
+      </c>
+      <c r="AF100">
+        <v>3.35</v>
+      </c>
+      <c r="AG100">
+        <v>1.89</v>
+      </c>
+      <c r="AH100">
+        <v>1.81</v>
+      </c>
+      <c r="AI100">
+        <v>1.8</v>
+      </c>
+      <c r="AJ100">
+        <v>1.83</v>
+      </c>
+      <c r="AK100">
+        <v>2</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.17</v>
+      </c>
+      <c r="AN100">
+        <v>1.71</v>
+      </c>
+      <c r="AO100">
+        <v>1.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>1.57</v>
+      </c>
+      <c r="AR100">
+        <v>1.06</v>
+      </c>
+      <c r="AS100">
+        <v>1.71</v>
+      </c>
+      <c r="AT100">
+        <v>2.77</v>
+      </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>5</v>
+      </c>
+      <c r="AY100">
+        <v>7</v>
+      </c>
+      <c r="AZ100">
+        <v>8</v>
+      </c>
+      <c r="BA100">
+        <v>4</v>
+      </c>
+      <c r="BB100">
+        <v>1</v>
+      </c>
+      <c r="BC100">
+        <v>5</v>
+      </c>
+      <c r="BD100">
+        <v>3.12</v>
+      </c>
+      <c r="BE100">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF100">
+        <v>1.48</v>
+      </c>
+      <c r="BG100">
+        <v>1.34</v>
+      </c>
+      <c r="BH100">
+        <v>2.78</v>
+      </c>
+      <c r="BI100">
+        <v>1.65</v>
+      </c>
+      <c r="BJ100">
+        <v>2.05</v>
+      </c>
+      <c r="BK100">
+        <v>2.08</v>
+      </c>
+      <c r="BL100">
+        <v>1.6</v>
+      </c>
+      <c r="BM100">
+        <v>2.78</v>
+      </c>
+      <c r="BN100">
+        <v>1.34</v>
+      </c>
+      <c r="BO100">
+        <v>3.55</v>
+      </c>
+      <c r="BP100">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7813919</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45814.29166666666</v>
+      </c>
+      <c r="F101">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>85</v>
+      </c>
+      <c r="P101" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101">
+        <v>3.88</v>
+      </c>
+      <c r="R101">
+        <v>2.04</v>
+      </c>
+      <c r="S101">
+        <v>2.7</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.72</v>
+      </c>
+      <c r="V101">
+        <v>2.93</v>
+      </c>
+      <c r="W101">
+        <v>1.35</v>
+      </c>
+      <c r="X101">
+        <v>7.3</v>
+      </c>
+      <c r="Y101">
+        <v>1.03</v>
+      </c>
+      <c r="Z101">
+        <v>3.24</v>
+      </c>
+      <c r="AA101">
+        <v>3.28</v>
+      </c>
+      <c r="AB101">
+        <v>2.1</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE101">
+        <v>1.29</v>
+      </c>
+      <c r="AF101">
+        <v>3.04</v>
+      </c>
+      <c r="AG101">
+        <v>2</v>
+      </c>
+      <c r="AH101">
+        <v>1.73</v>
+      </c>
+      <c r="AI101">
+        <v>1.79</v>
+      </c>
+      <c r="AJ101">
+        <v>1.87</v>
+      </c>
+      <c r="AK101">
+        <v>1.64</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.28</v>
+      </c>
+      <c r="AN101">
+        <v>0.5</v>
+      </c>
+      <c r="AO101">
+        <v>0.86</v>
+      </c>
+      <c r="AP101">
+        <v>0.4</v>
+      </c>
+      <c r="AQ101">
+        <v>1.13</v>
+      </c>
+      <c r="AR101">
+        <v>1.45</v>
+      </c>
+      <c r="AS101">
+        <v>1.4</v>
+      </c>
+      <c r="AT101">
+        <v>2.85</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>3</v>
+      </c>
+      <c r="AW101">
+        <v>8</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>6</v>
+      </c>
+      <c r="BA101">
+        <v>6</v>
+      </c>
+      <c r="BB101">
+        <v>10</v>
+      </c>
+      <c r="BC101">
+        <v>16</v>
+      </c>
+      <c r="BD101">
+        <v>2.6</v>
+      </c>
+      <c r="BE101">
+        <v>6.05</v>
+      </c>
+      <c r="BF101">
+        <v>1.76</v>
+      </c>
+      <c r="BG101">
+        <v>1.46</v>
+      </c>
+      <c r="BH101">
+        <v>2.38</v>
+      </c>
+      <c r="BI101">
+        <v>1.85</v>
+      </c>
+      <c r="BJ101">
+        <v>1.81</v>
+      </c>
+      <c r="BK101">
+        <v>2.42</v>
+      </c>
+      <c r="BL101">
+        <v>1.44</v>
+      </c>
+      <c r="BM101">
+        <v>3.34</v>
+      </c>
+      <c r="BN101">
+        <v>1.24</v>
+      </c>
+      <c r="BO101">
+        <v>4.25</v>
+      </c>
+      <c r="BP101">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7813923</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45815.29166666666</v>
+      </c>
+      <c r="F102">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s">
+        <v>77</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>85</v>
+      </c>
+      <c r="P102" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q102">
+        <v>2.79</v>
+      </c>
+      <c r="R102">
+        <v>2.12</v>
+      </c>
+      <c r="S102">
+        <v>3.48</v>
+      </c>
+      <c r="T102">
+        <v>1.35</v>
+      </c>
+      <c r="U102">
+        <v>2.93</v>
+      </c>
+      <c r="V102">
+        <v>2.69</v>
+      </c>
+      <c r="W102">
+        <v>1.41</v>
+      </c>
+      <c r="X102">
+        <v>6.4</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2.16</v>
+      </c>
+      <c r="AA102">
+        <v>3.38</v>
+      </c>
+      <c r="AB102">
+        <v>2.76</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE102">
+        <v>1.22</v>
+      </c>
+      <c r="AF102">
+        <v>3.48</v>
+      </c>
+      <c r="AG102">
+        <v>1.82</v>
+      </c>
+      <c r="AH102">
+        <v>1.88</v>
+      </c>
+      <c r="AI102">
+        <v>1.65</v>
+      </c>
+      <c r="AJ102">
+        <v>2.05</v>
+      </c>
+      <c r="AK102">
+        <v>1.35</v>
+      </c>
+      <c r="AL102">
+        <v>1.26</v>
+      </c>
+      <c r="AM102">
+        <v>1.57</v>
+      </c>
+      <c r="AN102">
+        <v>1.43</v>
+      </c>
+      <c r="AO102">
+        <v>0.14</v>
+      </c>
+      <c r="AP102">
+        <v>1.25</v>
+      </c>
+      <c r="AQ102">
+        <v>0.5</v>
+      </c>
+      <c r="AR102">
+        <v>1.78</v>
+      </c>
+      <c r="AS102">
+        <v>1.15</v>
+      </c>
+      <c r="AT102">
+        <v>2.93</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>2</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>2</v>
+      </c>
+      <c r="AY102">
+        <v>9</v>
+      </c>
+      <c r="AZ102">
+        <v>4</v>
+      </c>
+      <c r="BA102">
+        <v>4</v>
+      </c>
+      <c r="BB102">
+        <v>3</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>2</v>
+      </c>
+      <c r="BE102">
+        <v>6.05</v>
+      </c>
+      <c r="BF102">
+        <v>2.21</v>
+      </c>
+      <c r="BG102">
+        <v>1.37</v>
+      </c>
+      <c r="BH102">
+        <v>2.66</v>
+      </c>
+      <c r="BI102">
+        <v>1.7</v>
+      </c>
+      <c r="BJ102">
+        <v>1.98</v>
+      </c>
+      <c r="BK102">
+        <v>2.15</v>
+      </c>
+      <c r="BL102">
+        <v>1.56</v>
+      </c>
+      <c r="BM102">
+        <v>2.92</v>
+      </c>
+      <c r="BN102">
+        <v>1.31</v>
+      </c>
+      <c r="BO102">
+        <v>3.48</v>
+      </c>
+      <c r="BP102">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7813921</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45815.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>85</v>
+      </c>
+      <c r="P103" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q103">
+        <v>2.14</v>
+      </c>
+      <c r="R103">
+        <v>2.16</v>
+      </c>
+      <c r="S103">
+        <v>5.35</v>
+      </c>
+      <c r="T103">
+        <v>1.37</v>
+      </c>
+      <c r="U103">
+        <v>2.84</v>
+      </c>
+      <c r="V103">
+        <v>2.8</v>
+      </c>
+      <c r="W103">
+        <v>1.38</v>
+      </c>
+      <c r="X103">
+        <v>6.85</v>
+      </c>
+      <c r="Y103">
+        <v>1.04</v>
+      </c>
+      <c r="Z103">
+        <v>1.55</v>
+      </c>
+      <c r="AA103">
+        <v>3.72</v>
+      </c>
+      <c r="AB103">
+        <v>4.8</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE103">
+        <v>1.26</v>
+      </c>
+      <c r="AF103">
+        <v>3.22</v>
+      </c>
+      <c r="AG103">
+        <v>1.9</v>
+      </c>
+      <c r="AH103">
+        <v>1.8</v>
+      </c>
+      <c r="AI103">
+        <v>1.9</v>
+      </c>
+      <c r="AJ103">
+        <v>1.77</v>
+      </c>
+      <c r="AK103">
+        <v>1.11</v>
+      </c>
+      <c r="AL103">
+        <v>1.22</v>
+      </c>
+      <c r="AM103">
+        <v>2.22</v>
+      </c>
+      <c r="AN103">
+        <v>1.38</v>
+      </c>
+      <c r="AO103">
+        <v>0.83</v>
+      </c>
+      <c r="AP103">
+        <v>1.22</v>
+      </c>
+      <c r="AQ103">
+        <v>1.14</v>
+      </c>
+      <c r="AR103">
+        <v>1.65</v>
+      </c>
+      <c r="AS103">
+        <v>1.15</v>
+      </c>
+      <c r="AT103">
+        <v>2.8</v>
+      </c>
+      <c r="AU103">
+        <v>-1</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>-1</v>
+      </c>
+      <c r="AX103">
+        <v>-1</v>
+      </c>
+      <c r="AY103">
+        <v>-1</v>
+      </c>
+      <c r="AZ103">
+        <v>-1</v>
+      </c>
+      <c r="BA103">
+        <v>-1</v>
+      </c>
+      <c r="BB103">
+        <v>-1</v>
+      </c>
+      <c r="BC103">
+        <v>-1</v>
+      </c>
+      <c r="BD103">
+        <v>1.34</v>
+      </c>
+      <c r="BE103">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF103">
+        <v>3.9</v>
+      </c>
+      <c r="BG103">
+        <v>1.48</v>
+      </c>
+      <c r="BH103">
+        <v>2.33</v>
+      </c>
+      <c r="BI103">
+        <v>1.87</v>
+      </c>
+      <c r="BJ103">
+        <v>1.79</v>
+      </c>
+      <c r="BK103">
+        <v>2.46</v>
+      </c>
+      <c r="BL103">
+        <v>1.43</v>
+      </c>
+      <c r="BM103">
+        <v>3.42</v>
+      </c>
+      <c r="BN103">
+        <v>1.23</v>
+      </c>
+      <c r="BO103">
+        <v>4.9</v>
+      </c>
+      <c r="BP103">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7813922</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45815.29166666666</v>
+      </c>
+      <c r="F104">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>149</v>
+      </c>
+      <c r="P104" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q104">
+        <v>3.4</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1.1</v>
+      </c>
+      <c r="Z104">
+        <v>2.63</v>
+      </c>
+      <c r="AA104">
+        <v>3.29</v>
+      </c>
+      <c r="AB104">
+        <v>2.3</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>8.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.25</v>
+      </c>
+      <c r="AF104">
+        <v>3.7</v>
+      </c>
+      <c r="AG104">
+        <v>1.8</v>
+      </c>
+      <c r="AH104">
+        <v>1.9</v>
+      </c>
+      <c r="AI104">
+        <v>1.67</v>
+      </c>
+      <c r="AJ104">
+        <v>2.1</v>
+      </c>
+      <c r="AK104">
+        <v>1.55</v>
+      </c>
+      <c r="AL104">
+        <v>1.29</v>
+      </c>
+      <c r="AM104">
+        <v>1.42</v>
+      </c>
+      <c r="AN104">
+        <v>3</v>
+      </c>
+      <c r="AO104">
+        <v>2</v>
+      </c>
+      <c r="AP104">
+        <v>2.5</v>
+      </c>
+      <c r="AQ104">
+        <v>1.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.74</v>
+      </c>
+      <c r="AS104">
+        <v>1.18</v>
+      </c>
+      <c r="AT104">
+        <v>2.92</v>
+      </c>
+      <c r="AU104">
+        <v>2</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>-1</v>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+      <c r="AY104">
+        <v>1</v>
+      </c>
+      <c r="AZ104">
+        <v>3</v>
+      </c>
+      <c r="BA104">
+        <v>-1</v>
+      </c>
+      <c r="BB104">
+        <v>-1</v>
+      </c>
+      <c r="BC104">
+        <v>-1</v>
+      </c>
+      <c r="BD104">
+        <v>2.05</v>
+      </c>
+      <c r="BE104">
+        <v>6</v>
+      </c>
+      <c r="BF104">
+        <v>2.16</v>
+      </c>
+      <c r="BG104">
+        <v>1.44</v>
+      </c>
+      <c r="BH104">
+        <v>2.43</v>
+      </c>
+      <c r="BI104">
+        <v>1.91</v>
+      </c>
+      <c r="BJ104">
+        <v>1.8</v>
+      </c>
+      <c r="BK104">
+        <v>2.35</v>
+      </c>
+      <c r="BL104">
+        <v>1.47</v>
+      </c>
+      <c r="BM104">
+        <v>3.2</v>
+      </c>
+      <c r="BN104">
+        <v>1.26</v>
+      </c>
+      <c r="BO104">
+        <v>4.2</v>
+      </c>
+      <c r="BP104">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,27 +457,6 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['5', '35', '78']</t>
-  </si>
-  <si>
-    <t>['40']</t>
-  </si>
-  <si>
-    <t>['6']</t>
-  </si>
-  <si>
-    <t>['31', '89']</t>
-  </si>
-  <si>
-    <t>['52', '60', '69', '88']</t>
-  </si>
-  <si>
-    <t>['20', '69', '90+5']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -562,6 +541,9 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['6', '41']</t>
   </si>
   <si>
@@ -626,33 +608,6 @@
   </si>
   <si>
     <t>['8', '79']</t>
-  </si>
-  <si>
-    <t>['43', '65', '71', '76']</t>
-  </si>
-  <si>
-    <t>['11', '71']</t>
-  </si>
-  <si>
-    <t>['65', '75']</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>['23', '44', '57']</t>
-  </si>
-  <si>
-    <t>['9', '9006']</t>
-  </si>
-  <si>
-    <t>['15', '26']</t>
-  </si>
-  <si>
-    <t>['41']</t>
-  </si>
-  <si>
-    <t>['62', '9005']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1309,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1479,7 +1434,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1557,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ3">
         <v>1.73</v>
@@ -1763,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1891,7 +1846,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1969,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2175,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2381,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2509,7 +2464,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2796,7 +2751,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ9">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>2.58</v>
@@ -2921,7 +2876,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2999,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0.82</v>
@@ -3127,7 +3082,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3205,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>1.73</v>
@@ -3414,7 +3369,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ12">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3539,7 +3494,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3617,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>1.4</v>
@@ -3745,7 +3700,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3823,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ14">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AR14">
         <v>1.15</v>
@@ -4029,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4157,7 +4112,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4238,7 +4193,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR16">
         <v>1.61</v>
@@ -4363,7 +4318,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4444,7 +4399,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>1.52</v>
@@ -4569,7 +4524,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4647,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="AQ18">
         <v>1.73</v>
@@ -4775,7 +4730,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4981,7 +4936,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5059,10 +5014,10 @@
         <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.06</v>
@@ -5265,10 +5220,10 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AR21">
         <v>1.02</v>
@@ -5393,7 +5348,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5471,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AR22">
         <v>0.92</v>
@@ -5680,7 +5635,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ23">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5805,7 +5760,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6092,7 +6047,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>2.07</v>
@@ -6295,10 +6250,10 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6423,7 +6378,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6501,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6629,7 +6584,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6707,7 +6662,7 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
         <v>1.73</v>
@@ -6835,7 +6790,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6916,7 +6871,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7041,7 +6996,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7119,10 +7074,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7247,7 +7202,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7325,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7531,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7659,7 +7614,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7740,7 +7695,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -7865,7 +7820,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7943,10 +7898,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>0.98</v>
@@ -8071,7 +8026,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8149,10 +8104,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8355,10 +8310,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8561,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8689,7 +8644,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8770,7 +8725,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AR38">
         <v>1.61</v>
@@ -8895,7 +8850,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8973,7 +8928,7 @@
         <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>1.73</v>
@@ -9179,10 +9134,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -9307,7 +9262,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9388,7 +9343,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9513,7 +9468,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9591,7 +9546,7 @@
         <v>0.8</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9797,10 +9752,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR43">
         <v>1.02</v>
@@ -9925,7 +9880,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -10006,7 +9961,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10131,7 +10086,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10337,7 +10292,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10418,7 +10373,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.33</v>
@@ -10543,7 +10498,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10621,10 +10576,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.74</v>
@@ -10749,7 +10704,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10955,7 +10910,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11033,10 +10988,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11239,10 +11194,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.01</v>
@@ -11367,7 +11322,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11445,7 +11400,7 @@
         <v>0.57</v>
       </c>
       <c r="AP51">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11857,10 +11812,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR53">
         <v>1.75</v>
@@ -12063,10 +12018,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AR54">
         <v>1.1</v>
@@ -12191,7 +12146,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12269,10 +12224,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="AQ55">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12475,7 +12430,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.73</v>
@@ -12603,7 +12558,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12681,10 +12636,10 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.79</v>
@@ -12809,7 +12764,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12887,10 +12842,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.31</v>
@@ -13015,7 +12970,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13093,7 +13048,7 @@
         <v>0.88</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13299,10 +13254,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
         <v>2.02</v>
@@ -13427,7 +13382,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13508,7 +13463,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AR61">
         <v>1.39</v>
@@ -13633,7 +13588,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13711,10 +13666,10 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ62">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13839,7 +13794,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14045,7 +14000,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14123,10 +14078,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14251,7 +14206,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14329,10 +14284,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.07</v>
@@ -14457,7 +14412,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14741,10 +14696,10 @@
         <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.4</v>
@@ -14869,7 +14824,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14947,10 +14902,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>0</v>
@@ -15156,7 +15111,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15359,10 +15314,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AR70">
         <v>1.72</v>
@@ -15487,7 +15442,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15774,7 +15729,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ72">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR72">
         <v>1.67</v>
@@ -15899,7 +15854,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -15977,10 +15932,10 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16105,7 +16060,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16183,10 +16138,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
@@ -16311,7 +16266,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16389,10 +16344,10 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ75">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR75">
         <v>1.33</v>
@@ -16517,7 +16472,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16595,10 +16550,10 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -16723,7 +16678,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16801,10 +16756,10 @@
         <v>2.33</v>
       </c>
       <c r="AP77">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AQ77">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -17007,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ78">
         <v>0</v>
@@ -17135,7 +17090,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17213,10 +17168,10 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AR79">
         <v>1.7</v>
@@ -17422,7 +17377,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR80">
         <v>1.42</v>
@@ -17625,10 +17580,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.17</v>
@@ -17753,7 +17708,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17831,10 +17786,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -17959,7 +17914,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>7.5</v>
@@ -18037,10 +17992,10 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="AQ83">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18165,7 +18120,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Q84">
         <v>2.38</v>
@@ -18243,7 +18198,7 @@
         <v>1.11</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18371,7 +18326,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18452,7 +18407,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ85">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -18577,7 +18532,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>4.2</v>
@@ -18658,7 +18613,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18861,10 +18816,10 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AQ87">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19067,10 +19022,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ88">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR88">
         <v>1.04</v>
@@ -19195,7 +19150,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q89">
         <v>2.62</v>
@@ -19273,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AQ89">
         <v>0</v>
@@ -19401,7 +19356,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19479,10 +19434,10 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AR90">
         <v>1.82</v>
@@ -19813,7 +19768,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19891,10 +19846,10 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AQ92">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.86</v>
@@ -19970,2478 +19925,6 @@
       </c>
       <c r="BP92">
         <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:68">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>7813913</v>
-      </c>
-      <c r="C93" t="s">
-        <v>68</v>
-      </c>
-      <c r="D93" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="2">
-        <v>45808.1875</v>
-      </c>
-      <c r="F93">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>75</v>
-      </c>
-      <c r="H93" t="s">
-        <v>72</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>4</v>
-      </c>
-      <c r="N93">
-        <v>5</v>
-      </c>
-      <c r="O93" t="s">
-        <v>98</v>
-      </c>
-      <c r="P93" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q93">
-        <v>2.62</v>
-      </c>
-      <c r="R93">
-        <v>2.15</v>
-      </c>
-      <c r="S93">
-        <v>3.9</v>
-      </c>
-      <c r="T93">
-        <v>1.4</v>
-      </c>
-      <c r="U93">
-        <v>2.88</v>
-      </c>
-      <c r="V93">
-        <v>2.9</v>
-      </c>
-      <c r="W93">
-        <v>1.36</v>
-      </c>
-      <c r="X93">
-        <v>7.5</v>
-      </c>
-      <c r="Y93">
-        <v>1.08</v>
-      </c>
-      <c r="Z93">
-        <v>1.99</v>
-      </c>
-      <c r="AA93">
-        <v>3.33</v>
-      </c>
-      <c r="AB93">
-        <v>3.16</v>
-      </c>
-      <c r="AC93">
-        <v>1.01</v>
-      </c>
-      <c r="AD93">
-        <v>8.4</v>
-      </c>
-      <c r="AE93">
-        <v>1.26</v>
-      </c>
-      <c r="AF93">
-        <v>3.22</v>
-      </c>
-      <c r="AG93">
-        <v>1.92</v>
-      </c>
-      <c r="AH93">
-        <v>1.78</v>
-      </c>
-      <c r="AI93">
-        <v>1.75</v>
-      </c>
-      <c r="AJ93">
-        <v>2</v>
-      </c>
-      <c r="AK93">
-        <v>1.35</v>
-      </c>
-      <c r="AL93">
-        <v>1.33</v>
-      </c>
-      <c r="AM93">
-        <v>1.62</v>
-      </c>
-      <c r="AN93">
-        <v>2.13</v>
-      </c>
-      <c r="AO93">
-        <v>2.2</v>
-      </c>
-      <c r="AP93">
-        <v>1.89</v>
-      </c>
-      <c r="AQ93">
-        <v>2.33</v>
-      </c>
-      <c r="AR93">
-        <v>1.35</v>
-      </c>
-      <c r="AS93">
-        <v>1.12</v>
-      </c>
-      <c r="AT93">
-        <v>2.47</v>
-      </c>
-      <c r="AU93">
-        <v>5</v>
-      </c>
-      <c r="AV93">
-        <v>6</v>
-      </c>
-      <c r="AW93">
-        <v>3</v>
-      </c>
-      <c r="AX93">
-        <v>2</v>
-      </c>
-      <c r="AY93">
-        <v>8</v>
-      </c>
-      <c r="AZ93">
-        <v>8</v>
-      </c>
-      <c r="BA93">
-        <v>1</v>
-      </c>
-      <c r="BB93">
-        <v>5</v>
-      </c>
-      <c r="BC93">
-        <v>6</v>
-      </c>
-      <c r="BD93">
-        <v>1.89</v>
-      </c>
-      <c r="BE93">
-        <v>6.05</v>
-      </c>
-      <c r="BF93">
-        <v>2.36</v>
-      </c>
-      <c r="BG93">
-        <v>1.38</v>
-      </c>
-      <c r="BH93">
-        <v>2.8</v>
-      </c>
-      <c r="BI93">
-        <v>1.9</v>
-      </c>
-      <c r="BJ93">
-        <v>1.9</v>
-      </c>
-      <c r="BK93">
-        <v>2.2</v>
-      </c>
-      <c r="BL93">
-        <v>1.6</v>
-      </c>
-      <c r="BM93">
-        <v>3</v>
-      </c>
-      <c r="BN93">
-        <v>1.34</v>
-      </c>
-      <c r="BO93">
-        <v>3.7</v>
-      </c>
-      <c r="BP93">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:68">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>7813912</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E94" s="2">
-        <v>45808.1875</v>
-      </c>
-      <c r="F94">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>83</v>
-      </c>
-      <c r="H94" t="s">
-        <v>77</v>
-      </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94">
-        <v>3</v>
-      </c>
-      <c r="L94">
-        <v>3</v>
-      </c>
-      <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="N94">
-        <v>5</v>
-      </c>
-      <c r="O94" t="s">
-        <v>147</v>
-      </c>
-      <c r="P94" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q94">
-        <v>2.4</v>
-      </c>
-      <c r="R94">
-        <v>2.2</v>
-      </c>
-      <c r="S94">
-        <v>4.33</v>
-      </c>
-      <c r="T94">
-        <v>1.36</v>
-      </c>
-      <c r="U94">
-        <v>3</v>
-      </c>
-      <c r="V94">
-        <v>2.75</v>
-      </c>
-      <c r="W94">
-        <v>1.4</v>
-      </c>
-      <c r="X94">
-        <v>7</v>
-      </c>
-      <c r="Y94">
-        <v>1.1</v>
-      </c>
-      <c r="Z94">
-        <v>1.75</v>
-      </c>
-      <c r="AA94">
-        <v>3.51</v>
-      </c>
-      <c r="AB94">
-        <v>3.82</v>
-      </c>
-      <c r="AC94">
-        <v>1</v>
-      </c>
-      <c r="AD94">
-        <v>9</v>
-      </c>
-      <c r="AE94">
-        <v>1.23</v>
-      </c>
-      <c r="AF94">
-        <v>3.42</v>
-      </c>
-      <c r="AG94">
-        <v>1.84</v>
-      </c>
-      <c r="AH94">
-        <v>1.86</v>
-      </c>
-      <c r="AI94">
-        <v>1.75</v>
-      </c>
-      <c r="AJ94">
-        <v>2</v>
-      </c>
-      <c r="AK94">
-        <v>1.22</v>
-      </c>
-      <c r="AL94">
-        <v>1.3</v>
-      </c>
-      <c r="AM94">
-        <v>1.95</v>
-      </c>
-      <c r="AN94">
-        <v>3</v>
-      </c>
-      <c r="AO94">
-        <v>0.17</v>
-      </c>
-      <c r="AP94">
-        <v>2.5</v>
-      </c>
-      <c r="AQ94">
-        <v>0.5</v>
-      </c>
-      <c r="AR94">
-        <v>1.56</v>
-      </c>
-      <c r="AS94">
-        <v>1.09</v>
-      </c>
-      <c r="AT94">
-        <v>2.65</v>
-      </c>
-      <c r="AU94">
-        <v>7</v>
-      </c>
-      <c r="AV94">
-        <v>5</v>
-      </c>
-      <c r="AW94">
-        <v>10</v>
-      </c>
-      <c r="AX94">
-        <v>7</v>
-      </c>
-      <c r="AY94">
-        <v>17</v>
-      </c>
-      <c r="AZ94">
-        <v>12</v>
-      </c>
-      <c r="BA94">
-        <v>4</v>
-      </c>
-      <c r="BB94">
-        <v>3</v>
-      </c>
-      <c r="BC94">
-        <v>7</v>
-      </c>
-      <c r="BD94">
-        <v>0</v>
-      </c>
-      <c r="BE94">
-        <v>0</v>
-      </c>
-      <c r="BF94">
-        <v>0</v>
-      </c>
-      <c r="BG94">
-        <v>0</v>
-      </c>
-      <c r="BH94">
-        <v>0</v>
-      </c>
-      <c r="BI94">
-        <v>0</v>
-      </c>
-      <c r="BJ94">
-        <v>0</v>
-      </c>
-      <c r="BK94">
-        <v>0</v>
-      </c>
-      <c r="BL94">
-        <v>0</v>
-      </c>
-      <c r="BM94">
-        <v>0</v>
-      </c>
-      <c r="BN94">
-        <v>0</v>
-      </c>
-      <c r="BO94">
-        <v>0</v>
-      </c>
-      <c r="BP94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:68">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>7813914</v>
-      </c>
-      <c r="C95" t="s">
-        <v>68</v>
-      </c>
-      <c r="D95" t="s">
-        <v>69</v>
-      </c>
-      <c r="E95" s="2">
-        <v>45808.29166666666</v>
-      </c>
-      <c r="F95">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>82</v>
-      </c>
-      <c r="H95" t="s">
-        <v>80</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>2</v>
-      </c>
-      <c r="N95">
-        <v>3</v>
-      </c>
-      <c r="O95" t="s">
-        <v>148</v>
-      </c>
-      <c r="P95" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q95">
-        <v>3.1</v>
-      </c>
-      <c r="R95">
-        <v>2.15</v>
-      </c>
-      <c r="S95">
-        <v>3.2</v>
-      </c>
-      <c r="T95">
-        <v>1.36</v>
-      </c>
-      <c r="U95">
-        <v>2.9</v>
-      </c>
-      <c r="V95">
-        <v>2.8</v>
-      </c>
-      <c r="W95">
-        <v>1.4</v>
-      </c>
-      <c r="X95">
-        <v>7.5</v>
-      </c>
-      <c r="Y95">
-        <v>1.08</v>
-      </c>
-      <c r="Z95">
-        <v>2.41</v>
-      </c>
-      <c r="AA95">
-        <v>3.17</v>
-      </c>
-      <c r="AB95">
-        <v>2.56</v>
-      </c>
-      <c r="AC95">
-        <v>1.03</v>
-      </c>
-      <c r="AD95">
-        <v>9</v>
-      </c>
-      <c r="AE95">
-        <v>1.25</v>
-      </c>
-      <c r="AF95">
-        <v>3.28</v>
-      </c>
-      <c r="AG95">
-        <v>1.92</v>
-      </c>
-      <c r="AH95">
-        <v>1.78</v>
-      </c>
-      <c r="AI95">
-        <v>1.73</v>
-      </c>
-      <c r="AJ95">
-        <v>2.05</v>
-      </c>
-      <c r="AK95">
-        <v>1.44</v>
-      </c>
-      <c r="AL95">
-        <v>1.33</v>
-      </c>
-      <c r="AM95">
-        <v>1.5</v>
-      </c>
-      <c r="AN95">
-        <v>0.67</v>
-      </c>
-      <c r="AO95">
-        <v>0.67</v>
-      </c>
-      <c r="AP95">
-        <v>0.4</v>
-      </c>
-      <c r="AQ95">
-        <v>1</v>
-      </c>
-      <c r="AR95">
-        <v>1.52</v>
-      </c>
-      <c r="AS95">
-        <v>1.16</v>
-      </c>
-      <c r="AT95">
-        <v>2.68</v>
-      </c>
-      <c r="AU95">
-        <v>6</v>
-      </c>
-      <c r="AV95">
-        <v>4</v>
-      </c>
-      <c r="AW95">
-        <v>3</v>
-      </c>
-      <c r="AX95">
-        <v>4</v>
-      </c>
-      <c r="AY95">
-        <v>9</v>
-      </c>
-      <c r="AZ95">
-        <v>8</v>
-      </c>
-      <c r="BA95">
-        <v>0</v>
-      </c>
-      <c r="BB95">
-        <v>1</v>
-      </c>
-      <c r="BC95">
-        <v>1</v>
-      </c>
-      <c r="BD95">
-        <v>2.13</v>
-      </c>
-      <c r="BE95">
-        <v>5.95</v>
-      </c>
-      <c r="BF95">
-        <v>2.08</v>
-      </c>
-      <c r="BG95">
-        <v>1.46</v>
-      </c>
-      <c r="BH95">
-        <v>2.65</v>
-      </c>
-      <c r="BI95">
-        <v>2</v>
-      </c>
-      <c r="BJ95">
-        <v>1.8</v>
-      </c>
-      <c r="BK95">
-        <v>2.26</v>
-      </c>
-      <c r="BL95">
-        <v>1.61</v>
-      </c>
-      <c r="BM95">
-        <v>3.14</v>
-      </c>
-      <c r="BN95">
-        <v>1.27</v>
-      </c>
-      <c r="BO95">
-        <v>4.05</v>
-      </c>
-      <c r="BP95">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:68">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>7813915</v>
-      </c>
-      <c r="C96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" t="s">
-        <v>69</v>
-      </c>
-      <c r="E96" s="2">
-        <v>45808.29166666666</v>
-      </c>
-      <c r="F96">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" t="s">
-        <v>74</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96" t="s">
-        <v>149</v>
-      </c>
-      <c r="P96" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q96">
-        <v>3.7</v>
-      </c>
-      <c r="R96">
-        <v>2.1</v>
-      </c>
-      <c r="S96">
-        <v>2.8</v>
-      </c>
-      <c r="T96">
-        <v>1.4</v>
-      </c>
-      <c r="U96">
-        <v>2.8</v>
-      </c>
-      <c r="V96">
-        <v>3</v>
-      </c>
-      <c r="W96">
-        <v>1.36</v>
-      </c>
-      <c r="X96">
-        <v>8.5</v>
-      </c>
-      <c r="Y96">
-        <v>1.07</v>
-      </c>
-      <c r="Z96">
-        <v>2.97</v>
-      </c>
-      <c r="AA96">
-        <v>3.11</v>
-      </c>
-      <c r="AB96">
-        <v>2.17</v>
-      </c>
-      <c r="AC96">
-        <v>1.02</v>
-      </c>
-      <c r="AD96">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE96">
-        <v>1.31</v>
-      </c>
-      <c r="AF96">
-        <v>2.92</v>
-      </c>
-      <c r="AG96">
-        <v>1.95</v>
-      </c>
-      <c r="AH96">
-        <v>1.75</v>
-      </c>
-      <c r="AI96">
-        <v>1.8</v>
-      </c>
-      <c r="AJ96">
-        <v>1.95</v>
-      </c>
-      <c r="AK96">
-        <v>1.62</v>
-      </c>
-      <c r="AL96">
-        <v>1.35</v>
-      </c>
-      <c r="AM96">
-        <v>1.35</v>
-      </c>
-      <c r="AN96">
-        <v>0.57</v>
-      </c>
-      <c r="AO96">
-        <v>1</v>
-      </c>
-      <c r="AP96">
-        <v>0.88</v>
-      </c>
-      <c r="AQ96">
-        <v>0.86</v>
-      </c>
-      <c r="AR96">
-        <v>1.3</v>
-      </c>
-      <c r="AS96">
-        <v>1.21</v>
-      </c>
-      <c r="AT96">
-        <v>2.51</v>
-      </c>
-      <c r="AU96">
-        <v>4</v>
-      </c>
-      <c r="AV96">
-        <v>3</v>
-      </c>
-      <c r="AW96">
-        <v>5</v>
-      </c>
-      <c r="AX96">
-        <v>5</v>
-      </c>
-      <c r="AY96">
-        <v>9</v>
-      </c>
-      <c r="AZ96">
-        <v>8</v>
-      </c>
-      <c r="BA96">
-        <v>2</v>
-      </c>
-      <c r="BB96">
-        <v>2</v>
-      </c>
-      <c r="BC96">
-        <v>4</v>
-      </c>
-      <c r="BD96">
-        <v>2.13</v>
-      </c>
-      <c r="BE96">
-        <v>5.9</v>
-      </c>
-      <c r="BF96">
-        <v>2.09</v>
-      </c>
-      <c r="BG96">
-        <v>1.51</v>
-      </c>
-      <c r="BH96">
-        <v>2.47</v>
-      </c>
-      <c r="BI96">
-        <v>1.89</v>
-      </c>
-      <c r="BJ96">
-        <v>1.91</v>
-      </c>
-      <c r="BK96">
-        <v>2.4</v>
-      </c>
-      <c r="BL96">
-        <v>1.54</v>
-      </c>
-      <c r="BM96">
-        <v>3.5</v>
-      </c>
-      <c r="BN96">
-        <v>1.22</v>
-      </c>
-      <c r="BO96">
-        <v>4.5</v>
-      </c>
-      <c r="BP96">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:68">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>7813916</v>
-      </c>
-      <c r="C97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" s="2">
-        <v>45809.1875</v>
-      </c>
-      <c r="F97">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>81</v>
-      </c>
-      <c r="H97" t="s">
-        <v>78</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>2</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-      <c r="O97" t="s">
-        <v>150</v>
-      </c>
-      <c r="P97" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q97">
-        <v>2.7</v>
-      </c>
-      <c r="R97">
-        <v>2.1</v>
-      </c>
-      <c r="S97">
-        <v>4</v>
-      </c>
-      <c r="T97">
-        <v>1.4</v>
-      </c>
-      <c r="U97">
-        <v>2.75</v>
-      </c>
-      <c r="V97">
-        <v>3</v>
-      </c>
-      <c r="W97">
-        <v>1.36</v>
-      </c>
-      <c r="X97">
-        <v>8.5</v>
-      </c>
-      <c r="Y97">
-        <v>1.07</v>
-      </c>
-      <c r="Z97">
-        <v>2.11</v>
-      </c>
-      <c r="AA97">
-        <v>3.24</v>
-      </c>
-      <c r="AB97">
-        <v>3.25</v>
-      </c>
-      <c r="AC97">
-        <v>1.01</v>
-      </c>
-      <c r="AD97">
-        <v>8.4</v>
-      </c>
-      <c r="AE97">
-        <v>1.33</v>
-      </c>
-      <c r="AF97">
-        <v>2.83</v>
-      </c>
-      <c r="AG97">
-        <v>2.17</v>
-      </c>
-      <c r="AH97">
-        <v>1.62</v>
-      </c>
-      <c r="AI97">
-        <v>1.85</v>
-      </c>
-      <c r="AJ97">
-        <v>1.85</v>
-      </c>
-      <c r="AK97">
-        <v>1.3</v>
-      </c>
-      <c r="AL97">
-        <v>1.36</v>
-      </c>
-      <c r="AM97">
-        <v>1.65</v>
-      </c>
-      <c r="AN97">
-        <v>1.5</v>
-      </c>
-      <c r="AO97">
-        <v>1.33</v>
-      </c>
-      <c r="AP97">
-        <v>1.71</v>
-      </c>
-      <c r="AQ97">
-        <v>1.14</v>
-      </c>
-      <c r="AR97">
-        <v>1.82</v>
-      </c>
-      <c r="AS97">
-        <v>1.31</v>
-      </c>
-      <c r="AT97">
-        <v>3.13</v>
-      </c>
-      <c r="AU97">
-        <v>4</v>
-      </c>
-      <c r="AV97">
-        <v>3</v>
-      </c>
-      <c r="AW97">
-        <v>5</v>
-      </c>
-      <c r="AX97">
-        <v>3</v>
-      </c>
-      <c r="AY97">
-        <v>9</v>
-      </c>
-      <c r="AZ97">
-        <v>6</v>
-      </c>
-      <c r="BA97">
-        <v>4</v>
-      </c>
-      <c r="BB97">
-        <v>1</v>
-      </c>
-      <c r="BC97">
-        <v>5</v>
-      </c>
-      <c r="BD97">
-        <v>1.69</v>
-      </c>
-      <c r="BE97">
-        <v>7.6</v>
-      </c>
-      <c r="BF97">
-        <v>2.53</v>
-      </c>
-      <c r="BG97">
-        <v>1.52</v>
-      </c>
-      <c r="BH97">
-        <v>2.44</v>
-      </c>
-      <c r="BI97">
-        <v>1.92</v>
-      </c>
-      <c r="BJ97">
-        <v>1.88</v>
-      </c>
-      <c r="BK97">
-        <v>2.42</v>
-      </c>
-      <c r="BL97">
-        <v>1.53</v>
-      </c>
-      <c r="BM97">
-        <v>3.34</v>
-      </c>
-      <c r="BN97">
-        <v>1.24</v>
-      </c>
-      <c r="BO97">
-        <v>4.25</v>
-      </c>
-      <c r="BP97">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:68">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>7813917</v>
-      </c>
-      <c r="C98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" t="s">
-        <v>69</v>
-      </c>
-      <c r="E98" s="2">
-        <v>45809.29166666666</v>
-      </c>
-      <c r="F98">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>79</v>
-      </c>
-      <c r="H98" t="s">
-        <v>76</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <v>5</v>
-      </c>
-      <c r="O98" t="s">
-        <v>151</v>
-      </c>
-      <c r="P98" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q98">
-        <v>2.3</v>
-      </c>
-      <c r="R98">
-        <v>2.3</v>
-      </c>
-      <c r="S98">
-        <v>4.4</v>
-      </c>
-      <c r="T98">
-        <v>1.33</v>
-      </c>
-      <c r="U98">
-        <v>3.1</v>
-      </c>
-      <c r="V98">
-        <v>2.6</v>
-      </c>
-      <c r="W98">
-        <v>1.44</v>
-      </c>
-      <c r="X98">
-        <v>6.5</v>
-      </c>
-      <c r="Y98">
-        <v>1.11</v>
-      </c>
-      <c r="Z98">
-        <v>1.69</v>
-      </c>
-      <c r="AA98">
-        <v>3.62</v>
-      </c>
-      <c r="AB98">
-        <v>3.95</v>
-      </c>
-      <c r="AC98">
-        <v>1</v>
-      </c>
-      <c r="AD98">
-        <v>9</v>
-      </c>
-      <c r="AE98">
-        <v>1.24</v>
-      </c>
-      <c r="AF98">
-        <v>3.34</v>
-      </c>
-      <c r="AG98">
-        <v>1.86</v>
-      </c>
-      <c r="AH98">
-        <v>1.84</v>
-      </c>
-      <c r="AI98">
-        <v>1.73</v>
-      </c>
-      <c r="AJ98">
-        <v>2.05</v>
-      </c>
-      <c r="AK98">
-        <v>1.2</v>
-      </c>
-      <c r="AL98">
-        <v>1.29</v>
-      </c>
-      <c r="AM98">
-        <v>2</v>
-      </c>
-      <c r="AN98">
-        <v>2.43</v>
-      </c>
-      <c r="AO98">
-        <v>1.83</v>
-      </c>
-      <c r="AP98">
-        <v>2.5</v>
-      </c>
-      <c r="AQ98">
-        <v>1.57</v>
-      </c>
-      <c r="AR98">
-        <v>1.85</v>
-      </c>
-      <c r="AS98">
-        <v>1.64</v>
-      </c>
-      <c r="AT98">
-        <v>3.49</v>
-      </c>
-      <c r="AU98">
-        <v>7</v>
-      </c>
-      <c r="AV98">
-        <v>4</v>
-      </c>
-      <c r="AW98">
-        <v>2</v>
-      </c>
-      <c r="AX98">
-        <v>6</v>
-      </c>
-      <c r="AY98">
-        <v>9</v>
-      </c>
-      <c r="AZ98">
-        <v>10</v>
-      </c>
-      <c r="BA98">
-        <v>3</v>
-      </c>
-      <c r="BB98">
-        <v>10</v>
-      </c>
-      <c r="BC98">
-        <v>13</v>
-      </c>
-      <c r="BD98">
-        <v>1.63</v>
-      </c>
-      <c r="BE98">
-        <v>8.1</v>
-      </c>
-      <c r="BF98">
-        <v>2.62</v>
-      </c>
-      <c r="BG98">
-        <v>1.32</v>
-      </c>
-      <c r="BH98">
-        <v>2.88</v>
-      </c>
-      <c r="BI98">
-        <v>1.66</v>
-      </c>
-      <c r="BJ98">
-        <v>2.18</v>
-      </c>
-      <c r="BK98">
-        <v>2.1</v>
-      </c>
-      <c r="BL98">
-        <v>1.71</v>
-      </c>
-      <c r="BM98">
-        <v>2.69</v>
-      </c>
-      <c r="BN98">
-        <v>1.36</v>
-      </c>
-      <c r="BO98">
-        <v>3.75</v>
-      </c>
-      <c r="BP98">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:68">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>7813918</v>
-      </c>
-      <c r="C99" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" t="s">
-        <v>69</v>
-      </c>
-      <c r="E99" s="2">
-        <v>45809.29166666666</v>
-      </c>
-      <c r="F99">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>71</v>
-      </c>
-      <c r="H99" t="s">
-        <v>70</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>2</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>3</v>
-      </c>
-      <c r="N99">
-        <v>6</v>
-      </c>
-      <c r="O99" t="s">
-        <v>152</v>
-      </c>
-      <c r="P99" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q99">
-        <v>6.5</v>
-      </c>
-      <c r="R99">
-        <v>2.4</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>1.3</v>
-      </c>
-      <c r="U99">
-        <v>3.25</v>
-      </c>
-      <c r="V99">
-        <v>2.5</v>
-      </c>
-      <c r="W99">
-        <v>1.5</v>
-      </c>
-      <c r="X99">
-        <v>6</v>
-      </c>
-      <c r="Y99">
-        <v>1.11</v>
-      </c>
-      <c r="Z99">
-        <v>6.9</v>
-      </c>
-      <c r="AA99">
-        <v>4.4</v>
-      </c>
-      <c r="AB99">
-        <v>1.34</v>
-      </c>
-      <c r="AC99">
-        <v>1.01</v>
-      </c>
-      <c r="AD99">
-        <v>11</v>
-      </c>
-      <c r="AE99">
-        <v>1.16</v>
-      </c>
-      <c r="AF99">
-        <v>4.15</v>
-      </c>
-      <c r="AG99">
-        <v>1.78</v>
-      </c>
-      <c r="AH99">
-        <v>1.92</v>
-      </c>
-      <c r="AI99">
-        <v>1.91</v>
-      </c>
-      <c r="AJ99">
-        <v>1.83</v>
-      </c>
-      <c r="AK99">
-        <v>3</v>
-      </c>
-      <c r="AL99">
-        <v>1.2</v>
-      </c>
-      <c r="AM99">
-        <v>1.08</v>
-      </c>
-      <c r="AN99">
-        <v>0.57</v>
-      </c>
-      <c r="AO99">
-        <v>2.4</v>
-      </c>
-      <c r="AP99">
-        <v>0.63</v>
-      </c>
-      <c r="AQ99">
-        <v>2.17</v>
-      </c>
-      <c r="AR99">
-        <v>1.19</v>
-      </c>
-      <c r="AS99">
-        <v>1.29</v>
-      </c>
-      <c r="AT99">
-        <v>2.48</v>
-      </c>
-      <c r="AU99">
-        <v>6</v>
-      </c>
-      <c r="AV99">
-        <v>6</v>
-      </c>
-      <c r="AW99">
-        <v>5</v>
-      </c>
-      <c r="AX99">
-        <v>5</v>
-      </c>
-      <c r="AY99">
-        <v>11</v>
-      </c>
-      <c r="AZ99">
-        <v>11</v>
-      </c>
-      <c r="BA99">
-        <v>4</v>
-      </c>
-      <c r="BB99">
-        <v>1</v>
-      </c>
-      <c r="BC99">
-        <v>5</v>
-      </c>
-      <c r="BD99">
-        <v>2.83</v>
-      </c>
-      <c r="BE99">
-        <v>8.1</v>
-      </c>
-      <c r="BF99">
-        <v>1.56</v>
-      </c>
-      <c r="BG99">
-        <v>1.34</v>
-      </c>
-      <c r="BH99">
-        <v>2.78</v>
-      </c>
-      <c r="BI99">
-        <v>1.71</v>
-      </c>
-      <c r="BJ99">
-        <v>2.09</v>
-      </c>
-      <c r="BK99">
-        <v>2.15</v>
-      </c>
-      <c r="BL99">
-        <v>1.68</v>
-      </c>
-      <c r="BM99">
-        <v>2.78</v>
-      </c>
-      <c r="BN99">
-        <v>1.34</v>
-      </c>
-      <c r="BO99">
-        <v>3.62</v>
-      </c>
-      <c r="BP99">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:68">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>7813920</v>
-      </c>
-      <c r="C100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" t="s">
-        <v>69</v>
-      </c>
-      <c r="E100" s="2">
-        <v>45814.29166666666</v>
-      </c>
-      <c r="F100">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s">
-        <v>79</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="K100">
-        <v>2</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
-      <c r="O100" t="s">
-        <v>153</v>
-      </c>
-      <c r="P100" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q100">
-        <v>4.33</v>
-      </c>
-      <c r="R100">
-        <v>2.15</v>
-      </c>
-      <c r="S100">
-        <v>2.35</v>
-      </c>
-      <c r="T100">
-        <v>1.38</v>
-      </c>
-      <c r="U100">
-        <v>2.8</v>
-      </c>
-      <c r="V100">
-        <v>2.8</v>
-      </c>
-      <c r="W100">
-        <v>1.38</v>
-      </c>
-      <c r="X100">
-        <v>6.4</v>
-      </c>
-      <c r="Y100">
-        <v>1.05</v>
-      </c>
-      <c r="Z100">
-        <v>4</v>
-      </c>
-      <c r="AA100">
-        <v>3.52</v>
-      </c>
-      <c r="AB100">
-        <v>1.7</v>
-      </c>
-      <c r="AC100">
-        <v>1.05</v>
-      </c>
-      <c r="AD100">
-        <v>8.5</v>
-      </c>
-      <c r="AE100">
-        <v>1.3</v>
-      </c>
-      <c r="AF100">
-        <v>3.35</v>
-      </c>
-      <c r="AG100">
-        <v>1.89</v>
-      </c>
-      <c r="AH100">
-        <v>1.81</v>
-      </c>
-      <c r="AI100">
-        <v>1.8</v>
-      </c>
-      <c r="AJ100">
-        <v>1.83</v>
-      </c>
-      <c r="AK100">
-        <v>2</v>
-      </c>
-      <c r="AL100">
-        <v>1.22</v>
-      </c>
-      <c r="AM100">
-        <v>1.17</v>
-      </c>
-      <c r="AN100">
-        <v>1.71</v>
-      </c>
-      <c r="AO100">
-        <v>1.33</v>
-      </c>
-      <c r="AP100">
-        <v>1.5</v>
-      </c>
-      <c r="AQ100">
-        <v>1.57</v>
-      </c>
-      <c r="AR100">
-        <v>1.06</v>
-      </c>
-      <c r="AS100">
-        <v>1.71</v>
-      </c>
-      <c r="AT100">
-        <v>2.77</v>
-      </c>
-      <c r="AU100">
-        <v>2</v>
-      </c>
-      <c r="AV100">
-        <v>3</v>
-      </c>
-      <c r="AW100">
-        <v>5</v>
-      </c>
-      <c r="AX100">
-        <v>5</v>
-      </c>
-      <c r="AY100">
-        <v>7</v>
-      </c>
-      <c r="AZ100">
-        <v>8</v>
-      </c>
-      <c r="BA100">
-        <v>4</v>
-      </c>
-      <c r="BB100">
-        <v>1</v>
-      </c>
-      <c r="BC100">
-        <v>5</v>
-      </c>
-      <c r="BD100">
-        <v>3.12</v>
-      </c>
-      <c r="BE100">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF100">
-        <v>1.48</v>
-      </c>
-      <c r="BG100">
-        <v>1.34</v>
-      </c>
-      <c r="BH100">
-        <v>2.78</v>
-      </c>
-      <c r="BI100">
-        <v>1.65</v>
-      </c>
-      <c r="BJ100">
-        <v>2.05</v>
-      </c>
-      <c r="BK100">
-        <v>2.08</v>
-      </c>
-      <c r="BL100">
-        <v>1.6</v>
-      </c>
-      <c r="BM100">
-        <v>2.78</v>
-      </c>
-      <c r="BN100">
-        <v>1.34</v>
-      </c>
-      <c r="BO100">
-        <v>3.55</v>
-      </c>
-      <c r="BP100">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:68">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>7813919</v>
-      </c>
-      <c r="C101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" t="s">
-        <v>69</v>
-      </c>
-      <c r="E101" s="2">
-        <v>45814.29166666666</v>
-      </c>
-      <c r="F101">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>82</v>
-      </c>
-      <c r="H101" t="s">
-        <v>81</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>2</v>
-      </c>
-      <c r="K101">
-        <v>2</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>2</v>
-      </c>
-      <c r="N101">
-        <v>2</v>
-      </c>
-      <c r="O101" t="s">
-        <v>85</v>
-      </c>
-      <c r="P101" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q101">
-        <v>3.88</v>
-      </c>
-      <c r="R101">
-        <v>2.04</v>
-      </c>
-      <c r="S101">
-        <v>2.7</v>
-      </c>
-      <c r="T101">
-        <v>1.4</v>
-      </c>
-      <c r="U101">
-        <v>2.72</v>
-      </c>
-      <c r="V101">
-        <v>2.93</v>
-      </c>
-      <c r="W101">
-        <v>1.35</v>
-      </c>
-      <c r="X101">
-        <v>7.3</v>
-      </c>
-      <c r="Y101">
-        <v>1.03</v>
-      </c>
-      <c r="Z101">
-        <v>3.24</v>
-      </c>
-      <c r="AA101">
-        <v>3.28</v>
-      </c>
-      <c r="AB101">
-        <v>2.1</v>
-      </c>
-      <c r="AC101">
-        <v>1.01</v>
-      </c>
-      <c r="AD101">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE101">
-        <v>1.29</v>
-      </c>
-      <c r="AF101">
-        <v>3.04</v>
-      </c>
-      <c r="AG101">
-        <v>2</v>
-      </c>
-      <c r="AH101">
-        <v>1.73</v>
-      </c>
-      <c r="AI101">
-        <v>1.79</v>
-      </c>
-      <c r="AJ101">
-        <v>1.87</v>
-      </c>
-      <c r="AK101">
-        <v>1.64</v>
-      </c>
-      <c r="AL101">
-        <v>1.28</v>
-      </c>
-      <c r="AM101">
-        <v>1.28</v>
-      </c>
-      <c r="AN101">
-        <v>0.5</v>
-      </c>
-      <c r="AO101">
-        <v>0.86</v>
-      </c>
-      <c r="AP101">
-        <v>0.4</v>
-      </c>
-      <c r="AQ101">
-        <v>1.13</v>
-      </c>
-      <c r="AR101">
-        <v>1.45</v>
-      </c>
-      <c r="AS101">
-        <v>1.4</v>
-      </c>
-      <c r="AT101">
-        <v>2.85</v>
-      </c>
-      <c r="AU101">
-        <v>0</v>
-      </c>
-      <c r="AV101">
-        <v>3</v>
-      </c>
-      <c r="AW101">
-        <v>8</v>
-      </c>
-      <c r="AX101">
-        <v>3</v>
-      </c>
-      <c r="AY101">
-        <v>8</v>
-      </c>
-      <c r="AZ101">
-        <v>6</v>
-      </c>
-      <c r="BA101">
-        <v>6</v>
-      </c>
-      <c r="BB101">
-        <v>10</v>
-      </c>
-      <c r="BC101">
-        <v>16</v>
-      </c>
-      <c r="BD101">
-        <v>2.6</v>
-      </c>
-      <c r="BE101">
-        <v>6.05</v>
-      </c>
-      <c r="BF101">
-        <v>1.76</v>
-      </c>
-      <c r="BG101">
-        <v>1.46</v>
-      </c>
-      <c r="BH101">
-        <v>2.38</v>
-      </c>
-      <c r="BI101">
-        <v>1.85</v>
-      </c>
-      <c r="BJ101">
-        <v>1.81</v>
-      </c>
-      <c r="BK101">
-        <v>2.42</v>
-      </c>
-      <c r="BL101">
-        <v>1.44</v>
-      </c>
-      <c r="BM101">
-        <v>3.34</v>
-      </c>
-      <c r="BN101">
-        <v>1.24</v>
-      </c>
-      <c r="BO101">
-        <v>4.25</v>
-      </c>
-      <c r="BP101">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:68">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>7813923</v>
-      </c>
-      <c r="C102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" s="2">
-        <v>45815.29166666666</v>
-      </c>
-      <c r="F102">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>80</v>
-      </c>
-      <c r="H102" t="s">
-        <v>77</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102" t="s">
-        <v>85</v>
-      </c>
-      <c r="P102" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q102">
-        <v>2.79</v>
-      </c>
-      <c r="R102">
-        <v>2.12</v>
-      </c>
-      <c r="S102">
-        <v>3.48</v>
-      </c>
-      <c r="T102">
-        <v>1.35</v>
-      </c>
-      <c r="U102">
-        <v>2.93</v>
-      </c>
-      <c r="V102">
-        <v>2.69</v>
-      </c>
-      <c r="W102">
-        <v>1.41</v>
-      </c>
-      <c r="X102">
-        <v>6.4</v>
-      </c>
-      <c r="Y102">
-        <v>1.05</v>
-      </c>
-      <c r="Z102">
-        <v>2.16</v>
-      </c>
-      <c r="AA102">
-        <v>3.38</v>
-      </c>
-      <c r="AB102">
-        <v>2.76</v>
-      </c>
-      <c r="AC102">
-        <v>1</v>
-      </c>
-      <c r="AD102">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE102">
-        <v>1.22</v>
-      </c>
-      <c r="AF102">
-        <v>3.48</v>
-      </c>
-      <c r="AG102">
-        <v>1.82</v>
-      </c>
-      <c r="AH102">
-        <v>1.88</v>
-      </c>
-      <c r="AI102">
-        <v>1.65</v>
-      </c>
-      <c r="AJ102">
-        <v>2.05</v>
-      </c>
-      <c r="AK102">
-        <v>1.35</v>
-      </c>
-      <c r="AL102">
-        <v>1.26</v>
-      </c>
-      <c r="AM102">
-        <v>1.57</v>
-      </c>
-      <c r="AN102">
-        <v>1.43</v>
-      </c>
-      <c r="AO102">
-        <v>0.14</v>
-      </c>
-      <c r="AP102">
-        <v>1.25</v>
-      </c>
-      <c r="AQ102">
-        <v>0.5</v>
-      </c>
-      <c r="AR102">
-        <v>1.78</v>
-      </c>
-      <c r="AS102">
-        <v>1.15</v>
-      </c>
-      <c r="AT102">
-        <v>2.93</v>
-      </c>
-      <c r="AU102">
-        <v>6</v>
-      </c>
-      <c r="AV102">
-        <v>2</v>
-      </c>
-      <c r="AW102">
-        <v>3</v>
-      </c>
-      <c r="AX102">
-        <v>2</v>
-      </c>
-      <c r="AY102">
-        <v>9</v>
-      </c>
-      <c r="AZ102">
-        <v>4</v>
-      </c>
-      <c r="BA102">
-        <v>4</v>
-      </c>
-      <c r="BB102">
-        <v>3</v>
-      </c>
-      <c r="BC102">
-        <v>7</v>
-      </c>
-      <c r="BD102">
-        <v>2</v>
-      </c>
-      <c r="BE102">
-        <v>6.05</v>
-      </c>
-      <c r="BF102">
-        <v>2.21</v>
-      </c>
-      <c r="BG102">
-        <v>1.37</v>
-      </c>
-      <c r="BH102">
-        <v>2.66</v>
-      </c>
-      <c r="BI102">
-        <v>1.7</v>
-      </c>
-      <c r="BJ102">
-        <v>1.98</v>
-      </c>
-      <c r="BK102">
-        <v>2.15</v>
-      </c>
-      <c r="BL102">
-        <v>1.56</v>
-      </c>
-      <c r="BM102">
-        <v>2.92</v>
-      </c>
-      <c r="BN102">
-        <v>1.31</v>
-      </c>
-      <c r="BO102">
-        <v>3.48</v>
-      </c>
-      <c r="BP102">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:68">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>7813921</v>
-      </c>
-      <c r="C103" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" s="2">
-        <v>45815.29166666666</v>
-      </c>
-      <c r="F103">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>72</v>
-      </c>
-      <c r="H103" t="s">
-        <v>73</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>2</v>
-      </c>
-      <c r="N103">
-        <v>2</v>
-      </c>
-      <c r="O103" t="s">
-        <v>85</v>
-      </c>
-      <c r="P103" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q103">
-        <v>2.14</v>
-      </c>
-      <c r="R103">
-        <v>2.16</v>
-      </c>
-      <c r="S103">
-        <v>5.35</v>
-      </c>
-      <c r="T103">
-        <v>1.37</v>
-      </c>
-      <c r="U103">
-        <v>2.84</v>
-      </c>
-      <c r="V103">
-        <v>2.8</v>
-      </c>
-      <c r="W103">
-        <v>1.38</v>
-      </c>
-      <c r="X103">
-        <v>6.85</v>
-      </c>
-      <c r="Y103">
-        <v>1.04</v>
-      </c>
-      <c r="Z103">
-        <v>1.55</v>
-      </c>
-      <c r="AA103">
-        <v>3.72</v>
-      </c>
-      <c r="AB103">
-        <v>4.8</v>
-      </c>
-      <c r="AC103">
-        <v>1</v>
-      </c>
-      <c r="AD103">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AE103">
-        <v>1.26</v>
-      </c>
-      <c r="AF103">
-        <v>3.22</v>
-      </c>
-      <c r="AG103">
-        <v>1.9</v>
-      </c>
-      <c r="AH103">
-        <v>1.8</v>
-      </c>
-      <c r="AI103">
-        <v>1.9</v>
-      </c>
-      <c r="AJ103">
-        <v>1.77</v>
-      </c>
-      <c r="AK103">
-        <v>1.11</v>
-      </c>
-      <c r="AL103">
-        <v>1.22</v>
-      </c>
-      <c r="AM103">
-        <v>2.22</v>
-      </c>
-      <c r="AN103">
-        <v>1.38</v>
-      </c>
-      <c r="AO103">
-        <v>0.83</v>
-      </c>
-      <c r="AP103">
-        <v>1.22</v>
-      </c>
-      <c r="AQ103">
-        <v>1.14</v>
-      </c>
-      <c r="AR103">
-        <v>1.65</v>
-      </c>
-      <c r="AS103">
-        <v>1.15</v>
-      </c>
-      <c r="AT103">
-        <v>2.8</v>
-      </c>
-      <c r="AU103">
-        <v>-1</v>
-      </c>
-      <c r="AV103">
-        <v>3</v>
-      </c>
-      <c r="AW103">
-        <v>-1</v>
-      </c>
-      <c r="AX103">
-        <v>-1</v>
-      </c>
-      <c r="AY103">
-        <v>-1</v>
-      </c>
-      <c r="AZ103">
-        <v>-1</v>
-      </c>
-      <c r="BA103">
-        <v>-1</v>
-      </c>
-      <c r="BB103">
-        <v>-1</v>
-      </c>
-      <c r="BC103">
-        <v>-1</v>
-      </c>
-      <c r="BD103">
-        <v>1.34</v>
-      </c>
-      <c r="BE103">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF103">
-        <v>3.9</v>
-      </c>
-      <c r="BG103">
-        <v>1.48</v>
-      </c>
-      <c r="BH103">
-        <v>2.33</v>
-      </c>
-      <c r="BI103">
-        <v>1.87</v>
-      </c>
-      <c r="BJ103">
-        <v>1.79</v>
-      </c>
-      <c r="BK103">
-        <v>2.46</v>
-      </c>
-      <c r="BL103">
-        <v>1.43</v>
-      </c>
-      <c r="BM103">
-        <v>3.42</v>
-      </c>
-      <c r="BN103">
-        <v>1.23</v>
-      </c>
-      <c r="BO103">
-        <v>4.9</v>
-      </c>
-      <c r="BP103">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:68">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>7813922</v>
-      </c>
-      <c r="C104" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" s="2">
-        <v>45815.29166666666</v>
-      </c>
-      <c r="F104">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>83</v>
-      </c>
-      <c r="H104" t="s">
-        <v>75</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>2</v>
-      </c>
-      <c r="O104" t="s">
-        <v>149</v>
-      </c>
-      <c r="P104" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q104">
-        <v>3.4</v>
-      </c>
-      <c r="R104">
-        <v>2.2</v>
-      </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
-      <c r="T104">
-        <v>1.36</v>
-      </c>
-      <c r="U104">
-        <v>3</v>
-      </c>
-      <c r="V104">
-        <v>2.63</v>
-      </c>
-      <c r="W104">
-        <v>1.44</v>
-      </c>
-      <c r="X104">
-        <v>7</v>
-      </c>
-      <c r="Y104">
-        <v>1.1</v>
-      </c>
-      <c r="Z104">
-        <v>2.63</v>
-      </c>
-      <c r="AA104">
-        <v>3.29</v>
-      </c>
-      <c r="AB104">
-        <v>2.3</v>
-      </c>
-      <c r="AC104">
-        <v>1.05</v>
-      </c>
-      <c r="AD104">
-        <v>8.5</v>
-      </c>
-      <c r="AE104">
-        <v>1.25</v>
-      </c>
-      <c r="AF104">
-        <v>3.7</v>
-      </c>
-      <c r="AG104">
-        <v>1.8</v>
-      </c>
-      <c r="AH104">
-        <v>1.9</v>
-      </c>
-      <c r="AI104">
-        <v>1.67</v>
-      </c>
-      <c r="AJ104">
-        <v>2.1</v>
-      </c>
-      <c r="AK104">
-        <v>1.55</v>
-      </c>
-      <c r="AL104">
-        <v>1.29</v>
-      </c>
-      <c r="AM104">
-        <v>1.42</v>
-      </c>
-      <c r="AN104">
-        <v>3</v>
-      </c>
-      <c r="AO104">
-        <v>2</v>
-      </c>
-      <c r="AP104">
-        <v>2.5</v>
-      </c>
-      <c r="AQ104">
-        <v>1.83</v>
-      </c>
-      <c r="AR104">
-        <v>1.74</v>
-      </c>
-      <c r="AS104">
-        <v>1.18</v>
-      </c>
-      <c r="AT104">
-        <v>2.92</v>
-      </c>
-      <c r="AU104">
-        <v>2</v>
-      </c>
-      <c r="AV104">
-        <v>2</v>
-      </c>
-      <c r="AW104">
-        <v>-1</v>
-      </c>
-      <c r="AX104">
-        <v>1</v>
-      </c>
-      <c r="AY104">
-        <v>1</v>
-      </c>
-      <c r="AZ104">
-        <v>3</v>
-      </c>
-      <c r="BA104">
-        <v>-1</v>
-      </c>
-      <c r="BB104">
-        <v>-1</v>
-      </c>
-      <c r="BC104">
-        <v>-1</v>
-      </c>
-      <c r="BD104">
-        <v>2.05</v>
-      </c>
-      <c r="BE104">
-        <v>6</v>
-      </c>
-      <c r="BF104">
-        <v>2.16</v>
-      </c>
-      <c r="BG104">
-        <v>1.44</v>
-      </c>
-      <c r="BH104">
-        <v>2.43</v>
-      </c>
-      <c r="BI104">
-        <v>1.91</v>
-      </c>
-      <c r="BJ104">
-        <v>1.8</v>
-      </c>
-      <c r="BK104">
-        <v>2.35</v>
-      </c>
-      <c r="BL104">
-        <v>1.47</v>
-      </c>
-      <c r="BM104">
-        <v>3.2</v>
-      </c>
-      <c r="BN104">
-        <v>1.26</v>
-      </c>
-      <c r="BO104">
-        <v>4.2</v>
-      </c>
-      <c r="BP104">
-        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/South Korea K League 2_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,36 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['5', '35', '78']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['31', '88']</t>
+  </si>
+  <si>
+    <t>['52', '60', '88']</t>
+  </si>
+  <si>
+    <t>['20', '69', '9005']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['1', '6']</t>
   </si>
   <si>
@@ -541,9 +571,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['6', '41']</t>
   </si>
   <si>
@@ -608,6 +635,33 @@
   </si>
   <si>
     <t>['8', '79']</t>
+  </si>
+  <si>
+    <t>['43', '65', '71', '76']</t>
+  </si>
+  <si>
+    <t>['10', '71']</t>
+  </si>
+  <si>
+    <t>['65', '75']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['44', '57']</t>
+  </si>
+  <si>
+    <t>['9', '9006']</t>
+  </si>
+  <si>
+    <t>['15', '26']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['62', '9005']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1434,7 +1488,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>3.8</v>
@@ -1512,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ3">
         <v>1.73</v>
@@ -1718,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1846,7 +1900,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>4.5</v>
@@ -1924,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2130,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2336,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2464,7 +2518,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.39</v>
@@ -2748,10 +2802,10 @@
         <v>3</v>
       </c>
       <c r="AP9">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR9">
         <v>2.58</v>
@@ -2876,7 +2930,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>4.3</v>
@@ -2954,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0.82</v>
@@ -3082,7 +3136,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.8</v>
@@ -3160,7 +3214,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>1.73</v>
@@ -3369,7 +3423,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3494,7 +3548,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.43</v>
@@ -3572,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.4</v>
@@ -3700,7 +3754,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3778,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ14">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AR14">
         <v>1.15</v>
@@ -3984,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4112,7 +4166,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>3.18</v>
@@ -4193,7 +4247,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>1.61</v>
@@ -4318,7 +4372,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4399,7 +4453,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.52</v>
@@ -4524,7 +4578,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>4.9</v>
@@ -4602,7 +4656,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
         <v>1.73</v>
@@ -4730,7 +4784,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2.71</v>
@@ -4808,7 +4862,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4936,7 +4990,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>3.5</v>
@@ -5014,10 +5068,10 @@
         <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR20">
         <v>1.06</v>
@@ -5220,10 +5274,10 @@
         <v>0.5</v>
       </c>
       <c r="AP21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR21">
         <v>1.02</v>
@@ -5348,7 +5402,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5426,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.92</v>
@@ -5632,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR23">
         <v>1.93</v>
@@ -5760,7 +5814,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6044,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>2.07</v>
@@ -6250,10 +6304,10 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6378,7 +6432,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6456,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6584,7 +6638,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6662,7 +6716,7 @@
         <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.73</v>
@@ -6790,7 +6844,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>2.2</v>
@@ -6871,7 +6925,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6996,7 +7050,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7074,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.22</v>
@@ -7202,7 +7256,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7280,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7486,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7614,7 +7668,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.63</v>
@@ -7692,10 +7746,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ33">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -7820,7 +7874,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3.8</v>
@@ -7898,10 +7952,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>0.98</v>
@@ -8026,7 +8080,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8104,10 +8158,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.05</v>
@@ -8310,10 +8364,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8516,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8644,7 +8698,7 @@
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8725,7 +8779,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.61</v>
@@ -8850,7 +8904,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -8928,7 +8982,7 @@
         <v>1.6</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39">
         <v>1.73</v>
@@ -9134,10 +9188,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -9262,7 +9316,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3.25</v>
@@ -9340,10 +9394,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9468,7 +9522,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.5</v>
@@ -9546,7 +9600,7 @@
         <v>0.8</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9752,10 +9806,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.02</v>
@@ -9880,7 +9934,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>3.4</v>
@@ -9958,10 +10012,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>1.43</v>
@@ -10086,7 +10140,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>3.75</v>
@@ -10292,7 +10346,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10373,7 +10427,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR46">
         <v>1.33</v>
@@ -10498,7 +10552,7 @@
         <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10576,10 +10630,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR47">
         <v>1.74</v>
@@ -10704,7 +10758,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10782,7 +10836,7 @@
         <v>0.67</v>
       </c>
       <c r="AP48">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10910,7 +10964,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -10988,10 +11042,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR49">
         <v>1.58</v>
@@ -11194,10 +11248,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.01</v>
@@ -11322,7 +11376,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11400,7 +11454,7 @@
         <v>0.57</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11606,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11812,10 +11866,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.75</v>
@@ -12018,10 +12072,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.1</v>
@@ -12146,7 +12200,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12224,10 +12278,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ55">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12430,7 +12484,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56">
         <v>1.73</v>
@@ -12558,7 +12612,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12636,10 +12690,10 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57">
         <v>1.79</v>
@@ -12764,7 +12818,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.3</v>
@@ -12842,10 +12896,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.31</v>
@@ -12970,7 +13024,7 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13048,7 +13102,7 @@
         <v>0.88</v>
       </c>
       <c r="AP59">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13254,10 +13308,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR60">
         <v>2.02</v>
@@ -13382,7 +13436,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13463,7 +13517,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.39</v>
@@ -13588,7 +13642,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13666,10 +13720,10 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR62">
         <v>1.79</v>
@@ -13794,7 +13848,7 @@
         <v>85</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13872,7 +13926,7 @@
         <v>1.88</v>
       </c>
       <c r="AP63">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>1.73</v>
@@ -14000,7 +14054,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14078,10 +14132,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14206,7 +14260,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14284,10 +14338,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR65">
         <v>1.07</v>
@@ -14412,7 +14466,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14696,10 +14750,10 @@
         <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.4</v>
@@ -14824,7 +14878,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14902,10 +14956,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>0</v>
@@ -15108,10 +15162,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15314,10 +15368,10 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.72</v>
@@ -15442,7 +15496,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15726,10 +15780,10 @@
         <v>0.25</v>
       </c>
       <c r="AP72">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
         <v>1.67</v>
@@ -15854,7 +15908,7 @@
         <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>3.6</v>
@@ -15932,10 +15986,10 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.77</v>
@@ -16060,7 +16114,7 @@
         <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16138,10 +16192,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.98</v>
@@ -16266,7 +16320,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q75">
         <v>1.91</v>
@@ -16344,10 +16398,10 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ75">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR75">
         <v>1.33</v>
@@ -16472,7 +16526,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>2.63</v>
@@ -16550,10 +16604,10 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -16678,7 +16732,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16756,10 +16810,10 @@
         <v>2.33</v>
       </c>
       <c r="AP77">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AQ77">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -16962,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ78">
         <v>0</v>
@@ -17090,7 +17144,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17168,10 +17222,10 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.7</v>
@@ -17377,7 +17431,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR80">
         <v>1.42</v>
@@ -17580,10 +17634,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.17</v>
@@ -17708,7 +17762,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>3.75</v>
@@ -17786,10 +17840,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR82">
         <v>1.65</v>
@@ -17914,7 +17968,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>7.5</v>
@@ -17992,10 +18046,10 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18120,7 +18174,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q84">
         <v>2.38</v>
@@ -18198,7 +18252,7 @@
         <v>1.11</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18326,7 +18380,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18404,10 +18458,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -18532,7 +18586,7 @@
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>4.2</v>
@@ -18613,7 +18667,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18816,10 +18870,10 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19022,10 +19076,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR88">
         <v>1.04</v>
@@ -19150,7 +19204,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q89">
         <v>2.62</v>
@@ -19228,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
         <v>0</v>
@@ -19356,7 +19410,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19434,10 +19488,10 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>1.82</v>
@@ -19640,7 +19694,7 @@
         <v>1.9</v>
       </c>
       <c r="AP91">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ91">
         <v>1.73</v>
@@ -19768,7 +19822,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19846,10 +19900,10 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR92">
         <v>1.86</v>
@@ -19925,6 +19979,2890 @@
       </c>
       <c r="BP92">
         <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7813913</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45808.1875</v>
+      </c>
+      <c r="F93">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93" t="s">
+        <v>147</v>
+      </c>
+      <c r="P93" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q93">
+        <v>2.62</v>
+      </c>
+      <c r="R93">
+        <v>2.15</v>
+      </c>
+      <c r="S93">
+        <v>3.9</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.88</v>
+      </c>
+      <c r="V93">
+        <v>2.9</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>7.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>1.99</v>
+      </c>
+      <c r="AA93">
+        <v>3.33</v>
+      </c>
+      <c r="AB93">
+        <v>3.16</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>8.4</v>
+      </c>
+      <c r="AE93">
+        <v>1.26</v>
+      </c>
+      <c r="AF93">
+        <v>3.22</v>
+      </c>
+      <c r="AG93">
+        <v>1.92</v>
+      </c>
+      <c r="AH93">
+        <v>1.78</v>
+      </c>
+      <c r="AI93">
+        <v>1.75</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
+        <v>1.35</v>
+      </c>
+      <c r="AL93">
+        <v>1.33</v>
+      </c>
+      <c r="AM93">
+        <v>1.62</v>
+      </c>
+      <c r="AN93">
+        <v>2.13</v>
+      </c>
+      <c r="AO93">
+        <v>2.2</v>
+      </c>
+      <c r="AP93">
+        <v>1.89</v>
+      </c>
+      <c r="AQ93">
+        <v>2.33</v>
+      </c>
+      <c r="AR93">
+        <v>1.35</v>
+      </c>
+      <c r="AS93">
+        <v>1.12</v>
+      </c>
+      <c r="AT93">
+        <v>2.47</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>7</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>1.89</v>
+      </c>
+      <c r="BE93">
+        <v>6.05</v>
+      </c>
+      <c r="BF93">
+        <v>2.36</v>
+      </c>
+      <c r="BG93">
+        <v>1.38</v>
+      </c>
+      <c r="BH93">
+        <v>2.8</v>
+      </c>
+      <c r="BI93">
+        <v>1.9</v>
+      </c>
+      <c r="BJ93">
+        <v>1.9</v>
+      </c>
+      <c r="BK93">
+        <v>2.2</v>
+      </c>
+      <c r="BL93">
+        <v>1.6</v>
+      </c>
+      <c r="BM93">
+        <v>3</v>
+      </c>
+      <c r="BN93">
+        <v>1.34</v>
+      </c>
+      <c r="BO93">
+        <v>3.7</v>
+      </c>
+      <c r="BP93">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7813912</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45808.1875</v>
+      </c>
+      <c r="F94">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>83</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94" t="s">
+        <v>148</v>
+      </c>
+      <c r="P94" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q94">
+        <v>2.4</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>4.33</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>1.75</v>
+      </c>
+      <c r="AA94">
+        <v>3.51</v>
+      </c>
+      <c r="AB94">
+        <v>3.82</v>
+      </c>
+      <c r="AC94">
+        <v>1</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.23</v>
+      </c>
+      <c r="AF94">
+        <v>3.42</v>
+      </c>
+      <c r="AG94">
+        <v>1.84</v>
+      </c>
+      <c r="AH94">
+        <v>1.86</v>
+      </c>
+      <c r="AI94">
+        <v>1.75</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.22</v>
+      </c>
+      <c r="AL94">
+        <v>1.3</v>
+      </c>
+      <c r="AM94">
+        <v>1.95</v>
+      </c>
+      <c r="AN94">
+        <v>3</v>
+      </c>
+      <c r="AO94">
+        <v>0.17</v>
+      </c>
+      <c r="AP94">
+        <v>2.5</v>
+      </c>
+      <c r="AQ94">
+        <v>0.5</v>
+      </c>
+      <c r="AR94">
+        <v>1.56</v>
+      </c>
+      <c r="AS94">
+        <v>1.09</v>
+      </c>
+      <c r="AT94">
+        <v>2.65</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>5</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>12</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7813914</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>149</v>
+      </c>
+      <c r="P95" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q95">
+        <v>3.1</v>
+      </c>
+      <c r="R95">
+        <v>2.15</v>
+      </c>
+      <c r="S95">
+        <v>3.2</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>2.9</v>
+      </c>
+      <c r="V95">
+        <v>2.8</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>7.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.41</v>
+      </c>
+      <c r="AA95">
+        <v>3.17</v>
+      </c>
+      <c r="AB95">
+        <v>2.56</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>9</v>
+      </c>
+      <c r="AE95">
+        <v>1.25</v>
+      </c>
+      <c r="AF95">
+        <v>3.28</v>
+      </c>
+      <c r="AG95">
+        <v>1.92</v>
+      </c>
+      <c r="AH95">
+        <v>1.78</v>
+      </c>
+      <c r="AI95">
+        <v>1.73</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>1.44</v>
+      </c>
+      <c r="AL95">
+        <v>1.33</v>
+      </c>
+      <c r="AM95">
+        <v>1.5</v>
+      </c>
+      <c r="AN95">
+        <v>0.67</v>
+      </c>
+      <c r="AO95">
+        <v>0.67</v>
+      </c>
+      <c r="AP95">
+        <v>0.4</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1.52</v>
+      </c>
+      <c r="AS95">
+        <v>1.16</v>
+      </c>
+      <c r="AT95">
+        <v>2.68</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+      <c r="AY95">
+        <v>8</v>
+      </c>
+      <c r="AZ95">
+        <v>5</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>1</v>
+      </c>
+      <c r="BC95">
+        <v>1</v>
+      </c>
+      <c r="BD95">
+        <v>2.13</v>
+      </c>
+      <c r="BE95">
+        <v>5.95</v>
+      </c>
+      <c r="BF95">
+        <v>2.08</v>
+      </c>
+      <c r="BG95">
+        <v>1.46</v>
+      </c>
+      <c r="BH95">
+        <v>2.65</v>
+      </c>
+      <c r="BI95">
+        <v>2</v>
+      </c>
+      <c r="BJ95">
+        <v>1.8</v>
+      </c>
+      <c r="BK95">
+        <v>2.26</v>
+      </c>
+      <c r="BL95">
+        <v>1.61</v>
+      </c>
+      <c r="BM95">
+        <v>3.14</v>
+      </c>
+      <c r="BN95">
+        <v>1.27</v>
+      </c>
+      <c r="BO95">
+        <v>4.05</v>
+      </c>
+      <c r="BP95">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7813915</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>150</v>
+      </c>
+      <c r="P96" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q96">
+        <v>3.7</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>2.8</v>
+      </c>
+      <c r="T96">
+        <v>1.4</v>
+      </c>
+      <c r="U96">
+        <v>2.8</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>8.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.97</v>
+      </c>
+      <c r="AA96">
+        <v>3.11</v>
+      </c>
+      <c r="AB96">
+        <v>2.17</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE96">
+        <v>1.31</v>
+      </c>
+      <c r="AF96">
+        <v>2.92</v>
+      </c>
+      <c r="AG96">
+        <v>1.95</v>
+      </c>
+      <c r="AH96">
+        <v>1.75</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.62</v>
+      </c>
+      <c r="AL96">
+        <v>1.35</v>
+      </c>
+      <c r="AM96">
+        <v>1.35</v>
+      </c>
+      <c r="AN96">
+        <v>0.57</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>0.88</v>
+      </c>
+      <c r="AQ96">
+        <v>0.86</v>
+      </c>
+      <c r="AR96">
+        <v>1.3</v>
+      </c>
+      <c r="AS96">
+        <v>1.21</v>
+      </c>
+      <c r="AT96">
+        <v>2.51</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>3</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>10</v>
+      </c>
+      <c r="AZ96">
+        <v>11</v>
+      </c>
+      <c r="BA96">
+        <v>2</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>4</v>
+      </c>
+      <c r="BD96">
+        <v>2.13</v>
+      </c>
+      <c r="BE96">
+        <v>5.9</v>
+      </c>
+      <c r="BF96">
+        <v>2.09</v>
+      </c>
+      <c r="BG96">
+        <v>1.51</v>
+      </c>
+      <c r="BH96">
+        <v>2.47</v>
+      </c>
+      <c r="BI96">
+        <v>1.89</v>
+      </c>
+      <c r="BJ96">
+        <v>1.91</v>
+      </c>
+      <c r="BK96">
+        <v>2.4</v>
+      </c>
+      <c r="BL96">
+        <v>1.54</v>
+      </c>
+      <c r="BM96">
+        <v>3.5</v>
+      </c>
+      <c r="BN96">
+        <v>1.22</v>
+      </c>
+      <c r="BO96">
+        <v>4.5</v>
+      </c>
+      <c r="BP96">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7813916</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>151</v>
+      </c>
+      <c r="P97" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q97">
+        <v>2.7</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>2.11</v>
+      </c>
+      <c r="AA97">
+        <v>3.24</v>
+      </c>
+      <c r="AB97">
+        <v>3.25</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>8.4</v>
+      </c>
+      <c r="AE97">
+        <v>1.33</v>
+      </c>
+      <c r="AF97">
+        <v>2.83</v>
+      </c>
+      <c r="AG97">
+        <v>2.17</v>
+      </c>
+      <c r="AH97">
+        <v>1.62</v>
+      </c>
+      <c r="AI97">
+        <v>1.85</v>
+      </c>
+      <c r="AJ97">
+        <v>1.85</v>
+      </c>
+      <c r="AK97">
+        <v>1.3</v>
+      </c>
+      <c r="AL97">
+        <v>1.36</v>
+      </c>
+      <c r="AM97">
+        <v>1.65</v>
+      </c>
+      <c r="AN97">
+        <v>1.5</v>
+      </c>
+      <c r="AO97">
+        <v>1.33</v>
+      </c>
+      <c r="AP97">
+        <v>1.71</v>
+      </c>
+      <c r="AQ97">
+        <v>1.14</v>
+      </c>
+      <c r="AR97">
+        <v>1.82</v>
+      </c>
+      <c r="AS97">
+        <v>1.31</v>
+      </c>
+      <c r="AT97">
+        <v>3.13</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
+        <v>10</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
+        <v>5</v>
+      </c>
+      <c r="BD97">
+        <v>1.69</v>
+      </c>
+      <c r="BE97">
+        <v>7.6</v>
+      </c>
+      <c r="BF97">
+        <v>2.53</v>
+      </c>
+      <c r="BG97">
+        <v>1.52</v>
+      </c>
+      <c r="BH97">
+        <v>2.44</v>
+      </c>
+      <c r="BI97">
+        <v>1.92</v>
+      </c>
+      <c r="BJ97">
+        <v>1.88</v>
+      </c>
+      <c r="BK97">
+        <v>2.42</v>
+      </c>
+      <c r="BL97">
+        <v>1.53</v>
+      </c>
+      <c r="BM97">
+        <v>3.34</v>
+      </c>
+      <c r="BN97">
+        <v>1.24</v>
+      </c>
+      <c r="BO97">
+        <v>4.25</v>
+      </c>
+      <c r="BP97">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7813917</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>152</v>
+      </c>
+      <c r="P98" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q98">
+        <v>2.3</v>
+      </c>
+      <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>4.4</v>
+      </c>
+      <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.1</v>
+      </c>
+      <c r="V98">
+        <v>2.6</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.11</v>
+      </c>
+      <c r="Z98">
+        <v>1.69</v>
+      </c>
+      <c r="AA98">
+        <v>3.62</v>
+      </c>
+      <c r="AB98">
+        <v>3.95</v>
+      </c>
+      <c r="AC98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.24</v>
+      </c>
+      <c r="AF98">
+        <v>3.34</v>
+      </c>
+      <c r="AG98">
+        <v>1.86</v>
+      </c>
+      <c r="AH98">
+        <v>1.84</v>
+      </c>
+      <c r="AI98">
+        <v>1.73</v>
+      </c>
+      <c r="AJ98">
+        <v>2.05</v>
+      </c>
+      <c r="AK98">
+        <v>1.2</v>
+      </c>
+      <c r="AL98">
+        <v>1.29</v>
+      </c>
+      <c r="AM98">
+        <v>2</v>
+      </c>
+      <c r="AN98">
+        <v>2.43</v>
+      </c>
+      <c r="AO98">
+        <v>1.83</v>
+      </c>
+      <c r="AP98">
+        <v>2.5</v>
+      </c>
+      <c r="AQ98">
+        <v>1.38</v>
+      </c>
+      <c r="AR98">
+        <v>1.85</v>
+      </c>
+      <c r="AS98">
+        <v>1.64</v>
+      </c>
+      <c r="AT98">
+        <v>3.49</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>8</v>
+      </c>
+      <c r="AY98">
+        <v>14</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>3</v>
+      </c>
+      <c r="BB98">
+        <v>10</v>
+      </c>
+      <c r="BC98">
+        <v>13</v>
+      </c>
+      <c r="BD98">
+        <v>1.63</v>
+      </c>
+      <c r="BE98">
+        <v>8.1</v>
+      </c>
+      <c r="BF98">
+        <v>2.62</v>
+      </c>
+      <c r="BG98">
+        <v>1.32</v>
+      </c>
+      <c r="BH98">
+        <v>2.88</v>
+      </c>
+      <c r="BI98">
+        <v>1.66</v>
+      </c>
+      <c r="BJ98">
+        <v>2.18</v>
+      </c>
+      <c r="BK98">
+        <v>2.1</v>
+      </c>
+      <c r="BL98">
+        <v>1.71</v>
+      </c>
+      <c r="BM98">
+        <v>2.69</v>
+      </c>
+      <c r="BN98">
+        <v>1.36</v>
+      </c>
+      <c r="BO98">
+        <v>3.75</v>
+      </c>
+      <c r="BP98">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7813918</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q99">
+        <v>6.5</v>
+      </c>
+      <c r="R99">
+        <v>2.4</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>1.3</v>
+      </c>
+      <c r="U99">
+        <v>3.25</v>
+      </c>
+      <c r="V99">
+        <v>2.5</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>6</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>6.9</v>
+      </c>
+      <c r="AA99">
+        <v>4.4</v>
+      </c>
+      <c r="AB99">
+        <v>1.34</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>11</v>
+      </c>
+      <c r="AE99">
+        <v>1.16</v>
+      </c>
+      <c r="AF99">
+        <v>4.15</v>
+      </c>
+      <c r="AG99">
+        <v>1.78</v>
+      </c>
+      <c r="AH99">
+        <v>1.92</v>
+      </c>
+      <c r="AI99">
+        <v>1.91</v>
+      </c>
+      <c r="AJ99">
+        <v>1.83</v>
+      </c>
+      <c r="AK99">
+        <v>3</v>
+      </c>
+      <c r="AL99">
+        <v>1.2</v>
+      </c>
+      <c r="AM99">
+        <v>1.08</v>
+      </c>
+      <c r="AN99">
+        <v>0.57</v>
+      </c>
+      <c r="AO99">
+        <v>2.4</v>
+      </c>
+      <c r="AP99">
+        <v>0.88</v>
+      </c>
+      <c r="AQ99">
+        <v>2</v>
+      </c>
+      <c r="AR99">
+        <v>1.19</v>
+      </c>
+      <c r="AS99">
+        <v>1.29</v>
+      </c>
+      <c r="AT99">
+        <v>2.48</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>2</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>8</v>
+      </c>
+      <c r="AZ99">
+        <v>9</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
+      <c r="BC99">
+        <v>5</v>
+      </c>
+      <c r="BD99">
+        <v>2.83</v>
+      </c>
+      <c r="BE99">
+        <v>8.1</v>
+      </c>
+      <c r="BF99">
+        <v>1.56</v>
+      </c>
+      <c r="BG99">
+        <v>1.34</v>
+      </c>
+      <c r="BH99">
+        <v>2.78</v>
+      </c>
+      <c r="BI99">
+        <v>1.71</v>
+      </c>
+      <c r="BJ99">
+        <v>2.09</v>
+      </c>
+      <c r="BK99">
+        <v>2.15</v>
+      </c>
+      <c r="BL99">
+        <v>1.68</v>
+      </c>
+      <c r="BM99">
+        <v>2.78</v>
+      </c>
+      <c r="BN99">
+        <v>1.34</v>
+      </c>
+      <c r="BO99">
+        <v>3.62</v>
+      </c>
+      <c r="BP99">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7813920</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45814.29166666666</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>154</v>
+      </c>
+      <c r="P100" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q100">
+        <v>4.33</v>
+      </c>
+      <c r="R100">
+        <v>2.15</v>
+      </c>
+      <c r="S100">
+        <v>2.35</v>
+      </c>
+      <c r="T100">
+        <v>1.38</v>
+      </c>
+      <c r="U100">
+        <v>2.8</v>
+      </c>
+      <c r="V100">
+        <v>2.8</v>
+      </c>
+      <c r="W100">
+        <v>1.38</v>
+      </c>
+      <c r="X100">
+        <v>6.4</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>4</v>
+      </c>
+      <c r="AA100">
+        <v>3.52</v>
+      </c>
+      <c r="AB100">
+        <v>1.7</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.3</v>
+      </c>
+      <c r="AF100">
+        <v>3.35</v>
+      </c>
+      <c r="AG100">
+        <v>1.89</v>
+      </c>
+      <c r="AH100">
+        <v>1.81</v>
+      </c>
+      <c r="AI100">
+        <v>1.8</v>
+      </c>
+      <c r="AJ100">
+        <v>1.83</v>
+      </c>
+      <c r="AK100">
+        <v>2</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.17</v>
+      </c>
+      <c r="AN100">
+        <v>1.71</v>
+      </c>
+      <c r="AO100">
+        <v>1.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>1.57</v>
+      </c>
+      <c r="AR100">
+        <v>1.06</v>
+      </c>
+      <c r="AS100">
+        <v>1.71</v>
+      </c>
+      <c r="AT100">
+        <v>2.77</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>13</v>
+      </c>
+      <c r="BA100">
+        <v>4</v>
+      </c>
+      <c r="BB100">
+        <v>1</v>
+      </c>
+      <c r="BC100">
+        <v>5</v>
+      </c>
+      <c r="BD100">
+        <v>3.12</v>
+      </c>
+      <c r="BE100">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF100">
+        <v>1.48</v>
+      </c>
+      <c r="BG100">
+        <v>1.34</v>
+      </c>
+      <c r="BH100">
+        <v>2.78</v>
+      </c>
+      <c r="BI100">
+        <v>1.65</v>
+      </c>
+      <c r="BJ100">
+        <v>2.05</v>
+      </c>
+      <c r="BK100">
+        <v>2.08</v>
+      </c>
+      <c r="BL100">
+        <v>1.6</v>
+      </c>
+      <c r="BM100">
+        <v>2.78</v>
+      </c>
+      <c r="BN100">
+        <v>1.34</v>
+      </c>
+      <c r="BO100">
+        <v>3.55</v>
+      </c>
+      <c r="BP100">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7813919</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45814.29166666666</v>
+      </c>
+      <c r="F101">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>85</v>
+      </c>
+      <c r="P101" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q101">
+        <v>3.88</v>
+      </c>
+      <c r="R101">
+        <v>2.04</v>
+      </c>
+      <c r="S101">
+        <v>2.7</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.72</v>
+      </c>
+      <c r="V101">
+        <v>2.93</v>
+      </c>
+      <c r="W101">
+        <v>1.35</v>
+      </c>
+      <c r="X101">
+        <v>7.3</v>
+      </c>
+      <c r="Y101">
+        <v>1.03</v>
+      </c>
+      <c r="Z101">
+        <v>3.24</v>
+      </c>
+      <c r="AA101">
+        <v>3.28</v>
+      </c>
+      <c r="AB101">
+        <v>2.1</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE101">
+        <v>1.29</v>
+      </c>
+      <c r="AF101">
+        <v>3.04</v>
+      </c>
+      <c r="AG101">
+        <v>2</v>
+      </c>
+      <c r="AH101">
+        <v>1.73</v>
+      </c>
+      <c r="AI101">
+        <v>1.79</v>
+      </c>
+      <c r="AJ101">
+        <v>1.87</v>
+      </c>
+      <c r="AK101">
+        <v>1.64</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.28</v>
+      </c>
+      <c r="AN101">
+        <v>0.5</v>
+      </c>
+      <c r="AO101">
+        <v>0.86</v>
+      </c>
+      <c r="AP101">
+        <v>0.4</v>
+      </c>
+      <c r="AQ101">
+        <v>1.13</v>
+      </c>
+      <c r="AR101">
+        <v>1.52</v>
+      </c>
+      <c r="AS101">
+        <v>1.4</v>
+      </c>
+      <c r="AT101">
+        <v>2.92</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>3</v>
+      </c>
+      <c r="AW101">
+        <v>7</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>7</v>
+      </c>
+      <c r="AZ101">
+        <v>8</v>
+      </c>
+      <c r="BA101">
+        <v>6</v>
+      </c>
+      <c r="BB101">
+        <v>10</v>
+      </c>
+      <c r="BC101">
+        <v>16</v>
+      </c>
+      <c r="BD101">
+        <v>2.6</v>
+      </c>
+      <c r="BE101">
+        <v>6.05</v>
+      </c>
+      <c r="BF101">
+        <v>1.76</v>
+      </c>
+      <c r="BG101">
+        <v>1.46</v>
+      </c>
+      <c r="BH101">
+        <v>2.38</v>
+      </c>
+      <c r="BI101">
+        <v>1.85</v>
+      </c>
+      <c r="BJ101">
+        <v>1.81</v>
+      </c>
+      <c r="BK101">
+        <v>2.42</v>
+      </c>
+      <c r="BL101">
+        <v>1.44</v>
+      </c>
+      <c r="BM101">
+        <v>3.34</v>
+      </c>
+      <c r="BN101">
+        <v>1.24</v>
+      </c>
+      <c r="BO101">
+        <v>4.25</v>
+      </c>
+      <c r="BP101">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7813923</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45815.29166666666</v>
+      </c>
+      <c r="F102">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s">
+        <v>77</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>85</v>
+      </c>
+      <c r="P102" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q102">
+        <v>2.79</v>
+      </c>
+      <c r="R102">
+        <v>2.12</v>
+      </c>
+      <c r="S102">
+        <v>3.48</v>
+      </c>
+      <c r="T102">
+        <v>1.35</v>
+      </c>
+      <c r="U102">
+        <v>2.93</v>
+      </c>
+      <c r="V102">
+        <v>2.69</v>
+      </c>
+      <c r="W102">
+        <v>1.41</v>
+      </c>
+      <c r="X102">
+        <v>6.4</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2.16</v>
+      </c>
+      <c r="AA102">
+        <v>3.38</v>
+      </c>
+      <c r="AB102">
+        <v>2.76</v>
+      </c>
+      <c r="AC102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE102">
+        <v>1.22</v>
+      </c>
+      <c r="AF102">
+        <v>3.48</v>
+      </c>
+      <c r="AG102">
+        <v>1.82</v>
+      </c>
+      <c r="AH102">
+        <v>1.88</v>
+      </c>
+      <c r="AI102">
+        <v>1.65</v>
+      </c>
+      <c r="AJ102">
+        <v>2.05</v>
+      </c>
+      <c r="AK102">
+        <v>1.35</v>
+      </c>
+      <c r="AL102">
+        <v>1.26</v>
+      </c>
+      <c r="AM102">
+        <v>1.57</v>
+      </c>
+      <c r="AN102">
+        <v>1.43</v>
+      </c>
+      <c r="AO102">
+        <v>0.14</v>
+      </c>
+      <c r="AP102">
+        <v>1.25</v>
+      </c>
+      <c r="AQ102">
+        <v>0.5</v>
+      </c>
+      <c r="AR102">
+        <v>1.78</v>
+      </c>
+      <c r="AS102">
+        <v>1.09</v>
+      </c>
+      <c r="AT102">
+        <v>2.87</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>1</v>
+      </c>
+      <c r="AX102">
+        <v>2</v>
+      </c>
+      <c r="AY102">
+        <v>7</v>
+      </c>
+      <c r="AZ102">
+        <v>6</v>
+      </c>
+      <c r="BA102">
+        <v>4</v>
+      </c>
+      <c r="BB102">
+        <v>3</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>2</v>
+      </c>
+      <c r="BE102">
+        <v>6.05</v>
+      </c>
+      <c r="BF102">
+        <v>2.21</v>
+      </c>
+      <c r="BG102">
+        <v>1.37</v>
+      </c>
+      <c r="BH102">
+        <v>2.66</v>
+      </c>
+      <c r="BI102">
+        <v>1.7</v>
+      </c>
+      <c r="BJ102">
+        <v>1.98</v>
+      </c>
+      <c r="BK102">
+        <v>2.15</v>
+      </c>
+      <c r="BL102">
+        <v>1.56</v>
+      </c>
+      <c r="BM102">
+        <v>2.92</v>
+      </c>
+      <c r="BN102">
+        <v>1.31</v>
+      </c>
+      <c r="BO102">
+        <v>3.48</v>
+      </c>
+      <c r="BP102">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7813921</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45815.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>85</v>
+      </c>
+      <c r="P103" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q103">
+        <v>2.14</v>
+      </c>
+      <c r="R103">
+        <v>2.16</v>
+      </c>
+      <c r="S103">
+        <v>5.35</v>
+      </c>
+      <c r="T103">
+        <v>1.37</v>
+      </c>
+      <c r="U103">
+        <v>2.84</v>
+      </c>
+      <c r="V103">
+        <v>2.8</v>
+      </c>
+      <c r="W103">
+        <v>1.38</v>
+      </c>
+      <c r="X103">
+        <v>6.85</v>
+      </c>
+      <c r="Y103">
+        <v>1.04</v>
+      </c>
+      <c r="Z103">
+        <v>1.55</v>
+      </c>
+      <c r="AA103">
+        <v>3.72</v>
+      </c>
+      <c r="AB103">
+        <v>4.8</v>
+      </c>
+      <c r="AC103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE103">
+        <v>1.26</v>
+      </c>
+      <c r="AF103">
+        <v>3.22</v>
+      </c>
+      <c r="AG103">
+        <v>1.9</v>
+      </c>
+      <c r="AH103">
+        <v>1.8</v>
+      </c>
+      <c r="AI103">
+        <v>1.9</v>
+      </c>
+      <c r="AJ103">
+        <v>1.77</v>
+      </c>
+      <c r="AK103">
+        <v>1.11</v>
+      </c>
+      <c r="AL103">
+        <v>1.22</v>
+      </c>
+      <c r="AM103">
+        <v>2.22</v>
+      </c>
+      <c r="AN103">
+        <v>1.38</v>
+      </c>
+      <c r="AO103">
+        <v>0.83</v>
+      </c>
+      <c r="AP103">
+        <v>1.22</v>
+      </c>
+      <c r="AQ103">
+        <v>1.14</v>
+      </c>
+      <c r="AR103">
+        <v>1.65</v>
+      </c>
+      <c r="AS103">
+        <v>1.15</v>
+      </c>
+      <c r="AT103">
+        <v>2.8</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>9</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>13</v>
+      </c>
+      <c r="AZ103">
+        <v>3</v>
+      </c>
+      <c r="BA103">
+        <v>9</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>1.34</v>
+      </c>
+      <c r="BE103">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF103">
+        <v>3.9</v>
+      </c>
+      <c r="BG103">
+        <v>1.48</v>
+      </c>
+      <c r="BH103">
+        <v>2.33</v>
+      </c>
+      <c r="BI103">
+        <v>1.87</v>
+      </c>
+      <c r="BJ103">
+        <v>1.79</v>
+      </c>
+      <c r="BK103">
+        <v>2.46</v>
+      </c>
+      <c r="BL103">
+        <v>1.43</v>
+      </c>
+      <c r="BM103">
+        <v>3.42</v>
+      </c>
+      <c r="BN103">
+        <v>1.23</v>
+      </c>
+      <c r="BO103">
+        <v>4.9</v>
+      </c>
+      <c r="BP103">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7813922</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45815.29166666666</v>
+      </c>
+      <c r="F104">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>150</v>
+      </c>
+      <c r="P104" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q104">
+        <v>3.4</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1.1</v>
+      </c>
+      <c r="Z104">
+        <v>2.63</v>
+      </c>
+      <c r="AA104">
+        <v>3.29</v>
+      </c>
+      <c r="AB104">
+        <v>2.3</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>8.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.25</v>
+      </c>
+      <c r="AF104">
+        <v>3.7</v>
+      </c>
+      <c r="AG104">
+        <v>1.8</v>
+      </c>
+      <c r="AH104">
+        <v>1.9</v>
+      </c>
+      <c r="AI104">
+        <v>1.67</v>
+      </c>
+      <c r="AJ104">
+        <v>2.1</v>
+      </c>
+      <c r="AK104">
+        <v>1.55</v>
+      </c>
+      <c r="AL104">
+        <v>1.29</v>
+      </c>
+      <c r="AM104">
+        <v>1.42</v>
+      </c>
+      <c r="AN104">
+        <v>3</v>
+      </c>
+      <c r="AO104">
+        <v>2</v>
+      </c>
+      <c r="AP104">
+        <v>2.5</v>
+      </c>
+      <c r="AQ104">
+        <v>1.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.56</v>
+      </c>
+      <c r="AS104">
+        <v>1.18</v>
+      </c>
+      <c r="AT104">
+        <v>2.74</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>3</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>7</v>
+      </c>
+      <c r="AZ104">
+        <v>8</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
+        <v>8</v>
+      </c>
+      <c r="BC104">
+        <v>12</v>
+      </c>
+      <c r="BD104">
+        <v>2.05</v>
+      </c>
+      <c r="BE104">
+        <v>6</v>
+      </c>
+      <c r="BF104">
+        <v>2.16</v>
+      </c>
+      <c r="BG104">
+        <v>1.44</v>
+      </c>
+      <c r="BH104">
+        <v>2.43</v>
+      </c>
+      <c r="BI104">
+        <v>1.91</v>
+      </c>
+      <c r="BJ104">
+        <v>1.8</v>
+      </c>
+      <c r="BK104">
+        <v>2.35</v>
+      </c>
+      <c r="BL104">
+        <v>1.47</v>
+      </c>
+      <c r="BM104">
+        <v>3.2</v>
+      </c>
+      <c r="BN104">
+        <v>1.26</v>
+      </c>
+      <c r="BO104">
+        <v>4.2</v>
+      </c>
+      <c r="BP104">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7813924</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45816.29166666666</v>
+      </c>
+      <c r="F105">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>155</v>
+      </c>
+      <c r="P105" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q105">
+        <v>2.25</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>5.5</v>
+      </c>
+      <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
+        <v>1.36</v>
+      </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>1.62</v>
+      </c>
+      <c r="AA105">
+        <v>3.56</v>
+      </c>
+      <c r="AB105">
+        <v>4.6</v>
+      </c>
+      <c r="AC105">
+        <v>1</v>
+      </c>
+      <c r="AD105">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE105">
+        <v>1.26</v>
+      </c>
+      <c r="AF105">
+        <v>3.22</v>
+      </c>
+      <c r="AG105">
+        <v>1.94</v>
+      </c>
+      <c r="AH105">
+        <v>1.76</v>
+      </c>
+      <c r="AI105">
+        <v>2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.73</v>
+      </c>
+      <c r="AK105">
+        <v>1.18</v>
+      </c>
+      <c r="AL105">
+        <v>1.3</v>
+      </c>
+      <c r="AM105">
+        <v>2.05</v>
+      </c>
+      <c r="AN105">
+        <v>2.75</v>
+      </c>
+      <c r="AO105">
+        <v>1.57</v>
+      </c>
+      <c r="AP105">
+        <v>2.78</v>
+      </c>
+      <c r="AQ105">
+        <v>1.38</v>
+      </c>
+      <c r="AR105">
+        <v>1.75</v>
+      </c>
+      <c r="AS105">
+        <v>1.64</v>
+      </c>
+      <c r="AT105">
+        <v>3.39</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>0</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>4</v>
+      </c>
+      <c r="AY105">
+        <v>12</v>
+      </c>
+      <c r="AZ105">
+        <v>4</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>2</v>
+      </c>
+      <c r="BC105">
+        <v>5</v>
+      </c>
+      <c r="BD105">
+        <v>1.55</v>
+      </c>
+      <c r="BE105">
+        <v>7.8</v>
+      </c>
+      <c r="BF105">
+        <v>2.9</v>
+      </c>
+      <c r="BG105">
+        <v>1.46</v>
+      </c>
+      <c r="BH105">
+        <v>2.38</v>
+      </c>
+      <c r="BI105">
+        <v>1.85</v>
+      </c>
+      <c r="BJ105">
+        <v>1.81</v>
+      </c>
+      <c r="BK105">
+        <v>2.42</v>
+      </c>
+      <c r="BL105">
+        <v>1.44</v>
+      </c>
+      <c r="BM105">
+        <v>3.34</v>
+      </c>
+      <c r="BN105">
+        <v>1.24</v>
+      </c>
+      <c r="BO105">
+        <v>4</v>
+      </c>
+      <c r="BP105">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7813925</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45816.29166666666</v>
+      </c>
+      <c r="F106">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>156</v>
+      </c>
+      <c r="P106" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q106">
+        <v>2.5</v>
+      </c>
+      <c r="R106">
+        <v>2.2</v>
+      </c>
+      <c r="S106">
+        <v>4.5</v>
+      </c>
+      <c r="T106">
+        <v>1.4</v>
+      </c>
+      <c r="U106">
+        <v>2.75</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>1.36</v>
+      </c>
+      <c r="X106">
+        <v>8</v>
+      </c>
+      <c r="Y106">
+        <v>1.08</v>
+      </c>
+      <c r="Z106">
+        <v>1.82</v>
+      </c>
+      <c r="AA106">
+        <v>3.31</v>
+      </c>
+      <c r="AB106">
+        <v>3.71</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>8.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.27</v>
+      </c>
+      <c r="AF106">
+        <v>3.14</v>
+      </c>
+      <c r="AG106">
+        <v>1.95</v>
+      </c>
+      <c r="AH106">
+        <v>1.75</v>
+      </c>
+      <c r="AI106">
+        <v>1.83</v>
+      </c>
+      <c r="AJ106">
+        <v>1.83</v>
+      </c>
+      <c r="AK106">
+        <v>1.22</v>
+      </c>
+      <c r="AL106">
+        <v>1.3</v>
+      </c>
+      <c r="AM106">
+        <v>1.85</v>
+      </c>
+      <c r="AN106">
+        <v>0.71</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>0</v>
+      </c>
+      <c r="AR106">
+        <v>1.56</v>
+      </c>
+      <c r="AS106">
+        <v>1.27</v>
+      </c>
+      <c r="AT106">
+        <v>2.83</v>
+      </c>
+      <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
+      <c r="AW106">
+        <v>11</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>14</v>
+      </c>
+      <c r="AZ106">
+        <v>6</v>
+      </c>
+      <c r="BA106">
+        <v>11</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>1.65</v>
+      </c>
+      <c r="BE106">
+        <v>6.2</v>
+      </c>
+      <c r="BF106">
+        <v>2.85</v>
+      </c>
+      <c r="BG106">
+        <v>1.44</v>
+      </c>
+      <c r="BH106">
+        <v>2.43</v>
+      </c>
+      <c r="BI106">
+        <v>1.81</v>
+      </c>
+      <c r="BJ106">
+        <v>1.85</v>
+      </c>
+      <c r="BK106">
+        <v>2.33</v>
+      </c>
+      <c r="BL106">
+        <v>1.48</v>
+      </c>
+      <c r="BM106">
+        <v>3.2</v>
+      </c>
+      <c r="BN106">
+        <v>1.26</v>
+      </c>
+      <c r="BO106">
+        <v>4.05</v>
+      </c>
+      <c r="BP106">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
